--- a/data-raw/archipelagos_in_datasets_no_duplicates.xlsx
+++ b/data-raw/archipelagos_in_datasets_no_duplicates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\islandpaleoarea\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\islandpaleoarea\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="12045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="12045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="176">
   <si>
     <t>island</t>
   </si>
@@ -547,6 +547,15 @@
   </si>
   <si>
     <t>Sum of ka16_Cutler</t>
+  </si>
+  <si>
+    <t>ka0_Lambeck</t>
+  </si>
+  <si>
+    <t>ka0_Cutler</t>
+  </si>
+  <si>
+    <t>Sum of ka0_Lambeck</t>
   </si>
 </sst>
 </file>
@@ -591,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -600,6 +609,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,158 +629,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Pedro Neves" refreshedDate="44024.750684027778" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="144">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Pedro Neves" refreshedDate="44032.610022106484" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="144">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D145" sheet="Sheet1"/>
+    <worksheetSource ref="A1:F145" sheet="Sheet1"/>
   </cacheSource>
-  <cacheFields count="4">
+  <cacheFields count="6">
     <cacheField name="island" numFmtId="0">
-      <sharedItems count="144">
-        <s v="Aldabra"/>
-        <s v="Assumption"/>
-        <s v="Astove"/>
-        <s v="Cosmoledo"/>
-        <s v="Corvo"/>
-        <s v="Faial"/>
-        <s v="Flores"/>
-        <s v="Graciosa"/>
-        <s v="Santa Maria"/>
-        <s v="Sao Jorge"/>
-        <s v="Sao Miguel"/>
-        <s v="Terceira"/>
-        <s v="Cabrera"/>
-        <s v="Formentera"/>
-        <s v="Anacapa"/>
-        <s v="San Clemente"/>
-        <s v="San Nicolas"/>
-        <s v="Santa Barbara"/>
-        <s v="Santa Catalina"/>
-        <s v="Fuerteventura"/>
-        <s v="Gran Canaria"/>
-        <s v="Hierro"/>
-        <s v="La Gomera"/>
-        <s v="La Palma"/>
-        <s v="Tenerife"/>
-        <s v="Boa Vista"/>
-        <s v="Brava"/>
-        <s v="Fogo"/>
-        <s v="Maio"/>
-        <s v="Sal"/>
-        <s v="Santa Luzia"/>
-        <s v="Santiago"/>
-        <s v="Santo Antao"/>
-        <s v="Sao Nicolau"/>
-        <s v="Anjouan"/>
-        <s v="Grande Comore"/>
-        <s v="Mayotte"/>
-        <s v="Moheli"/>
-        <s v="Aitutaki"/>
-        <s v="Atiu"/>
-        <s v="Mangaia"/>
-        <s v="Mauke"/>
-        <s v="Mitiaro"/>
-        <s v="Rarotonga"/>
-        <s v="Apotres"/>
-        <s v="Cochons"/>
-        <s v="Lest"/>
-        <s v="Pingouins"/>
-        <s v="Possession"/>
-        <s v="Aruba"/>
-        <s v="Bonaire"/>
-        <s v="Curacao"/>
-        <s v="Espanola"/>
-        <s v="Fernandina"/>
-        <s v="Floreana"/>
-        <s v="Pinta"/>
-        <s v="Pinzon"/>
-        <s v="Rabida"/>
-        <s v="San Cristobal"/>
-        <s v="Santa Cruz"/>
-        <s v="Santa Fe"/>
-        <s v="Annobon"/>
-        <s v="Principe"/>
-        <s v="Sao Tome"/>
-        <s v="Hawaii"/>
-        <s v="Kahoolawe"/>
-        <s v="Kauai"/>
-        <s v="Lanai"/>
-        <s v="Niihau"/>
-        <s v="Oahu"/>
-        <s v="Bird"/>
-        <s v="Alejandro Selkirk"/>
-        <s v="Robinson Crusoe"/>
-        <s v="Antsiferov"/>
-        <s v="Atlasova"/>
-        <s v="Chirinkotan"/>
-        <s v="Ekarma"/>
-        <s v="Iturup"/>
-        <s v="Ketoy"/>
-        <s v="Kharimkotan"/>
-        <s v="Kunashir"/>
-        <s v="Makanrushi"/>
-        <s v="Matua"/>
-        <s v="Onekotan"/>
-        <s v="Paramushir"/>
-        <s v="Rasshua"/>
-        <s v="Raykoke"/>
-        <s v="Shiashkotan"/>
-        <s v="Shimushir"/>
-        <s v="Urup"/>
-        <s v="Bugio"/>
-        <s v="Madeira"/>
-        <s v="Porto Santo"/>
-        <s v="Selvagens"/>
-        <s v="Agrihan"/>
-        <s v="Aguijan"/>
-        <s v="Alamagan"/>
-        <s v="Anatahan"/>
-        <s v="Asuncion"/>
-        <s v="Farallon De Medinilla"/>
-        <s v="Guam"/>
-        <s v="Guguan"/>
-        <s v="Pagan"/>
-        <s v="Rota"/>
-        <s v="Saipan"/>
-        <s v="Sarigan"/>
-        <s v="Tinian"/>
-        <s v="Eiao"/>
-        <s v="Fatu Hiva"/>
-        <s v="Hatutaa"/>
-        <s v="Hiva Oa"/>
-        <s v="Moho Tani"/>
-        <s v="Nuku Hiva"/>
-        <s v="Ua Huka"/>
-        <s v="Ua Pou"/>
-        <s v="Mauritius"/>
-        <s v="Reunion"/>
-        <s v="Rodrigues"/>
-        <s v="Enderbury"/>
-        <s v="Manra"/>
-        <s v="Nikumaroro"/>
-        <s v="Orona"/>
-        <s v="Henderson"/>
-        <s v="Oeno"/>
-        <s v="Pitcairn"/>
-        <s v="Marion"/>
-        <s v="Prince Edward"/>
-        <s v="Clarion"/>
-        <s v="San Benedicto"/>
-        <s v="Socorro"/>
-        <s v="Ofu"/>
-        <s v="Savaii"/>
-        <s v="Swains"/>
-        <s v="Tau"/>
-        <s v="Tutuila"/>
-        <s v="Bora Bora"/>
-        <s v="Huahine Iti"/>
-        <s v="Moorea"/>
-        <s v="Raiatea"/>
-        <s v="Tahiti"/>
-        <s v="Gough"/>
-        <s v="Inaccessible"/>
-        <s v="Nightingale"/>
-        <s v="Tristan da Cunha"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="archipelago" numFmtId="0">
       <sharedItems count="33">
@@ -815,6 +680,157 @@
     <cacheField name="ka16_Cutler" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.0064600000070802" maxValue="39123.640899999999"/>
     </cacheField>
+    <cacheField name="ka0_Lambeck" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.5032300000064498" maxValue="4731.5527679999695"/>
+    </cacheField>
+    <cacheField name="ka0_Cutler" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.852845999996515" maxValue="10460.750351999999" count="144">
+        <n v="96.068712000005803"/>
+        <n v="11.797911999999799"/>
+        <n v="3.37083199999979"/>
+        <n v="3.3708319999984999"/>
+        <n v="21.578400000003001"/>
+        <n v="173.301525"/>
+        <n v="152.39744999999701"/>
+        <n v="60.014924999997803"/>
+        <n v="112.612274999999"/>
+        <n v="256.91782500000602"/>
+        <n v="749.17507500000102"/>
+        <n v="401.89769999999601"/>
+        <n v="13.947149999999899"/>
+        <n v="69.735750000003307"/>
+        <n v="7.1610000000002803"/>
+        <n v="163.986899999982"/>
+        <n v="68.029499999998706"/>
+        <n v="3.5805000000015799"/>
+        <n v="219.12660000000099"/>
+        <n v="1727.984412"/>
+        <n v="1637.39545200001"/>
+        <n v="296.67884399999798"/>
+        <n v="405.38559600000099"/>
+        <n v="758.68253999999604"/>
+        <n v="2120.536572"/>
+        <n v="644.78041599999904"/>
+        <n v="72.373311999996602"/>
+        <n v="493.454400000004"/>
+        <n v="264.82052799999298"/>
+        <n v="233.56841600000399"/>
+        <n v="40.298776000000402"/>
+        <n v="1038.7215120000001"/>
+        <n v="830.64823999999498"/>
+        <n v="373.38049600000198"/>
+        <n v="480.00979599998698"/>
+        <n v="1048.6625160000101"/>
+        <n v="430.67081000000297"/>
+        <n v="239.16864399999901"/>
+        <n v="16.863210000010099"/>
+        <n v="28.908360000001299"/>
+        <n v="43.362540000000401"/>
+        <n v="16.863209999999199"/>
+        <n v="24.0902999999971"/>
+        <n v="70.664879999996799"/>
+        <n v="2.9770899999982001"/>
+        <n v="79.190594000003998"/>
+        <n v="141.709483999996"/>
+        <n v="8.3358519999987095"/>
+        <n v="163.144532"/>
+        <n v="189.62036400000201"/>
+        <n v="274.824228000007"/>
+        <n v="454.42060799999501"/>
+        <n v="67.520351999995"/>
+        <n v="641.87068799999497"/>
+        <n v="187.17667200000199"/>
+        <n v="62.392224000006998"/>
+        <n v="19.657824000000002"/>
+        <n v="6.837504"/>
+        <n v="584.60659199998997"/>
+        <n v="287.15609999999799"/>
+        <n v="31.6234560000035"/>
+        <n v="25.640639999999902"/>
+        <n v="170.93759999999901"/>
+        <n v="911.95209599999805"/>
+        <n v="10460.750351999999"/>
+        <n v="128.03856000000201"/>
+        <n v="1486.8477780000101"/>
+        <n v="396.11929499999098"/>
+        <n v="209.66314200001"/>
+        <n v="1644.4952550000301"/>
+        <n v="0.85284999999994604"/>
+        <n v="48.506304000001599"/>
+        <n v="71.332799999997903"/>
+        <n v="16.9717279999957"/>
+        <n v="173.81390399999901"/>
+        <n v="7.6080160000014496"/>
+        <n v="39.210544000005498"/>
+        <n v="3423.0219680001001"/>
+        <n v="83.688176000000496"/>
+        <n v="80.176783999996204"/>
+        <n v="1632.2120480000301"/>
+        <n v="59.693664000003999"/>
+        <n v="61.4493600000011"/>
+        <n v="470.52652800000402"/>
+        <n v="2538.7364160000102"/>
+        <n v="79.591552000003503"/>
+        <n v="7.6080159999970602"/>
+        <n v="145.72276799999099"/>
+        <n v="414.92948799999402"/>
+        <n v="1554.37619200003"/>
+        <n v="4.3853040000006702"/>
+        <n v="789.354719999998"/>
+        <n v="51.161880000002697"/>
+        <e v="#N/A"/>
+        <n v="47.593639999993599"/>
+        <n v="7.3852200000030201"/>
+        <n v="16.411600000000998"/>
+        <n v="30.361460000008499"/>
+        <n v="11.488120000002599"/>
+        <n v="1.64116000000021"/>
+        <n v="574.40599999997198"/>
+        <n v="6.5646400000040597"/>
+        <n v="55.799440000015899"/>
+        <n v="91.084379999989196"/>
+        <n v="128.83106000001001"/>
+        <n v="5.7440599999997897"/>
+        <n v="103.393080000013"/>
+        <n v="49.828568000000203"/>
+        <n v="81.076992000004694"/>
+        <n v="10.1346240000015"/>
+        <n v="367.380120000001"/>
+        <n v="21.1138000000015"/>
+        <n v="377.514743999985"/>
+        <n v="107.258103999998"/>
+        <n v="123.30459200000701"/>
+        <n v="1915.9818600000101"/>
+        <n v="2535.10256999999"/>
+        <n v="128.48160000000499"/>
+        <n v="4.2642299999965703"/>
+        <n v="0.85284600000005395"/>
+        <n v="7.6756139999931401"/>
+        <n v="0.852845999996515"/>
+        <n v="50.695774999998299"/>
+        <n v="3.1197399999992101"/>
+        <n v="9.3592200000007892"/>
+        <n v="304.95865399999701"/>
+        <n v="56.626752000001098"/>
+        <n v="21.047415999998901"/>
+        <n v="11.3332239999962"/>
+        <n v="158.66513600000701"/>
+        <n v="18.357020000003399"/>
+        <n v="1746.42013"/>
+        <n v="2.5032300000064498"/>
+        <n v="61.746340000004302"/>
+        <n v="148.52497999998201"/>
+        <n v="33.530373999989997"/>
+        <n v="106.315820000012"/>
+        <n v="143.11744999999999"/>
+        <n v="197.91098800002001"/>
+        <n v="1106.50234199996"/>
+        <n v="81.816250000004302"/>
+        <n v="18.7774999999992"/>
+        <n v="6.0356249999984302"/>
+        <n v="109.31187499999599"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -827,1068 +843,1358 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="144">
   <r>
-    <x v="0"/>
+    <s v="Aldabra"/>
     <x v="0"/>
     <n v="615.17684000000304"/>
     <n v="602.53622000000303"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <n v="96.068712000005803"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Assumption"/>
     <x v="0"/>
     <n v="60.674976000003603"/>
     <n v="56.461436000003197"/>
-  </r>
-  <r>
-    <x v="2"/>
+    <n v="480.00979599998698"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Astove"/>
     <x v="0"/>
     <n v="53.090604000006898"/>
     <n v="50.562480000005998"/>
-  </r>
-  <r>
-    <x v="3"/>
+    <n v="480.00979599998698"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Cosmoledo"/>
     <x v="0"/>
     <n v="237.64365599999601"/>
     <n v="233.430115999995"/>
-  </r>
-  <r>
-    <x v="4"/>
+    <n v="274.824228000007"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Corvo"/>
     <x v="1"/>
     <n v="53.2716750000003"/>
     <n v="49.900049999998501"/>
-  </r>
-  <r>
-    <x v="5"/>
+    <n v="274.824228000007"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Faial"/>
     <x v="1"/>
     <n v="773.45077499998604"/>
     <n v="757.94129999998802"/>
-  </r>
-  <r>
-    <x v="6"/>
+    <n v="67.520351999995"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Flores"/>
     <x v="1"/>
     <n v="316.25842500000903"/>
     <n v="289.95975000000601"/>
-  </r>
-  <r>
-    <x v="7"/>
+    <n v="187.17667200000199"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Graciosa"/>
     <x v="1"/>
     <n v="140.93392499999999"/>
     <n v="129.47040000000601"/>
-  </r>
-  <r>
-    <x v="8"/>
+    <n v="187.17667200000199"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Santa Maria"/>
     <x v="1"/>
     <n v="205.66912500000399"/>
     <n v="188.13667500000099"/>
-  </r>
-  <r>
-    <x v="9"/>
+    <n v="18.357020000003399"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Sao Jorge"/>
     <x v="1"/>
     <n v="409.31527499999601"/>
     <n v="382.342275000001"/>
-  </r>
-  <r>
-    <x v="10"/>
+    <n v="18.357020000003399"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Sao Miguel"/>
     <x v="1"/>
     <n v="1105.2186750000001"/>
     <n v="1066.107825"/>
-  </r>
-  <r>
-    <x v="11"/>
+    <n v="18.357020000003399"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Terceira"/>
     <x v="1"/>
     <n v="596.10329999999499"/>
     <n v="560.36407499999802"/>
-  </r>
-  <r>
-    <x v="12"/>
+    <n v="61.746340000004302"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Cabrera"/>
     <x v="2"/>
     <n v="10263.10995"/>
     <n v="9573.7222500000298"/>
-  </r>
-  <r>
-    <x v="13"/>
+    <n v="28.908360000001299"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Formentera"/>
     <x v="2"/>
     <n v="2657.9283"/>
     <n v="2333.15895"/>
-  </r>
-  <r>
-    <x v="14"/>
+    <n v="187.17667200000199"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Anacapa"/>
     <x v="3"/>
     <n v="2246.4056999999898"/>
     <n v="2048.7620999999899"/>
-  </r>
-  <r>
-    <x v="15"/>
+    <n v="96.068712000005803"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="San Clemente"/>
     <x v="3"/>
     <n v="354.46949999999902"/>
     <n v="330.12209999997702"/>
-  </r>
-  <r>
-    <x v="16"/>
+    <n v="18.357020000003399"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="San Nicolas"/>
     <x v="3"/>
     <n v="794.15490000000295"/>
     <n v="595.07909999999697"/>
-  </r>
-  <r>
-    <x v="17"/>
+    <n v="18.357020000003399"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="Santa Barbara"/>
     <x v="3"/>
     <n v="76.622699999998304"/>
     <n v="65.881199999996198"/>
-  </r>
-  <r>
-    <x v="18"/>
+    <n v="18.357020000003399"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="Santa Catalina"/>
     <x v="3"/>
     <n v="360.19830000000002"/>
     <n v="332.98650000001101"/>
-  </r>
-  <r>
-    <x v="19"/>
+    <n v="18.357020000003399"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <s v="Fuerteventura"/>
     <x v="4"/>
     <n v="4918.980528"/>
     <n v="4758.9400319999804"/>
-  </r>
-  <r>
-    <x v="20"/>
+    <n v="187.17667200000199"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <s v="Gran Canaria"/>
     <x v="4"/>
     <n v="2557.6283039999998"/>
     <n v="2510.0691000000002"/>
-  </r>
-  <r>
-    <x v="21"/>
+    <n v="187.17667200000199"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <s v="Hierro"/>
     <x v="4"/>
     <n v="375.18927599999603"/>
     <n v="366.885287999995"/>
-  </r>
-  <r>
-    <x v="22"/>
+    <n v="187.17667200000199"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <s v="La Gomera"/>
     <x v="4"/>
     <n v="766.98652800000195"/>
     <n v="696.02517600000294"/>
-  </r>
-  <r>
-    <x v="23"/>
+    <n v="1632.2120480000301"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <s v="La Palma"/>
     <x v="4"/>
     <n v="857.57548799999597"/>
     <n v="842.47732799999596"/>
-  </r>
-  <r>
-    <x v="24"/>
+    <n v="1632.2120480000301"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <s v="Tenerife"/>
     <x v="4"/>
     <n v="2512.3338239999998"/>
     <n v="2476.0982399999998"/>
-  </r>
-  <r>
-    <x v="25"/>
+    <n v="61.746340000004302"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <s v="Boa Vista"/>
     <x v="5"/>
     <n v="2700.840416"/>
     <n v="2571.7198479999902"/>
-  </r>
-  <r>
-    <x v="26"/>
+    <n v="28.908360000001299"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <s v="Brava"/>
     <x v="5"/>
     <n v="145.569047999996"/>
     <n v="142.279351999997"/>
-  </r>
-  <r>
-    <x v="27"/>
+    <n v="28.908360000001299"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <s v="Fogo"/>
     <x v="5"/>
     <n v="561.71559200000195"/>
     <n v="551.84650400000203"/>
-  </r>
-  <r>
-    <x v="28"/>
+    <n v="187.17667200000199"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <s v="Maio"/>
     <x v="5"/>
     <n v="838.87247999999704"/>
     <n v="818.31187999999599"/>
-  </r>
-  <r>
-    <x v="29"/>
+    <n v="1632.2120480000301"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <s v="Sal"/>
     <x v="5"/>
     <n v="464.66956000000698"/>
     <n v="452.333200000006"/>
-  </r>
-  <r>
-    <x v="30"/>
+    <n v="18.357020000003399"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <s v="Santa Luzia"/>
     <x v="5"/>
     <n v="812.55491199999904"/>
     <n v="780.48037599999805"/>
-  </r>
-  <r>
-    <x v="31"/>
+    <n v="18.357020000003399"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <s v="Santiago"/>
     <x v="5"/>
     <n v="1174.42147200001"/>
     <n v="1156.3281440000101"/>
-  </r>
-  <r>
-    <x v="32"/>
+    <n v="18.357020000003399"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <s v="Santo Antao"/>
     <x v="5"/>
     <n v="1002.534856"/>
     <n v="991.02091999999902"/>
-  </r>
-  <r>
-    <x v="33"/>
+    <n v="18.357020000003399"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <s v="Sao Nicolau"/>
     <x v="5"/>
     <n v="518.94954400000699"/>
     <n v="501.67864000000901"/>
-  </r>
-  <r>
-    <x v="34"/>
+    <n v="18.357020000003399"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <s v="Anjouan"/>
     <x v="6"/>
     <n v="714.16091599999697"/>
     <n v="699.10834400000203"/>
-  </r>
-  <r>
-    <x v="35"/>
+    <n v="480.00979599998698"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <s v="Grande Comore"/>
     <x v="6"/>
     <n v="1262.7435400000099"/>
     <n v="1240.1646820000001"/>
-  </r>
-  <r>
-    <x v="36"/>
+    <n v="187.17667200000199"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <s v="Mayotte"/>
     <x v="6"/>
     <n v="1883.2440079999999"/>
     <n v="1853.138864"/>
-  </r>
-  <r>
-    <x v="37"/>
+    <n v="61.4493600000011"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <s v="Moheli"/>
     <x v="6"/>
     <n v="935.76822600000003"/>
     <n v="921.55190800000003"/>
-  </r>
-  <r>
-    <x v="38"/>
+    <n v="61.4493600000011"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <s v="Aitutaki"/>
     <x v="7"/>
     <n v="144.54179999999701"/>
     <n v="142.13276999999701"/>
-  </r>
-  <r>
-    <x v="39"/>
+    <n v="16.863210000010099"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <s v="Atiu"/>
     <x v="7"/>
     <n v="44.1655500000034"/>
     <n v="42.559530000003001"/>
-  </r>
-  <r>
-    <x v="40"/>
+    <n v="28.908360000001299"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <s v="Mangaia"/>
     <x v="7"/>
     <n v="55.407689999995299"/>
     <n v="53.801669999997898"/>
-  </r>
-  <r>
-    <x v="41"/>
+    <n v="59.693664000003999"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <s v="Mauke"/>
     <x v="7"/>
     <n v="37.741470000001698"/>
     <n v="37.741470000001698"/>
-  </r>
-  <r>
-    <x v="42"/>
+    <n v="61.4493600000011"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <s v="Mitiaro"/>
     <x v="7"/>
     <n v="63.437789999999197"/>
     <n v="62.6347799999971"/>
-  </r>
-  <r>
-    <x v="43"/>
+    <n v="61.4493600000011"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <s v="Rarotonga"/>
     <x v="7"/>
     <n v="110.01237000000501"/>
     <n v="110.01237000000501"/>
-  </r>
-  <r>
-    <x v="44"/>
+    <n v="2538.7364160000102"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <s v="Apotres"/>
     <x v="8"/>
     <n v="1686.8191940000099"/>
     <n v="267.34268200000201"/>
-  </r>
-  <r>
-    <x v="45"/>
+    <n v="480.00979599998698"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <s v="Cochons"/>
     <x v="8"/>
     <n v="167.31245800000099"/>
     <n v="145.87741000000199"/>
-  </r>
-  <r>
-    <x v="46"/>
+    <n v="79.190594000003998"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <s v="Lest"/>
     <x v="8"/>
     <n v="182.793326000002"/>
     <n v="177.43456400000099"/>
-  </r>
-  <r>
-    <x v="47"/>
+    <n v="1632.2120480000301"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <s v="Pingouins"/>
     <x v="8"/>
     <n v="370.349996000006"/>
     <n v="350.70120200000702"/>
-  </r>
-  <r>
-    <x v="48"/>
+    <n v="2538.7364160000102"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <s v="Possession"/>
     <x v="8"/>
     <n v="173.86205600000099"/>
     <n v="173.266638000001"/>
-  </r>
-  <r>
-    <x v="49"/>
+    <n v="2538.7364160000102"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <s v="Aruba"/>
     <x v="9"/>
     <n v="362.53408800000199"/>
     <n v="350.839440000004"/>
-  </r>
-  <r>
-    <x v="50"/>
+    <n v="480.00979599998698"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <s v="Bonaire"/>
     <x v="9"/>
     <n v="434.372640000008"/>
     <n v="414.324672000009"/>
-  </r>
-  <r>
-    <x v="51"/>
+    <n v="28.908360000001299"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <s v="Curacao"/>
     <x v="9"/>
     <n v="556.33111199999701"/>
     <n v="539.62447199999394"/>
-  </r>
-  <r>
-    <x v="52"/>
+    <n v="454.42060799999501"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <s v="Espanola"/>
     <x v="10"/>
     <n v="160.68134400001199"/>
     <n v="141.87820800000301"/>
-  </r>
-  <r>
-    <x v="53"/>
+    <n v="67.520351999995"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <s v="Fernandina"/>
     <x v="10"/>
     <n v="6732.3773760000004"/>
     <n v="698.28009599999496"/>
-  </r>
-  <r>
-    <x v="54"/>
+    <n v="641.87068799999497"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <s v="Floreana"/>
     <x v="10"/>
     <n v="291.44860800000998"/>
     <n v="276.06422400000503"/>
-  </r>
-  <r>
-    <x v="55"/>
+    <n v="187.17667200000199"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <s v="Pinta"/>
     <x v="10"/>
     <n v="83.759424000010398"/>
     <n v="81.195360000013807"/>
-  </r>
-  <r>
-    <x v="56"/>
+    <n v="2538.7364160000102"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <s v="Pinzon"/>
     <x v="10"/>
     <n v="29.0593920000052"/>
     <n v="29.0593920000052"/>
-  </r>
-  <r>
-    <x v="57"/>
+    <n v="2538.7364160000102"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <s v="Rabida"/>
     <x v="10"/>
     <n v="862.38019199999997"/>
     <n v="846.99580799999796"/>
-  </r>
-  <r>
-    <x v="58"/>
+    <n v="2538.7364160000102"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <s v="San Cristobal"/>
     <x v="10"/>
     <n v="999.13027199999101"/>
     <n v="930.75523200000703"/>
-  </r>
-  <r>
-    <x v="59"/>
+    <n v="18.357020000003399"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <s v="Santa Cruz"/>
     <x v="10"/>
     <n v="1629.0353279999899"/>
     <n v="1547.83996799997"/>
-  </r>
-  <r>
-    <x v="60"/>
+    <n v="18.357020000003399"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <s v="Santa Fe"/>
     <x v="10"/>
     <n v="199.142304000004"/>
     <n v="171.79228800000701"/>
-  </r>
-  <r>
-    <x v="61"/>
+    <n v="18.357020000003399"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <s v="Annobon"/>
     <x v="11"/>
     <n v="130.76726400000001"/>
     <n v="111.10944000000001"/>
-  </r>
-  <r>
-    <x v="62"/>
+    <n v="480.00979599998698"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <s v="Principe"/>
     <x v="12"/>
     <n v="1338.4414079999999"/>
     <n v="1299.1257599999999"/>
-  </r>
-  <r>
-    <x v="63"/>
+    <n v="2538.7364160000102"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <s v="Sao Tome"/>
     <x v="12"/>
     <n v="1367.5008"/>
     <n v="1349.5523519999999"/>
-  </r>
-  <r>
-    <x v="64"/>
+    <n v="18.357020000003399"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <s v="Hawaii"/>
     <x v="13"/>
     <n v="11116.147730999901"/>
     <n v="11032.122426"/>
-  </r>
-  <r>
-    <x v="65"/>
+    <n v="187.17667200000199"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <s v="Kahoolawe"/>
     <x v="13"/>
     <n v="230.46940799999999"/>
     <n v="211.263624000004"/>
-  </r>
-  <r>
-    <x v="66"/>
+    <n v="4731.5527679999695"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <s v="Kauai"/>
     <x v="13"/>
     <n v="1910.975508"/>
     <n v="1895.770929"/>
-  </r>
-  <r>
-    <x v="67"/>
+    <n v="4731.5527679999695"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <s v="Lanai"/>
     <x v="13"/>
     <n v="5584.08169799999"/>
     <n v="5378.4197609999901"/>
-  </r>
-  <r>
-    <x v="68"/>
+    <n v="1632.2120480000301"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <s v="Niihau"/>
     <x v="13"/>
     <n v="441.733031999991"/>
     <n v="431.32989899999302"/>
-  </r>
-  <r>
-    <x v="69"/>
+    <n v="61.4493600000011"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <s v="Oahu"/>
     <x v="13"/>
     <n v="2346.3066119999999"/>
     <n v="2299.8926339999898"/>
-  </r>
-  <r>
-    <x v="70"/>
+    <n v="61.4493600000011"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <s v="Bird"/>
     <x v="14"/>
     <n v="39250.715550000001"/>
     <n v="39123.640899999999"/>
-  </r>
-  <r>
-    <x v="71"/>
+    <n v="28.908360000001299"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <s v="Alejandro Selkirk"/>
     <x v="15"/>
     <n v="59.206224000005697"/>
     <n v="57.779568000005"/>
-  </r>
-  <r>
-    <x v="72"/>
+    <n v="96.068712000005803"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <s v="Robinson Crusoe"/>
     <x v="15"/>
     <n v="156.218832000004"/>
     <n v="140.52561600000399"/>
-  </r>
-  <r>
-    <x v="73"/>
+    <n v="7.6080159999970602"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <s v="Antsiferov"/>
     <x v="16"/>
     <n v="39.795775999996899"/>
     <n v="37.4548479999969"/>
-  </r>
-  <r>
-    <x v="74"/>
+    <n v="480.00979599998698"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <s v="Atlasova"/>
     <x v="16"/>
     <n v="280.91135999999898"/>
     <n v="263.93963200000599"/>
-  </r>
-  <r>
-    <x v="75"/>
+    <n v="28.908360000001299"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <s v="Chirinkotan"/>
     <x v="16"/>
     <n v="16.386496000003199"/>
     <n v="15.8012640000023"/>
-  </r>
-  <r>
-    <x v="76"/>
+    <n v="28.908360000001299"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <s v="Ekarma"/>
     <x v="16"/>
     <n v="63.790287999996202"/>
     <n v="60.278895999993502"/>
-  </r>
-  <r>
-    <x v="77"/>
+    <n v="454.42060799999501"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <s v="Iturup"/>
     <x v="16"/>
     <n v="5873.9735840001003"/>
     <n v="5435.6348160000898"/>
-  </r>
-  <r>
-    <x v="78"/>
+    <n v="4731.5527679999695"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <s v="Ketoy"/>
     <x v="16"/>
     <n v="203.07550400000699"/>
     <n v="191.370864000003"/>
-  </r>
-  <r>
-    <x v="79"/>
+    <n v="4731.5527679999695"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <s v="Kharimkotan"/>
     <x v="16"/>
     <n v="120.557791999999"/>
     <n v="114.705472000001"/>
-  </r>
-  <r>
-    <x v="80"/>
+    <n v="4731.5527679999695"/>
+    <x v="79"/>
+  </r>
+  <r>
+    <s v="Kunashir"/>
     <x v="16"/>
     <n v="20742.963007999901"/>
     <n v="19132.989775999999"/>
-  </r>
-  <r>
-    <x v="81"/>
+    <n v="4731.5527679999695"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <s v="Makanrushi"/>
     <x v="16"/>
     <n v="183.76284800000499"/>
     <n v="162.69449600000101"/>
-  </r>
-  <r>
-    <x v="82"/>
+    <n v="59.693664000003999"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <s v="Matua"/>
     <x v="16"/>
     <n v="222.97339199999999"/>
     <n v="206.58689600000099"/>
-  </r>
-  <r>
-    <x v="83"/>
+    <n v="61.4493600000011"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <s v="Onekotan"/>
     <x v="16"/>
     <n v="803.52353600000401"/>
     <n v="736.22185600001399"/>
-  </r>
-  <r>
-    <x v="84"/>
+    <n v="470.52652800000402"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <s v="Paramushir"/>
     <x v="16"/>
     <n v="18879.584320000002"/>
     <n v="18005.832944000002"/>
-  </r>
-  <r>
-    <x v="85"/>
+    <n v="2538.7364160000102"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <s v="Rasshua"/>
     <x v="16"/>
     <n v="395.616831999993"/>
     <n v="363.429071999982"/>
-  </r>
-  <r>
-    <x v="86"/>
+    <n v="79.591552000003503"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <s v="Raykoke"/>
     <x v="16"/>
     <n v="25.750208000004701"/>
     <n v="23.994512000003802"/>
-  </r>
-  <r>
-    <x v="87"/>
+    <n v="7.6080159999970602"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <s v="Shiashkotan"/>
     <x v="16"/>
     <n v="434.82737599999001"/>
     <n v="388.00881599998701"/>
-  </r>
-  <r>
-    <x v="88"/>
+    <n v="1746.42013"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <s v="Shimushir"/>
     <x v="16"/>
     <n v="784.21087999997997"/>
     <n v="726.27291199998899"/>
-  </r>
-  <r>
-    <x v="89"/>
+    <n v="1746.42013"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <s v="Urup"/>
     <x v="16"/>
     <n v="3278.4696640000402"/>
     <n v="2793.31233600007"/>
-  </r>
-  <r>
-    <x v="90"/>
+    <n v="109.31187499999599"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <s v="Bugio"/>
     <x v="17"/>
     <n v="156.40917599999901"/>
     <n v="133.02088799999899"/>
-  </r>
-  <r>
-    <x v="91"/>
+    <n v="28.908360000001299"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <s v="Madeira"/>
     <x v="17"/>
     <n v="1124.09959200001"/>
     <n v="1070.74506000001"/>
-  </r>
-  <r>
-    <x v="92"/>
+    <n v="1632.2120480000301"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <s v="Porto Santo"/>
     <x v="17"/>
     <n v="222.18873599999901"/>
     <n v="213.418127999999"/>
-  </r>
-  <r>
-    <x v="93"/>
+    <n v="2538.7364160000102"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <s v="Selvagens"/>
     <x v="18"/>
     <n v="38.005968000002703"/>
     <n v="35.813316000002203"/>
-  </r>
-  <r>
-    <x v="94"/>
+    <n v="1746.42013"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <s v="Agrihan"/>
     <x v="19"/>
     <n v="62.364079999989301"/>
     <n v="60.722919999989301"/>
-  </r>
-  <r>
-    <x v="95"/>
+    <n v="47.593639999993599"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <s v="Aguijan"/>
     <x v="19"/>
     <n v="22.155660000006701"/>
     <n v="20.514500000006901"/>
-  </r>
-  <r>
-    <x v="96"/>
+    <n v="7.3852200000030201"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <s v="Alamagan"/>
     <x v="19"/>
     <n v="25.4379800000006"/>
     <n v="23.796820000000402"/>
-  </r>
-  <r>
-    <x v="97"/>
+    <n v="16.411600000000998"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <s v="Anatahan"/>
     <x v="19"/>
     <n v="38.567260000009"/>
     <n v="38.567260000009"/>
-  </r>
-  <r>
-    <x v="98"/>
+    <n v="96.068712000005803"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <s v="Asuncion"/>
     <x v="19"/>
     <n v="18.052760000006501"/>
     <n v="18.052760000006501"/>
-  </r>
-  <r>
-    <x v="99"/>
+    <n v="480.00979599998698"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <s v="Farallon De Medinilla"/>
     <x v="19"/>
     <n v="7.3852199999997898"/>
     <n v="6.5646399999995904"/>
-  </r>
-  <r>
-    <x v="100"/>
+    <n v="67.520351999995"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <s v="Guam"/>
     <x v="19"/>
     <n v="690.10777999998095"/>
     <n v="682.72255999997901"/>
-  </r>
-  <r>
-    <x v="101"/>
+    <n v="187.17667200000199"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <s v="Guguan"/>
     <x v="19"/>
     <n v="10.6675400000056"/>
     <n v="10.6675400000056"/>
-  </r>
-  <r>
-    <x v="102"/>
+    <n v="187.17667200000199"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <s v="Pagan"/>
     <x v="19"/>
     <n v="80.416840000028103"/>
     <n v="78.775680000028103"/>
-  </r>
-  <r>
-    <x v="103"/>
+    <n v="470.52652800000402"/>
+    <x v="102"/>
+  </r>
+  <r>
+    <s v="Rota"/>
     <x v="19"/>
     <n v="125.548739999986"/>
     <n v="122.266419999986"/>
-  </r>
-  <r>
-    <x v="104"/>
+    <n v="7.6080159999970602"/>
+    <x v="103"/>
+  </r>
+  <r>
+    <s v="Saipan"/>
     <x v="19"/>
     <n v="248.635739999999"/>
     <n v="222.37717999999799"/>
-  </r>
-  <r>
-    <x v="105"/>
+    <n v="128.83106000001001"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <s v="Sarigan"/>
     <x v="19"/>
     <n v="8.2057999999997904"/>
     <n v="8.2057999999997904"/>
-  </r>
-  <r>
-    <x v="106"/>
+    <n v="18.357020000003399"/>
+    <x v="105"/>
+  </r>
+  <r>
+    <s v="Tinian"/>
     <x v="19"/>
     <n v="143.601500000008"/>
     <n v="141.13976000000801"/>
-  </r>
-  <r>
-    <x v="107"/>
+    <n v="61.746340000004302"/>
+    <x v="106"/>
+  </r>
+  <r>
+    <s v="Eiao"/>
     <x v="20"/>
     <n v="64.185951999996703"/>
     <n v="63.341399999994998"/>
-  </r>
-  <r>
-    <x v="108"/>
+    <n v="454.42060799999501"/>
+    <x v="107"/>
+  </r>
+  <r>
+    <s v="Fatu Hiva"/>
     <x v="20"/>
     <n v="97.123479999995197"/>
     <n v="95.434375999996803"/>
-  </r>
-  <r>
-    <x v="109"/>
+    <n v="67.520351999995"/>
+    <x v="108"/>
+  </r>
+  <r>
+    <s v="Hatutaa"/>
     <x v="20"/>
     <n v="65.875055999998807"/>
     <n v="62.496847999997001"/>
-  </r>
-  <r>
-    <x v="110"/>
+    <n v="187.17667200000199"/>
+    <x v="109"/>
+  </r>
+  <r>
+    <s v="Hiva Oa"/>
     <x v="20"/>
     <n v="701.82271200001298"/>
     <n v="657.906008000013"/>
-  </r>
-  <r>
-    <x v="111"/>
+    <n v="187.17667200000199"/>
+    <x v="110"/>
+  </r>
+  <r>
+    <s v="Moho Tani"/>
     <x v="20"/>
     <n v="64.185951999997201"/>
     <n v="59.118639999995303"/>
-  </r>
-  <r>
-    <x v="112"/>
+    <n v="61.4493600000011"/>
+    <x v="111"/>
+  </r>
+  <r>
+    <s v="Nuku Hiva"/>
     <x v="20"/>
     <n v="531.22320799999204"/>
     <n v="516.021271999992"/>
-  </r>
-  <r>
-    <x v="113"/>
+    <n v="61.4493600000011"/>
+    <x v="112"/>
+  </r>
+  <r>
+    <s v="Ua Huka"/>
     <x v="20"/>
     <n v="153.70846399999101"/>
     <n v="143.57383999999601"/>
-  </r>
-  <r>
-    <x v="114"/>
+    <n v="148.52497999998201"/>
+    <x v="113"/>
+  </r>
+  <r>
+    <s v="Ua Pou"/>
     <x v="20"/>
     <n v="164.68764000001599"/>
     <n v="160.46488000001301"/>
-  </r>
-  <r>
-    <x v="115"/>
+    <n v="148.52497999998201"/>
+    <x v="114"/>
+  </r>
+  <r>
+    <s v="Mauritius"/>
     <x v="21"/>
     <n v="2865.9426899999899"/>
     <n v="2816.15607000001"/>
-  </r>
-  <r>
-    <x v="116"/>
+    <n v="61.4493600000011"/>
+    <x v="115"/>
+  </r>
+  <r>
+    <s v="Reunion"/>
     <x v="22"/>
     <n v="2816.9590800000001"/>
     <n v="2797.6868400000099"/>
-  </r>
-  <r>
-    <x v="117"/>
+    <n v="7.6080159999970602"/>
+    <x v="116"/>
+  </r>
+  <r>
+    <s v="Rodrigues"/>
     <x v="23"/>
     <n v="1141.88022"/>
     <n v="1096.91166"/>
-  </r>
-  <r>
-    <x v="118"/>
+    <n v="7.6080159999970602"/>
+    <x v="117"/>
+  </r>
+  <r>
+    <s v="Enderbury"/>
     <x v="24"/>
     <n v="29.849610000000101"/>
     <n v="27.291072000003702"/>
-  </r>
-  <r>
-    <x v="119"/>
+    <n v="454.42060799999501"/>
+    <x v="118"/>
+  </r>
+  <r>
+    <s v="Manra"/>
     <x v="24"/>
     <n v="21.3211500000101"/>
     <n v="21.3211500000101"/>
-  </r>
-  <r>
-    <x v="120"/>
+    <n v="59.693664000003999"/>
+    <x v="119"/>
+  </r>
+  <r>
+    <s v="Nikumaroro"/>
     <x v="24"/>
     <n v="45.200837999999798"/>
     <n v="41.7894539999998"/>
-  </r>
-  <r>
-    <x v="121"/>
+    <n v="61.4493600000011"/>
+    <x v="120"/>
+  </r>
+  <r>
+    <s v="Orona"/>
     <x v="24"/>
     <n v="67.374834000010097"/>
     <n v="59.699220000002903"/>
-  </r>
-  <r>
-    <x v="122"/>
+    <n v="470.52652800000402"/>
+    <x v="121"/>
+  </r>
+  <r>
+    <s v="Henderson"/>
     <x v="25"/>
     <n v="70.194150000001201"/>
     <n v="68.634279999999094"/>
-  </r>
-  <r>
-    <x v="123"/>
+    <n v="187.17667200000199"/>
+    <x v="122"/>
+  </r>
+  <r>
+    <s v="Oeno"/>
     <x v="25"/>
     <n v="18.718439999998299"/>
     <n v="18.718439999998299"/>
-  </r>
-  <r>
-    <x v="124"/>
+    <n v="61.4493600000011"/>
+    <x v="123"/>
+  </r>
+  <r>
+    <s v="Pitcairn"/>
     <x v="25"/>
     <n v="21.838179999997301"/>
     <n v="21.058244999996901"/>
-  </r>
-  <r>
-    <x v="125"/>
+    <n v="2538.7364160000102"/>
+    <x v="124"/>
+  </r>
+  <r>
+    <s v="Marion"/>
     <x v="26"/>
     <n v="327.37340999999401"/>
     <n v="323.83423799999201"/>
-  </r>
-  <r>
-    <x v="126"/>
+    <n v="59.693664000003999"/>
+    <x v="125"/>
+  </r>
+  <r>
+    <s v="Prince Edward"/>
     <x v="26"/>
     <n v="94.377919999999406"/>
     <n v="87.889437999996602"/>
-  </r>
-  <r>
-    <x v="127"/>
+    <n v="2538.7364160000102"/>
+    <x v="126"/>
+  </r>
+  <r>
+    <s v="Clarion"/>
     <x v="27"/>
     <n v="28.33306"/>
     <n v="28.33306"/>
-  </r>
-  <r>
-    <x v="128"/>
+    <n v="28.908360000001299"/>
+    <x v="127"/>
+  </r>
+  <r>
+    <s v="San Benedicto"/>
     <x v="27"/>
     <n v="36.428219999993999"/>
     <n v="35.6187039999935"/>
-  </r>
-  <r>
-    <x v="129"/>
+    <n v="18.357020000003399"/>
+    <x v="128"/>
+  </r>
+  <r>
+    <s v="Socorro"/>
     <x v="28"/>
     <n v="290.61624400000898"/>
     <n v="281.71156800000699"/>
-  </r>
-  <r>
-    <x v="130"/>
+    <n v="1746.42013"/>
+    <x v="129"/>
+  </r>
+  <r>
+    <s v="Ofu"/>
     <x v="29"/>
     <n v="45.058139999990097"/>
     <n v="45.058139999990097"/>
-  </r>
-  <r>
-    <x v="131"/>
+    <n v="61.4493600000011"/>
+    <x v="130"/>
+  </r>
+  <r>
+    <s v="Savaii"/>
     <x v="29"/>
     <n v="4447.4053000000004"/>
     <n v="2196.1671200000001"/>
-  </r>
-  <r>
-    <x v="132"/>
+    <n v="1746.42013"/>
+    <x v="131"/>
+  </r>
+  <r>
+    <s v="Swains"/>
     <x v="29"/>
     <n v="5.0064600000070802"/>
     <n v="5.0064600000070802"/>
-  </r>
-  <r>
-    <x v="133"/>
+    <n v="2.5032300000064498"/>
+    <x v="132"/>
+  </r>
+  <r>
+    <s v="Tau"/>
     <x v="29"/>
     <n v="74.262490000014395"/>
     <n v="73.428080000014404"/>
-  </r>
-  <r>
-    <x v="134"/>
+    <n v="61.746340000004302"/>
+    <x v="133"/>
+  </r>
+  <r>
+    <s v="Tutuila"/>
     <x v="29"/>
     <n v="435.56202000000798"/>
     <n v="423.880279999999"/>
-  </r>
-  <r>
-    <x v="135"/>
+    <n v="148.52497999998201"/>
+    <x v="134"/>
+  </r>
+  <r>
+    <s v="Bora Bora"/>
     <x v="30"/>
     <n v="131.66805399997801"/>
     <n v="128.39679799997899"/>
-  </r>
-  <r>
-    <x v="136"/>
+    <n v="28.908360000001299"/>
+    <x v="135"/>
+  </r>
+  <r>
+    <s v="Huahine Iti"/>
     <x v="30"/>
     <n v="192.18629000002301"/>
     <n v="184.00815000002299"/>
-  </r>
-  <r>
-    <x v="137"/>
+    <n v="187.17667200000199"/>
+    <x v="136"/>
+  </r>
+  <r>
+    <s v="Moorea"/>
     <x v="30"/>
     <n v="179.101266000001"/>
     <n v="175.01219600000101"/>
-  </r>
-  <r>
-    <x v="138"/>
+    <n v="61.4493600000011"/>
+    <x v="137"/>
+  </r>
+  <r>
+    <s v="Raiatea"/>
     <x v="30"/>
     <n v="664.88278200000195"/>
     <n v="647.70868800000301"/>
-  </r>
-  <r>
-    <x v="139"/>
+    <n v="2538.7364160000102"/>
+    <x v="138"/>
+  </r>
+  <r>
+    <s v="Tahiti"/>
     <x v="30"/>
     <n v="1481.87896799997"/>
     <n v="1464.70487399997"/>
-  </r>
-  <r>
-    <x v="140"/>
+    <n v="2.5032300000064498"/>
+    <x v="139"/>
+  </r>
+  <r>
+    <s v="Gough"/>
     <x v="31"/>
     <n v="138.81937500000001"/>
     <n v="117.359375"/>
-  </r>
-  <r>
-    <x v="141"/>
+    <n v="187.17667200000199"/>
+    <x v="140"/>
+  </r>
+  <r>
+    <s v="Inaccessible"/>
     <x v="32"/>
     <n v="45.602500000001498"/>
     <n v="38.225625000000399"/>
-  </r>
-  <r>
-    <x v="142"/>
+    <n v="187.17667200000199"/>
+    <x v="141"/>
+  </r>
+  <r>
+    <s v="Nightingale"/>
     <x v="32"/>
     <n v="33.53125"/>
     <n v="32.190000000000197"/>
-  </r>
-  <r>
-    <x v="143"/>
+    <n v="61.4493600000011"/>
+    <x v="142"/>
+  </r>
+  <r>
+    <s v="Tristan da Cunha"/>
     <x v="32"/>
     <n v="140.83125000000101"/>
     <n v="139.49"/>
+    <n v="61.746340000004302"/>
+    <x v="143"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0">
-      <items count="145">
-        <item x="94"/>
-        <item x="95"/>
-        <item x="38"/>
-        <item x="96"/>
-        <item x="0"/>
-        <item x="71"/>
-        <item x="14"/>
-        <item x="97"/>
-        <item x="34"/>
-        <item x="61"/>
-        <item x="73"/>
-        <item x="44"/>
-        <item x="49"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="98"/>
-        <item x="39"/>
-        <item x="74"/>
-        <item x="70"/>
-        <item x="25"/>
-        <item x="50"/>
-        <item x="135"/>
-        <item x="26"/>
-        <item x="90"/>
-        <item x="12"/>
-        <item x="75"/>
-        <item x="127"/>
-        <item x="45"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="51"/>
-        <item x="107"/>
-        <item x="76"/>
-        <item x="118"/>
-        <item x="52"/>
-        <item x="5"/>
-        <item x="99"/>
-        <item x="108"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="6"/>
-        <item x="27"/>
-        <item x="13"/>
-        <item x="19"/>
-        <item x="140"/>
-        <item x="7"/>
-        <item x="20"/>
-        <item x="35"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="109"/>
-        <item x="64"/>
-        <item x="122"/>
-        <item x="21"/>
-        <item x="110"/>
-        <item x="136"/>
-        <item x="141"/>
-        <item x="77"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="67"/>
-        <item x="46"/>
-        <item x="91"/>
-        <item x="28"/>
-        <item x="81"/>
-        <item x="40"/>
-        <item x="119"/>
-        <item x="125"/>
-        <item x="82"/>
-        <item x="41"/>
-        <item x="115"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="37"/>
-        <item x="111"/>
-        <item x="137"/>
-        <item x="142"/>
-        <item x="68"/>
-        <item x="120"/>
-        <item x="112"/>
-        <item x="69"/>
-        <item x="123"/>
-        <item x="130"/>
-        <item x="83"/>
-        <item x="121"/>
-        <item x="102"/>
-        <item x="84"/>
-        <item x="47"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="124"/>
-        <item x="92"/>
-        <item x="48"/>
-        <item x="126"/>
-        <item x="62"/>
-        <item x="57"/>
-        <item x="138"/>
-        <item x="43"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="116"/>
-        <item x="72"/>
-        <item x="117"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="29"/>
-        <item x="128"/>
-        <item x="15"/>
-        <item x="58"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="30"/>
-        <item x="8"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="33"/>
-        <item x="63"/>
-        <item x="105"/>
-        <item x="131"/>
-        <item x="93"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="129"/>
-        <item x="132"/>
-        <item x="139"/>
-        <item x="133"/>
-        <item x="24"/>
-        <item x="11"/>
-        <item x="106"/>
-        <item x="143"/>
-        <item x="134"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="89"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="34">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="31"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="23"/>
-        <item x="29"/>
-        <item x="12"/>
-        <item x="18"/>
-        <item x="30"/>
-        <item x="28"/>
-        <item x="32"/>
-        <item t="default"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="32"/>
+        <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="144">
+        <item x="121"/>
+        <item x="119"/>
+        <item x="70"/>
+        <item x="99"/>
+        <item x="132"/>
+        <item x="44"/>
+        <item x="123"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="118"/>
+        <item x="90"/>
+        <item x="105"/>
+        <item x="142"/>
+        <item x="101"/>
+        <item x="57"/>
+        <item x="14"/>
+        <item x="95"/>
+        <item x="86"/>
+        <item x="75"/>
+        <item x="120"/>
+        <item x="47"/>
+        <item x="124"/>
+        <item x="109"/>
+        <item x="128"/>
+        <item x="98"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="96"/>
+        <item x="41"/>
+        <item x="38"/>
+        <item x="73"/>
+        <item x="130"/>
+        <item x="141"/>
+        <item x="56"/>
+        <item x="127"/>
+        <item x="111"/>
+        <item x="4"/>
+        <item x="42"/>
+        <item x="61"/>
+        <item x="39"/>
+        <item x="97"/>
+        <item x="60"/>
+        <item x="135"/>
+        <item x="76"/>
+        <item x="30"/>
+        <item x="40"/>
+        <item x="94"/>
+        <item x="71"/>
+        <item x="107"/>
+        <item x="122"/>
+        <item x="92"/>
+        <item x="102"/>
+        <item x="126"/>
+        <item x="81"/>
+        <item x="7"/>
+        <item x="82"/>
+        <item x="133"/>
+        <item x="55"/>
+        <item x="52"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="43"/>
+        <item x="72"/>
+        <item x="26"/>
+        <item x="45"/>
+        <item x="85"/>
+        <item x="79"/>
+        <item x="108"/>
+        <item x="140"/>
+        <item x="78"/>
+        <item x="103"/>
+        <item x="0"/>
+        <item x="106"/>
+        <item x="136"/>
+        <item x="113"/>
+        <item x="143"/>
+        <item x="8"/>
+        <item x="114"/>
+        <item x="65"/>
+        <item x="117"/>
+        <item x="104"/>
+        <item x="46"/>
+        <item x="137"/>
+        <item x="87"/>
+        <item x="134"/>
+        <item x="6"/>
+        <item x="129"/>
+        <item x="48"/>
+        <item x="15"/>
+        <item x="62"/>
+        <item x="5"/>
+        <item x="74"/>
+        <item x="54"/>
+        <item x="49"/>
+        <item x="138"/>
+        <item x="68"/>
+        <item x="18"/>
+        <item x="29"/>
+        <item x="37"/>
+        <item x="9"/>
+        <item x="28"/>
+        <item x="50"/>
+        <item x="59"/>
+        <item x="21"/>
+        <item x="125"/>
+        <item x="110"/>
+        <item x="33"/>
+        <item x="112"/>
+        <item x="67"/>
+        <item x="11"/>
+        <item x="22"/>
+        <item x="88"/>
+        <item x="36"/>
+        <item x="51"/>
+        <item x="83"/>
+        <item x="34"/>
+        <item x="27"/>
+        <item x="100"/>
+        <item x="58"/>
+        <item x="53"/>
+        <item x="25"/>
+        <item x="10"/>
+        <item x="23"/>
+        <item x="91"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="31"/>
+        <item x="35"/>
+        <item x="139"/>
+        <item x="66"/>
+        <item x="89"/>
+        <item x="80"/>
+        <item x="20"/>
+        <item x="69"/>
+        <item x="19"/>
+        <item x="131"/>
+        <item x="115"/>
+        <item x="24"/>
+        <item x="116"/>
+        <item x="84"/>
+        <item x="77"/>
+        <item x="64"/>
+        <item x="93"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="1"/>
+    <field x="5"/>
   </rowFields>
   <rowItems count="34">
     <i>
@@ -1997,17 +2303,21 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="3">
     <dataField name="Sum of ka16_Lambeck" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Sum of ka16_Cutler" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ka0_Lambeck" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2281,20 +2591,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C37"/>
+  <dimension ref="A3:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" max="178" activeRow="3" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="1" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>169</v>
       </c>
@@ -2304,8 +2624,11 @@
       <c r="C3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2315,8 +2638,11 @@
       <c r="C4" s="5">
         <v>942.99025200000722</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
+        <v>1330.9125319999869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2326,8 +2652,11 @@
       <c r="C5" s="5">
         <v>3424.2223499999986</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>833.51532400002066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2337,8 +2666,11 @@
       <c r="C6" s="5">
         <v>11906.881200000029</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <v>216.08503200000328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2348,8 +2680,11 @@
       <c r="C7" s="5">
         <v>3372.830999999971</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>169.49679200001938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -2359,8 +2694,11 @@
       <c r="C8" s="5">
         <v>11650.495163999974</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5">
+        <v>3887.7004520000701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2708,11 @@
       <c r="C9" s="5">
         <v>7965.9988640000074</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <v>1968.9905400000514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -2381,8 +2722,11 @@
       <c r="C10" s="5">
         <v>4713.9637980000025</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="5">
+        <v>790.08518799999115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -2392,8 +2736,11 @@
       <c r="C11" s="5">
         <v>448.88259000000164</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="5">
+        <v>2767.1003700000279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
@@ -2403,8 +2750,11 @@
       <c r="C12" s="5">
         <v>1114.6224960000129</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="5">
+        <v>7268.8852700000425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
@@ -2414,8 +2764,11 @@
       <c r="C13" s="5">
         <v>1304.7885840000069</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="5">
+        <v>963.33876399998326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
@@ -2425,8 +2778,11 @@
       <c r="C14" s="5">
         <v>4723.8605760000037</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="5">
+        <v>8567.8480200000322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>165</v>
       </c>
@@ -2436,8 +2792,11 @@
       <c r="C15" s="5">
         <v>117.359375</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <v>187.17667200000199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -2447,8 +2806,11 @@
       <c r="C16" s="5">
         <v>111.10944000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="5">
+        <v>480.00979599998698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>80</v>
       </c>
@@ -2458,8 +2820,11 @@
       <c r="C17" s="5">
         <v>21248.799272999979</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <v>11405.392975999974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>87</v>
       </c>
@@ -2469,8 +2834,11 @@
       <c r="C18" s="5">
         <v>39123.640899999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="5">
+        <v>28.908360000001299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>89</v>
       </c>
@@ -2480,8 +2848,11 @@
       <c r="C19" s="5">
         <v>198.30518400000898</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5">
+        <v>103.67672800000287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -2491,8 +2862,11 @@
       <c r="C20" s="5">
         <v>48658.52940800014</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="5">
+        <v>26738.215866999879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>110</v>
       </c>
@@ -2502,8 +2876,11 @@
       <c r="C21" s="5">
         <v>1417.1840760000077</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="5">
+        <v>4199.8568240000413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>114</v>
       </c>
@@ -2513,8 +2890,11 @@
       <c r="C22" s="5">
         <v>1434.3738400000161</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="5">
+        <v>1776.4116280000078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>128</v>
       </c>
@@ -2524,8 +2904,11 @@
       <c r="C23" s="5">
         <v>1758.3572639999979</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="5">
+        <v>1316.2429839999602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>136</v>
       </c>
@@ -2535,8 +2918,11 @@
       <c r="C24" s="5">
         <v>2816.15607000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="5">
+        <v>61.4493600000011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>140</v>
       </c>
@@ -2546,8 +2932,11 @@
       <c r="C25" s="5">
         <v>150.10089600001649</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="5">
+        <v>1046.0901600000041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>145</v>
       </c>
@@ -2557,8 +2946,11 @@
       <c r="C26" s="5">
         <v>108.41096499999429</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="5">
+        <v>2787.3624480000135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>148</v>
       </c>
@@ -2568,8 +2960,11 @@
       <c r="C27" s="5">
         <v>411.72367599998859</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="5">
+        <v>2598.4300800000142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>137</v>
       </c>
@@ -2579,8 +2974,11 @@
       <c r="C28" s="5">
         <v>2797.6868400000099</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="5">
+        <v>7.6080159999970602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>150</v>
       </c>
@@ -2590,8 +2988,11 @@
       <c r="C29" s="5">
         <v>63.951763999993503</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="5">
+        <v>47.265380000004697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>138</v>
       </c>
@@ -2601,8 +3002,11 @@
       <c r="C30" s="5">
         <v>1096.91166</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="5">
+        <v>7.6080159999970602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>154</v>
       </c>
@@ -2612,8 +3016,11 @@
       <c r="C31" s="5">
         <v>2743.5400800000102</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="5">
+        <v>2020.6440399999938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -2623,8 +3030,11 @@
       <c r="C32" s="5">
         <v>2648.6781119999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="5">
+        <v>2557.0934360000138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>112</v>
       </c>
@@ -2634,8 +3044,11 @@
       <c r="C33" s="5">
         <v>35.813316000002203</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="5">
+        <v>1746.42013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>160</v>
       </c>
@@ -2645,8 +3058,11 @@
       <c r="C34" s="5">
         <v>2599.8307059999761</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="5">
+        <v>2818.7740380000214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>152</v>
       </c>
@@ -2656,8 +3072,11 @@
       <c r="C35" s="5">
         <v>281.71156800000699</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="5">
+        <v>1746.42013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>167</v>
       </c>
@@ -2667,8 +3086,11 @@
       <c r="C36" s="5">
         <v>209.90562500000061</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="5">
+        <v>310.37237200000737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>170</v>
       </c>
@@ -2677,6 +3099,9 @@
       </c>
       <c r="C37" s="5">
         <v>181601.61691200017</v>
+      </c>
+      <c r="D37" s="5">
+        <v>92755.387725000153</v>
       </c>
     </row>
   </sheetData>
@@ -2686,10 +3111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D145"/>
+    <sheetView tabSelected="1" topLeftCell="C90" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,7 +3122,7 @@
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2710,2021 +3135,2891 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>615.17684000000304</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>602.53622000000303</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>96.068712000005803</v>
+      </c>
+      <c r="F2">
+        <v>96.068712000005803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>60.674976000003603</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>56.461436000003197</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>11.797911999999799</v>
+      </c>
+      <c r="F3">
+        <v>11.797911999999799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>53.090604000006898</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>50.562480000005998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3.37083199999979</v>
+      </c>
+      <c r="F4">
+        <v>3.37083199999979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>237.64365599999601</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>233.430115999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>3.3708319999984999</v>
+      </c>
+      <c r="F5">
+        <v>3.3708319999984999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>53.2716750000003</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>49.900049999998501</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>21.578400000003001</v>
+      </c>
+      <c r="F6">
+        <v>21.578400000003001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>773.45077499998604</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>757.94129999998802</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>173.301525</v>
+      </c>
+      <c r="F7">
+        <v>173.301525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>316.25842500000903</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>289.95975000000601</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>152.39744999999701</v>
+      </c>
+      <c r="F8">
+        <v>152.39744999999701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>140.93392499999999</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>129.47040000000601</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>60.014924999997803</v>
+      </c>
+      <c r="F9">
+        <v>60.014924999997803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>205.66912500000399</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>188.13667500000099</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>112.612274999999</v>
+      </c>
+      <c r="F10">
+        <v>112.612274999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>409.31527499999601</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>382.342275000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>256.91782500000602</v>
+      </c>
+      <c r="F11">
+        <v>256.91782500000602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>1105.2186750000001</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>1066.107825</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>749.17507500000102</v>
+      </c>
+      <c r="F12">
+        <v>749.17507500000102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>596.10329999999499</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>560.36407499999802</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>401.89769999999601</v>
+      </c>
+      <c r="F13">
+        <v>401.89769999999601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>10263.10995</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>9573.7222500000298</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>13.947149999999899</v>
+      </c>
+      <c r="F14">
+        <v>13.947149999999899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>2657.9283</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>2333.15895</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>69.735750000003307</v>
+      </c>
+      <c r="F15">
+        <v>69.735750000003307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>2246.4056999999898</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>2048.7620999999899</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>7.1610000000002803</v>
+      </c>
+      <c r="F16">
+        <v>7.1610000000002803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>354.46949999999902</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>330.12209999997702</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>163.986899999982</v>
+      </c>
+      <c r="F17">
+        <v>163.986899999982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>794.15490000000295</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>595.07909999999697</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>68.029499999998706</v>
+      </c>
+      <c r="F18">
+        <v>68.029499999998706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>76.622699999998304</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>65.881199999996198</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>3.5805000000015799</v>
+      </c>
+      <c r="F19">
+        <v>3.5805000000015799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>360.19830000000002</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>332.98650000001101</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>219.12660000000099</v>
+      </c>
+      <c r="F20">
+        <v>219.12660000000099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>4918.980528</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>4758.9400319999804</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1727.984412</v>
+      </c>
+      <c r="F21">
+        <v>1727.984412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>2557.6283039999998</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>2510.0691000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1637.39545200001</v>
+      </c>
+      <c r="F22">
+        <v>1637.39545200001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>375.18927599999603</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>366.885287999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>296.67884399999798</v>
+      </c>
+      <c r="F23">
+        <v>296.67884399999798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>766.98652800000195</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>696.02517600000294</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>405.38559600000099</v>
+      </c>
+      <c r="F24">
+        <v>405.38559600000099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>857.57548799999597</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>842.47732799999596</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>758.68253999999604</v>
+      </c>
+      <c r="F25">
+        <v>758.68253999999604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>2512.3338239999998</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>2476.0982399999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>2120.536572</v>
+      </c>
+      <c r="F26">
+        <v>2120.536572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>2700.840416</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>2571.7198479999902</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>644.78041599999904</v>
+      </c>
+      <c r="F27">
+        <v>644.78041599999904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>145.569047999996</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>142.279351999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>72.373311999996602</v>
+      </c>
+      <c r="F28">
+        <v>72.373311999996602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>561.71559200000195</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>551.84650400000203</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>493.454400000004</v>
+      </c>
+      <c r="F29">
+        <v>493.454400000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>838.87247999999704</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>818.31187999999599</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>264.82052799999298</v>
+      </c>
+      <c r="F30">
+        <v>264.82052799999298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>464.66956000000698</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>452.333200000006</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>233.56841600000399</v>
+      </c>
+      <c r="F31">
+        <v>233.56841600000399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>812.55491199999904</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>780.48037599999805</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>40.298776000000402</v>
+      </c>
+      <c r="F32">
+        <v>40.298776000000402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>1174.42147200001</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>1156.3281440000101</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>1038.7215120000001</v>
+      </c>
+      <c r="F33">
+        <v>1038.7215120000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>1002.534856</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>991.02091999999902</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>830.64823999999498</v>
+      </c>
+      <c r="F34">
+        <v>830.64823999999498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>518.94954400000699</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>501.67864000000901</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>373.38049600000198</v>
+      </c>
+      <c r="F35">
+        <v>373.38049600000198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>714.16091599999697</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>699.10834400000203</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>480.00979599998698</v>
+      </c>
+      <c r="F36">
+        <v>480.00979599998698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>1262.7435400000099</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>1240.1646820000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>1048.6625160000101</v>
+      </c>
+      <c r="F37">
+        <v>1048.6625160000101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>1883.2440079999999</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>1853.138864</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>430.67081000000297</v>
+      </c>
+      <c r="F38">
+        <v>430.67081000000297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>935.76822600000003</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>921.55190800000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>239.16864399999901</v>
+      </c>
+      <c r="F39">
+        <v>239.16864399999901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>144.54179999999701</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>142.13276999999701</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>16.863210000010099</v>
+      </c>
+      <c r="F40">
+        <v>16.863210000010099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>44.1655500000034</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>42.559530000003001</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>28.908360000001299</v>
+      </c>
+      <c r="F41">
+        <v>28.908360000001299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>55.407689999995299</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>53.801669999997898</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>43.362540000000401</v>
+      </c>
+      <c r="F42">
+        <v>43.362540000000401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>37.741470000001698</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>37.741470000001698</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>16.863209999999199</v>
+      </c>
+      <c r="F43">
+        <v>16.863209999999199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>63.437789999999197</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>62.6347799999971</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>24.0902999999971</v>
+      </c>
+      <c r="F44">
+        <v>24.0902999999971</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>110.01237000000501</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>110.01237000000501</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>70.664879999996799</v>
+      </c>
+      <c r="F45">
+        <v>70.664879999996799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>1686.8191940000099</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>267.34268200000201</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>2.9770899999982001</v>
+      </c>
+      <c r="F46">
+        <v>2.9770899999982001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>167.31245800000099</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>145.87741000000199</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>79.190594000003998</v>
+      </c>
+      <c r="F47">
+        <v>79.190594000003998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>182.793326000002</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>177.43456400000099</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>141.709483999996</v>
+      </c>
+      <c r="F48">
+        <v>141.709483999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>370.349996000006</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>350.70120200000702</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>8.3358519999987095</v>
+      </c>
+      <c r="F49">
+        <v>8.3358519999987095</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>173.86205600000099</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>173.266638000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>163.144532</v>
+      </c>
+      <c r="F50">
+        <v>163.144532</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>362.53408800000199</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>350.839440000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>189.62036400000201</v>
+      </c>
+      <c r="F51">
+        <v>189.62036400000201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>434.372640000008</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>414.324672000009</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>274.824228000007</v>
+      </c>
+      <c r="F52">
+        <v>274.824228000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>556.33111199999701</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>539.62447199999394</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>454.42060799999501</v>
+      </c>
+      <c r="F53">
+        <v>454.42060799999501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>160.68134400001199</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>141.87820800000301</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>67.520351999995</v>
+      </c>
+      <c r="F54">
+        <v>67.520351999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>6732.3773760000004</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>698.28009599999496</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>641.87068799999497</v>
+      </c>
+      <c r="F55">
+        <v>641.87068799999497</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>291.44860800000998</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>276.06422400000503</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>187.17667200000199</v>
+      </c>
+      <c r="F56">
+        <v>187.17667200000199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>83.759424000010398</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>81.195360000013807</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>62.392224000006998</v>
+      </c>
+      <c r="F57">
+        <v>62.392224000006998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>29.0593920000052</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>29.0593920000052</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>19.657824000000002</v>
+      </c>
+      <c r="F58">
+        <v>19.657824000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>862.38019199999997</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>846.99580799999796</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>6.837504</v>
+      </c>
+      <c r="F59">
+        <v>6.837504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>999.13027199999101</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>930.75523200000703</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>584.60659199998997</v>
+      </c>
+      <c r="F60">
+        <v>584.60659199998997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="1">
-        <v>1629.0353279999899</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1547.83996799997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>2246.4056999999898</v>
+      </c>
+      <c r="D61">
+        <v>2048.7620999999899</v>
+      </c>
+      <c r="E61">
+        <v>287.15609999999799</v>
+      </c>
+      <c r="F61">
+        <v>287.15609999999799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>199.142304000004</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>171.79228800000701</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>31.6234560000035</v>
+      </c>
+      <c r="F62">
+        <v>31.6234560000035</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>130.76726400000001</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>111.10944000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>25.640639999999902</v>
+      </c>
+      <c r="F63">
+        <v>25.640639999999902</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>1338.4414079999999</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>1299.1257599999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>170.93759999999901</v>
+      </c>
+      <c r="F64">
+        <v>170.93759999999901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>1367.5008</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>1349.5523519999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>911.95209599999805</v>
+      </c>
+      <c r="F65">
+        <v>911.95209599999805</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>11116.147730999901</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>11032.122426</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>10460.750351999999</v>
+      </c>
+      <c r="F66">
+        <v>10460.750351999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>230.46940799999999</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>211.263624000004</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>128.03856000000201</v>
+      </c>
+      <c r="F67">
+        <v>128.03856000000201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>1910.975508</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>1895.770929</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>1486.8477780000101</v>
+      </c>
+      <c r="F68">
+        <v>1486.8477780000101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>5584.08169799999</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>5378.4197609999901</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>396.11929499999098</v>
+      </c>
+      <c r="F69">
+        <v>396.11929499999098</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>441.733031999991</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>431.32989899999302</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>209.66314200001</v>
+      </c>
+      <c r="F70">
+        <v>209.66314200001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>2346.3066119999999</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>2299.8926339999898</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>1644.4952550000301</v>
+      </c>
+      <c r="F71">
+        <v>1644.4952550000301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>39250.715550000001</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>39123.640899999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>0.85284999999994604</v>
+      </c>
+      <c r="F72">
+        <v>0.85284999999994604</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>59.206224000005697</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>57.779568000005</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>48.506304000001599</v>
+      </c>
+      <c r="F73">
+        <v>48.506304000001599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>156.218832000004</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>140.52561600000399</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>71.332799999997903</v>
+      </c>
+      <c r="F74">
+        <v>71.332799999997903</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>39.795775999996899</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>37.4548479999969</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>16.9717279999957</v>
+      </c>
+      <c r="F75">
+        <v>16.9717279999957</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>280.91135999999898</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>263.93963200000599</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>173.81390399999901</v>
+      </c>
+      <c r="F76">
+        <v>173.81390399999901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>16.386496000003199</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>15.8012640000023</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>7.6080160000014496</v>
+      </c>
+      <c r="F77">
+        <v>7.6080160000014496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>63.790287999996202</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>60.278895999993502</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>39.210544000005498</v>
+      </c>
+      <c r="F78">
+        <v>39.210544000005498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>5873.9735840001003</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>5435.6348160000898</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>3423.0219680001001</v>
+      </c>
+      <c r="F79">
+        <v>3423.0219680001001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>203.07550400000699</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>191.370864000003</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>83.688176000000496</v>
+      </c>
+      <c r="F80">
+        <v>83.688176000000496</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>120.557791999999</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>114.705472000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>80.176783999996204</v>
+      </c>
+      <c r="F81">
+        <v>80.176783999996204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>20742.963007999901</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82">
         <v>19132.989775999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>1632.2120480000301</v>
+      </c>
+      <c r="F82">
+        <v>1632.2120480000301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>183.76284800000499</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83">
         <v>162.69449600000101</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>59.693664000003999</v>
+      </c>
+      <c r="F83">
+        <v>59.693664000003999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84">
         <v>222.97339199999999</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84">
         <v>206.58689600000099</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>61.4493600000011</v>
+      </c>
+      <c r="F84">
+        <v>61.4493600000011</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85">
         <v>803.52353600000401</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85">
         <v>736.22185600001399</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>470.52652800000402</v>
+      </c>
+      <c r="F85">
+        <v>470.52652800000402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86">
         <v>18879.584320000002</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86">
         <v>18005.832944000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>2538.7364160000102</v>
+      </c>
+      <c r="F86">
+        <v>2538.7364160000102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87">
         <v>395.616831999993</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87">
         <v>363.429071999982</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>79.591552000003503</v>
+      </c>
+      <c r="F87">
+        <v>79.591552000003503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88">
         <v>25.750208000004701</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88">
         <v>23.994512000003802</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>7.6080159999970602</v>
+      </c>
+      <c r="F88">
+        <v>7.6080159999970602</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89">
         <v>434.82737599999001</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89">
         <v>388.00881599998701</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>145.72276799999099</v>
+      </c>
+      <c r="F89">
+        <v>145.72276799999099</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90">
         <v>784.21087999997997</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90">
         <v>726.27291199998899</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>414.92948799999402</v>
+      </c>
+      <c r="F90">
+        <v>414.92948799999402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91">
         <v>3278.4696640000402</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91">
         <v>2793.31233600007</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>1554.37619200003</v>
+      </c>
+      <c r="F91">
+        <v>1554.37619200003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>156.40917599999901</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92">
         <v>133.02088799999899</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>4.3853040000006702</v>
+      </c>
+      <c r="F92">
+        <v>4.3853040000006702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
         <v>1124.09959200001</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93">
         <v>1070.74506000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>789.354719999998</v>
+      </c>
+      <c r="F93">
+        <v>789.354719999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94">
         <v>222.18873599999901</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94">
         <v>213.418127999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>51.161880000002697</v>
+      </c>
+      <c r="F94">
+        <v>51.161880000002697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95">
         <v>38.005968000002703</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95">
         <v>35.813316000002203</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>3.6544200000010001</v>
+      </c>
+      <c r="F95">
+        <v>3.6544200000010001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96">
         <v>62.364079999989301</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96">
         <v>60.722919999989301</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>47.593639999993599</v>
+      </c>
+      <c r="F96">
+        <v>47.593639999993599</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97">
         <v>22.155660000006701</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97">
         <v>20.514500000006901</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>7.3852200000030201</v>
+      </c>
+      <c r="F97">
+        <v>7.3852200000030201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98">
         <v>25.4379800000006</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98">
         <v>23.796820000000402</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>16.411600000000998</v>
+      </c>
+      <c r="F98">
+        <v>16.411600000000998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99">
         <v>38.567260000009</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99">
         <v>38.567260000009</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>30.361460000008499</v>
+      </c>
+      <c r="F99">
+        <v>30.361460000008499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100">
         <v>18.052760000006501</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100">
         <v>18.052760000006501</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>11.488120000002599</v>
+      </c>
+      <c r="F100">
+        <v>11.488120000002599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101">
         <v>7.3852199999997898</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101">
         <v>6.5646399999995904</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>1.64116000000021</v>
+      </c>
+      <c r="F101">
+        <v>1.64116000000021</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102">
         <v>690.10777999998095</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102">
         <v>682.72255999997901</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>574.40599999997198</v>
+      </c>
+      <c r="F102">
+        <v>574.40599999997198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103">
         <v>10.6675400000056</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103">
         <v>10.6675400000056</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>6.5646400000040597</v>
+      </c>
+      <c r="F103">
+        <v>6.5646400000040597</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
         <v>80.416840000028103</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104">
         <v>78.775680000028103</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>55.799440000015899</v>
+      </c>
+      <c r="F104">
+        <v>55.799440000015899</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105">
         <v>125.548739999986</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105">
         <v>122.266419999986</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>91.084379999989196</v>
+      </c>
+      <c r="F105">
+        <v>91.084379999989196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106">
         <v>248.635739999999</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106">
         <v>222.37717999999799</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>128.83106000001001</v>
+      </c>
+      <c r="F106">
+        <v>128.83106000001001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107">
         <v>8.2057999999997904</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107">
         <v>8.2057999999997904</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>5.7440599999997897</v>
+      </c>
+      <c r="F107">
+        <v>5.7440599999997897</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108">
         <v>143.601500000008</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108">
         <v>141.13976000000801</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>103.393080000013</v>
+      </c>
+      <c r="F108">
+        <v>103.393080000013</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109">
         <v>64.185951999996703</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109">
         <v>63.341399999994998</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>49.828568000000203</v>
+      </c>
+      <c r="F109">
+        <v>49.828568000000203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110">
         <v>97.123479999995197</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110">
         <v>95.434375999996803</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>81.076992000004694</v>
+      </c>
+      <c r="F110">
+        <v>81.076992000004694</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111">
         <v>65.875055999998807</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111">
         <v>62.496847999997001</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>10.1346240000015</v>
+      </c>
+      <c r="F111">
+        <v>10.1346240000015</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112">
         <v>701.82271200001298</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112">
         <v>657.906008000013</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>367.380120000001</v>
+      </c>
+      <c r="F112">
+        <v>367.380120000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113">
         <v>64.185951999997201</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113">
         <v>59.118639999995303</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>21.1138000000015</v>
+      </c>
+      <c r="F113">
+        <v>21.1138000000015</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114">
         <v>531.22320799999204</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114">
         <v>516.021271999992</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>377.514743999985</v>
+      </c>
+      <c r="F114">
+        <v>377.514743999985</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115">
         <v>153.70846399999101</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115">
         <v>143.57383999999601</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>107.258103999998</v>
+      </c>
+      <c r="F115">
+        <v>107.258103999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116">
         <v>164.68764000001599</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116">
         <v>160.46488000001301</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>123.30459200000701</v>
+      </c>
+      <c r="F116">
+        <v>123.30459200000701</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117">
         <v>2865.9426899999899</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117">
         <v>2816.15607000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>1915.9818600000101</v>
+      </c>
+      <c r="F117">
+        <v>1915.9818600000101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118">
         <v>2816.9590800000001</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118">
         <v>2797.6868400000099</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>2535.10256999999</v>
+      </c>
+      <c r="F118">
+        <v>2535.10256999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119">
         <v>1141.88022</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119">
         <v>1096.91166</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>128.48160000000499</v>
+      </c>
+      <c r="F119">
+        <v>128.48160000000499</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120">
         <v>29.849610000000101</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120">
         <v>27.291072000003702</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>4.2642299999965703</v>
+      </c>
+      <c r="F120">
+        <v>4.2642299999965703</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>21.3211500000101</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121">
         <v>21.3211500000101</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>0.85284600000005395</v>
+      </c>
+      <c r="F121">
+        <v>0.85284600000005395</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122">
         <v>45.200837999999798</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122">
         <v>41.7894539999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>7.6756139999931401</v>
+      </c>
+      <c r="F122">
+        <v>7.6756139999931401</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123">
         <v>67.374834000010097</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123">
         <v>59.699220000002903</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>0.852845999996515</v>
+      </c>
+      <c r="F123">
+        <v>0.852845999996515</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124">
         <v>70.194150000001201</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124">
         <v>68.634279999999094</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>50.695774999998299</v>
+      </c>
+      <c r="F124">
+        <v>50.695774999998299</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125">
         <v>18.718439999998299</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125">
         <v>18.718439999998299</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>3.1197399999992101</v>
+      </c>
+      <c r="F125">
+        <v>3.1197399999992101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126">
         <v>21.838179999997301</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126">
         <v>21.058244999996901</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>9.3592200000007892</v>
+      </c>
+      <c r="F126">
+        <v>9.3592200000007892</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127">
         <v>327.37340999999401</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127">
         <v>323.83423799999201</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>304.95865399999701</v>
+      </c>
+      <c r="F127">
+        <v>304.95865399999701</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128">
         <v>94.377919999999406</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128">
         <v>87.889437999996602</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>56.626752000001098</v>
+      </c>
+      <c r="F128">
+        <v>56.626752000001098</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129">
         <v>28.33306</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129">
         <v>28.33306</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>21.047415999998901</v>
+      </c>
+      <c r="F129">
+        <v>21.047415999998901</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130">
         <v>36.428219999993999</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130">
         <v>35.6187039999935</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>11.3332239999962</v>
+      </c>
+      <c r="F130">
+        <v>11.3332239999962</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131">
         <v>290.61624400000898</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131">
         <v>281.71156800000699</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>158.66513600000701</v>
+      </c>
+      <c r="F131">
+        <v>158.66513600000701</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132">
         <v>45.058139999990097</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132">
         <v>45.058139999990097</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>18.357020000003399</v>
+      </c>
+      <c r="F132">
+        <v>18.357020000003399</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133">
         <v>4447.4053000000004</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133">
         <v>2196.1671200000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>1746.42013</v>
+      </c>
+      <c r="F133">
+        <v>1746.42013</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134">
         <v>5.0064600000070802</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134">
         <v>5.0064600000070802</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>2.5032300000064498</v>
+      </c>
+      <c r="F134">
+        <v>2.5032300000064498</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135">
         <v>74.262490000014395</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135">
         <v>73.428080000014404</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>61.746340000004302</v>
+      </c>
+      <c r="F135">
+        <v>61.746340000004302</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136">
         <v>435.56202000000798</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136">
         <v>423.880279999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>148.52497999998201</v>
+      </c>
+      <c r="F136">
+        <v>148.52497999998201</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137">
         <v>131.66805399997801</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137">
         <v>128.39679799997899</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>33.530373999989997</v>
+      </c>
+      <c r="F137">
+        <v>33.530373999989997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138">
         <v>192.18629000002301</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138">
         <v>184.00815000002299</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>106.315820000012</v>
+      </c>
+      <c r="F138">
+        <v>106.315820000012</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139">
         <v>179.101266000001</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139">
         <v>175.01219600000101</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>143.11744999999999</v>
+      </c>
+      <c r="F139">
+        <v>143.11744999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140">
         <v>664.88278200000195</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140">
         <v>647.70868800000301</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>197.91098800002001</v>
+      </c>
+      <c r="F140">
+        <v>197.91098800002001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141">
         <v>1481.87896799997</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141">
         <v>1464.70487399997</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>1106.50234199996</v>
+      </c>
+      <c r="F141">
+        <v>1106.50234199996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142">
         <v>138.81937500000001</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142">
         <v>117.359375</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>81.816250000004302</v>
+      </c>
+      <c r="F142">
+        <v>81.816250000004302</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143">
         <v>45.602500000001498</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143">
         <v>38.225625000000399</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>18.7774999999992</v>
+      </c>
+      <c r="F143">
+        <v>18.7774999999992</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144">
         <v>33.53125</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144">
         <v>32.190000000000197</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>6.0356249999984302</v>
+      </c>
+      <c r="F144">
+        <v>6.0356249999984302</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145">
         <v>140.83125000000101</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145">
         <v>139.49</v>
+      </c>
+      <c r="E145">
+        <v>109.31187499999599</v>
+      </c>
+      <c r="F145">
+        <v>109.31187499999599</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/archipelagos_in_datasets_no_duplicates.xlsx
+++ b/data-raw/archipelagos_in_datasets_no_duplicates.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\islandpaleoarea\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\code\islandpaleoarea\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8D428-944A-4874-80DE-E69B0E2543ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="12045" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="177">
   <si>
     <t>island</t>
   </si>
@@ -537,12 +547,6 @@
     <t>Nightingale</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Sum of ka16_Lambeck</t>
   </si>
   <si>
@@ -556,12 +560,21 @@
   </si>
   <si>
     <t>Sum of ka0_Lambeck</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de ka0_Cutler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,7 +626,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -629,7 +642,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Pedro Neves" refreshedDate="44032.610022106484" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="144">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pedro Neves" refreshedDate="44032.986596875002" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="144" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F145" sheet="Sheet1"/>
   </cacheSource>
@@ -681,10 +694,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.0064600000070802" maxValue="39123.640899999999"/>
     </cacheField>
     <cacheField name="ka0_Lambeck" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.5032300000064498" maxValue="4731.5527679999695"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.852845999996515" maxValue="10460.750351999999"/>
     </cacheField>
     <cacheField name="ka0_Cutler" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.852845999996515" maxValue="10460.750351999999" count="144">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.852845999996515" maxValue="10460.750351999999" count="144">
         <n v="96.068712000005803"/>
         <n v="11.797911999999799"/>
         <n v="3.37083199999979"/>
@@ -778,7 +791,7 @@
         <n v="4.3853040000006702"/>
         <n v="789.354719999998"/>
         <n v="51.161880000002697"/>
-        <e v="#N/A"/>
+        <n v="3.6544200000010001"/>
         <n v="47.593639999993599"/>
         <n v="7.3852200000030201"/>
         <n v="16.411600000000998"/>
@@ -841,7 +854,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="144">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="144">
   <r>
     <s v="Aldabra"/>
     <x v="0"/>
@@ -855,7 +868,7 @@
     <x v="0"/>
     <n v="60.674976000003603"/>
     <n v="56.461436000003197"/>
-    <n v="480.00979599998698"/>
+    <n v="11.797911999999799"/>
     <x v="1"/>
   </r>
   <r>
@@ -863,7 +876,7 @@
     <x v="0"/>
     <n v="53.090604000006898"/>
     <n v="50.562480000005998"/>
-    <n v="480.00979599998698"/>
+    <n v="3.37083199999979"/>
     <x v="2"/>
   </r>
   <r>
@@ -871,7 +884,7 @@
     <x v="0"/>
     <n v="237.64365599999601"/>
     <n v="233.430115999995"/>
-    <n v="274.824228000007"/>
+    <n v="3.3708319999984999"/>
     <x v="3"/>
   </r>
   <r>
@@ -879,7 +892,7 @@
     <x v="1"/>
     <n v="53.2716750000003"/>
     <n v="49.900049999998501"/>
-    <n v="274.824228000007"/>
+    <n v="21.578400000003001"/>
     <x v="4"/>
   </r>
   <r>
@@ -887,7 +900,7 @@
     <x v="1"/>
     <n v="773.45077499998604"/>
     <n v="757.94129999998802"/>
-    <n v="67.520351999995"/>
+    <n v="173.301525"/>
     <x v="5"/>
   </r>
   <r>
@@ -895,7 +908,7 @@
     <x v="1"/>
     <n v="316.25842500000903"/>
     <n v="289.95975000000601"/>
-    <n v="187.17667200000199"/>
+    <n v="152.39744999999701"/>
     <x v="6"/>
   </r>
   <r>
@@ -903,7 +916,7 @@
     <x v="1"/>
     <n v="140.93392499999999"/>
     <n v="129.47040000000601"/>
-    <n v="187.17667200000199"/>
+    <n v="60.014924999997803"/>
     <x v="7"/>
   </r>
   <r>
@@ -911,7 +924,7 @@
     <x v="1"/>
     <n v="205.66912500000399"/>
     <n v="188.13667500000099"/>
-    <n v="18.357020000003399"/>
+    <n v="112.612274999999"/>
     <x v="8"/>
   </r>
   <r>
@@ -919,7 +932,7 @@
     <x v="1"/>
     <n v="409.31527499999601"/>
     <n v="382.342275000001"/>
-    <n v="18.357020000003399"/>
+    <n v="256.91782500000602"/>
     <x v="9"/>
   </r>
   <r>
@@ -927,7 +940,7 @@
     <x v="1"/>
     <n v="1105.2186750000001"/>
     <n v="1066.107825"/>
-    <n v="18.357020000003399"/>
+    <n v="749.17507500000102"/>
     <x v="10"/>
   </r>
   <r>
@@ -935,7 +948,7 @@
     <x v="1"/>
     <n v="596.10329999999499"/>
     <n v="560.36407499999802"/>
-    <n v="61.746340000004302"/>
+    <n v="401.89769999999601"/>
     <x v="11"/>
   </r>
   <r>
@@ -943,7 +956,7 @@
     <x v="2"/>
     <n v="10263.10995"/>
     <n v="9573.7222500000298"/>
-    <n v="28.908360000001299"/>
+    <n v="13.947149999999899"/>
     <x v="12"/>
   </r>
   <r>
@@ -951,7 +964,7 @@
     <x v="2"/>
     <n v="2657.9283"/>
     <n v="2333.15895"/>
-    <n v="187.17667200000199"/>
+    <n v="69.735750000003307"/>
     <x v="13"/>
   </r>
   <r>
@@ -959,7 +972,7 @@
     <x v="3"/>
     <n v="2246.4056999999898"/>
     <n v="2048.7620999999899"/>
-    <n v="96.068712000005803"/>
+    <n v="7.1610000000002803"/>
     <x v="14"/>
   </r>
   <r>
@@ -967,7 +980,7 @@
     <x v="3"/>
     <n v="354.46949999999902"/>
     <n v="330.12209999997702"/>
-    <n v="18.357020000003399"/>
+    <n v="163.986899999982"/>
     <x v="15"/>
   </r>
   <r>
@@ -975,7 +988,7 @@
     <x v="3"/>
     <n v="794.15490000000295"/>
     <n v="595.07909999999697"/>
-    <n v="18.357020000003399"/>
+    <n v="68.029499999998706"/>
     <x v="16"/>
   </r>
   <r>
@@ -983,7 +996,7 @@
     <x v="3"/>
     <n v="76.622699999998304"/>
     <n v="65.881199999996198"/>
-    <n v="18.357020000003399"/>
+    <n v="3.5805000000015799"/>
     <x v="17"/>
   </r>
   <r>
@@ -991,7 +1004,7 @@
     <x v="3"/>
     <n v="360.19830000000002"/>
     <n v="332.98650000001101"/>
-    <n v="18.357020000003399"/>
+    <n v="219.12660000000099"/>
     <x v="18"/>
   </r>
   <r>
@@ -999,7 +1012,7 @@
     <x v="4"/>
     <n v="4918.980528"/>
     <n v="4758.9400319999804"/>
-    <n v="187.17667200000199"/>
+    <n v="1727.984412"/>
     <x v="19"/>
   </r>
   <r>
@@ -1007,7 +1020,7 @@
     <x v="4"/>
     <n v="2557.6283039999998"/>
     <n v="2510.0691000000002"/>
-    <n v="187.17667200000199"/>
+    <n v="1637.39545200001"/>
     <x v="20"/>
   </r>
   <r>
@@ -1015,7 +1028,7 @@
     <x v="4"/>
     <n v="375.18927599999603"/>
     <n v="366.885287999995"/>
-    <n v="187.17667200000199"/>
+    <n v="296.67884399999798"/>
     <x v="21"/>
   </r>
   <r>
@@ -1023,7 +1036,7 @@
     <x v="4"/>
     <n v="766.98652800000195"/>
     <n v="696.02517600000294"/>
-    <n v="1632.2120480000301"/>
+    <n v="405.38559600000099"/>
     <x v="22"/>
   </r>
   <r>
@@ -1031,7 +1044,7 @@
     <x v="4"/>
     <n v="857.57548799999597"/>
     <n v="842.47732799999596"/>
-    <n v="1632.2120480000301"/>
+    <n v="758.68253999999604"/>
     <x v="23"/>
   </r>
   <r>
@@ -1039,7 +1052,7 @@
     <x v="4"/>
     <n v="2512.3338239999998"/>
     <n v="2476.0982399999998"/>
-    <n v="61.746340000004302"/>
+    <n v="2120.536572"/>
     <x v="24"/>
   </r>
   <r>
@@ -1047,7 +1060,7 @@
     <x v="5"/>
     <n v="2700.840416"/>
     <n v="2571.7198479999902"/>
-    <n v="28.908360000001299"/>
+    <n v="644.78041599999904"/>
     <x v="25"/>
   </r>
   <r>
@@ -1055,7 +1068,7 @@
     <x v="5"/>
     <n v="145.569047999996"/>
     <n v="142.279351999997"/>
-    <n v="28.908360000001299"/>
+    <n v="72.373311999996602"/>
     <x v="26"/>
   </r>
   <r>
@@ -1063,7 +1076,7 @@
     <x v="5"/>
     <n v="561.71559200000195"/>
     <n v="551.84650400000203"/>
-    <n v="187.17667200000199"/>
+    <n v="493.454400000004"/>
     <x v="27"/>
   </r>
   <r>
@@ -1071,7 +1084,7 @@
     <x v="5"/>
     <n v="838.87247999999704"/>
     <n v="818.31187999999599"/>
-    <n v="1632.2120480000301"/>
+    <n v="264.82052799999298"/>
     <x v="28"/>
   </r>
   <r>
@@ -1079,7 +1092,7 @@
     <x v="5"/>
     <n v="464.66956000000698"/>
     <n v="452.333200000006"/>
-    <n v="18.357020000003399"/>
+    <n v="233.56841600000399"/>
     <x v="29"/>
   </r>
   <r>
@@ -1087,7 +1100,7 @@
     <x v="5"/>
     <n v="812.55491199999904"/>
     <n v="780.48037599999805"/>
-    <n v="18.357020000003399"/>
+    <n v="40.298776000000402"/>
     <x v="30"/>
   </r>
   <r>
@@ -1095,7 +1108,7 @@
     <x v="5"/>
     <n v="1174.42147200001"/>
     <n v="1156.3281440000101"/>
-    <n v="18.357020000003399"/>
+    <n v="1038.7215120000001"/>
     <x v="31"/>
   </r>
   <r>
@@ -1103,7 +1116,7 @@
     <x v="5"/>
     <n v="1002.534856"/>
     <n v="991.02091999999902"/>
-    <n v="18.357020000003399"/>
+    <n v="830.64823999999498"/>
     <x v="32"/>
   </r>
   <r>
@@ -1111,7 +1124,7 @@
     <x v="5"/>
     <n v="518.94954400000699"/>
     <n v="501.67864000000901"/>
-    <n v="18.357020000003399"/>
+    <n v="373.38049600000198"/>
     <x v="33"/>
   </r>
   <r>
@@ -1127,7 +1140,7 @@
     <x v="6"/>
     <n v="1262.7435400000099"/>
     <n v="1240.1646820000001"/>
-    <n v="187.17667200000199"/>
+    <n v="1048.6625160000101"/>
     <x v="35"/>
   </r>
   <r>
@@ -1135,7 +1148,7 @@
     <x v="6"/>
     <n v="1883.2440079999999"/>
     <n v="1853.138864"/>
-    <n v="61.4493600000011"/>
+    <n v="430.67081000000297"/>
     <x v="36"/>
   </r>
   <r>
@@ -1143,7 +1156,7 @@
     <x v="6"/>
     <n v="935.76822600000003"/>
     <n v="921.55190800000003"/>
-    <n v="61.4493600000011"/>
+    <n v="239.16864399999901"/>
     <x v="37"/>
   </r>
   <r>
@@ -1167,7 +1180,7 @@
     <x v="7"/>
     <n v="55.407689999995299"/>
     <n v="53.801669999997898"/>
-    <n v="59.693664000003999"/>
+    <n v="43.362540000000401"/>
     <x v="40"/>
   </r>
   <r>
@@ -1175,7 +1188,7 @@
     <x v="7"/>
     <n v="37.741470000001698"/>
     <n v="37.741470000001698"/>
-    <n v="61.4493600000011"/>
+    <n v="16.863209999999199"/>
     <x v="41"/>
   </r>
   <r>
@@ -1183,7 +1196,7 @@
     <x v="7"/>
     <n v="63.437789999999197"/>
     <n v="62.6347799999971"/>
-    <n v="61.4493600000011"/>
+    <n v="24.0902999999971"/>
     <x v="42"/>
   </r>
   <r>
@@ -1191,7 +1204,7 @@
     <x v="7"/>
     <n v="110.01237000000501"/>
     <n v="110.01237000000501"/>
-    <n v="2538.7364160000102"/>
+    <n v="70.664879999996799"/>
     <x v="43"/>
   </r>
   <r>
@@ -1199,7 +1212,7 @@
     <x v="8"/>
     <n v="1686.8191940000099"/>
     <n v="267.34268200000201"/>
-    <n v="480.00979599998698"/>
+    <n v="2.9770899999982001"/>
     <x v="44"/>
   </r>
   <r>
@@ -1215,7 +1228,7 @@
     <x v="8"/>
     <n v="182.793326000002"/>
     <n v="177.43456400000099"/>
-    <n v="1632.2120480000301"/>
+    <n v="141.709483999996"/>
     <x v="46"/>
   </r>
   <r>
@@ -1223,7 +1236,7 @@
     <x v="8"/>
     <n v="370.349996000006"/>
     <n v="350.70120200000702"/>
-    <n v="2538.7364160000102"/>
+    <n v="8.3358519999987095"/>
     <x v="47"/>
   </r>
   <r>
@@ -1231,7 +1244,7 @@
     <x v="8"/>
     <n v="173.86205600000099"/>
     <n v="173.266638000001"/>
-    <n v="2538.7364160000102"/>
+    <n v="163.144532"/>
     <x v="48"/>
   </r>
   <r>
@@ -1239,7 +1252,7 @@
     <x v="9"/>
     <n v="362.53408800000199"/>
     <n v="350.839440000004"/>
-    <n v="480.00979599998698"/>
+    <n v="189.62036400000201"/>
     <x v="49"/>
   </r>
   <r>
@@ -1247,7 +1260,7 @@
     <x v="9"/>
     <n v="434.372640000008"/>
     <n v="414.324672000009"/>
-    <n v="28.908360000001299"/>
+    <n v="274.824228000007"/>
     <x v="50"/>
   </r>
   <r>
@@ -1287,7 +1300,7 @@
     <x v="10"/>
     <n v="83.759424000010398"/>
     <n v="81.195360000013807"/>
-    <n v="2538.7364160000102"/>
+    <n v="62.392224000006998"/>
     <x v="55"/>
   </r>
   <r>
@@ -1295,7 +1308,7 @@
     <x v="10"/>
     <n v="29.0593920000052"/>
     <n v="29.0593920000052"/>
-    <n v="2538.7364160000102"/>
+    <n v="19.657824000000002"/>
     <x v="56"/>
   </r>
   <r>
@@ -1303,7 +1316,7 @@
     <x v="10"/>
     <n v="862.38019199999997"/>
     <n v="846.99580799999796"/>
-    <n v="2538.7364160000102"/>
+    <n v="6.837504"/>
     <x v="57"/>
   </r>
   <r>
@@ -1311,15 +1324,15 @@
     <x v="10"/>
     <n v="999.13027199999101"/>
     <n v="930.75523200000703"/>
-    <n v="18.357020000003399"/>
+    <n v="584.60659199998997"/>
     <x v="58"/>
   </r>
   <r>
     <s v="Santa Cruz"/>
     <x v="10"/>
-    <n v="1629.0353279999899"/>
-    <n v="1547.83996799997"/>
-    <n v="18.357020000003399"/>
+    <n v="2246.4056999999898"/>
+    <n v="2048.7620999999899"/>
+    <n v="287.15609999999799"/>
     <x v="59"/>
   </r>
   <r>
@@ -1327,7 +1340,7 @@
     <x v="10"/>
     <n v="199.142304000004"/>
     <n v="171.79228800000701"/>
-    <n v="18.357020000003399"/>
+    <n v="31.6234560000035"/>
     <x v="60"/>
   </r>
   <r>
@@ -1335,7 +1348,7 @@
     <x v="11"/>
     <n v="130.76726400000001"/>
     <n v="111.10944000000001"/>
-    <n v="480.00979599998698"/>
+    <n v="25.640639999999902"/>
     <x v="61"/>
   </r>
   <r>
@@ -1343,7 +1356,7 @@
     <x v="12"/>
     <n v="1338.4414079999999"/>
     <n v="1299.1257599999999"/>
-    <n v="2538.7364160000102"/>
+    <n v="170.93759999999901"/>
     <x v="62"/>
   </r>
   <r>
@@ -1351,7 +1364,7 @@
     <x v="12"/>
     <n v="1367.5008"/>
     <n v="1349.5523519999999"/>
-    <n v="18.357020000003399"/>
+    <n v="911.95209599999805"/>
     <x v="63"/>
   </r>
   <r>
@@ -1359,7 +1372,7 @@
     <x v="13"/>
     <n v="11116.147730999901"/>
     <n v="11032.122426"/>
-    <n v="187.17667200000199"/>
+    <n v="10460.750351999999"/>
     <x v="64"/>
   </r>
   <r>
@@ -1367,7 +1380,7 @@
     <x v="13"/>
     <n v="230.46940799999999"/>
     <n v="211.263624000004"/>
-    <n v="4731.5527679999695"/>
+    <n v="128.03856000000201"/>
     <x v="65"/>
   </r>
   <r>
@@ -1375,7 +1388,7 @@
     <x v="13"/>
     <n v="1910.975508"/>
     <n v="1895.770929"/>
-    <n v="4731.5527679999695"/>
+    <n v="1486.8477780000101"/>
     <x v="66"/>
   </r>
   <r>
@@ -1383,7 +1396,7 @@
     <x v="13"/>
     <n v="5584.08169799999"/>
     <n v="5378.4197609999901"/>
-    <n v="1632.2120480000301"/>
+    <n v="396.11929499999098"/>
     <x v="67"/>
   </r>
   <r>
@@ -1391,7 +1404,7 @@
     <x v="13"/>
     <n v="441.733031999991"/>
     <n v="431.32989899999302"/>
-    <n v="61.4493600000011"/>
+    <n v="209.66314200001"/>
     <x v="68"/>
   </r>
   <r>
@@ -1399,7 +1412,7 @@
     <x v="13"/>
     <n v="2346.3066119999999"/>
     <n v="2299.8926339999898"/>
-    <n v="61.4493600000011"/>
+    <n v="1644.4952550000301"/>
     <x v="69"/>
   </r>
   <r>
@@ -1407,7 +1420,7 @@
     <x v="14"/>
     <n v="39250.715550000001"/>
     <n v="39123.640899999999"/>
-    <n v="28.908360000001299"/>
+    <n v="0.85284999999994604"/>
     <x v="70"/>
   </r>
   <r>
@@ -1415,7 +1428,7 @@
     <x v="15"/>
     <n v="59.206224000005697"/>
     <n v="57.779568000005"/>
-    <n v="96.068712000005803"/>
+    <n v="48.506304000001599"/>
     <x v="71"/>
   </r>
   <r>
@@ -1423,7 +1436,7 @@
     <x v="15"/>
     <n v="156.218832000004"/>
     <n v="140.52561600000399"/>
-    <n v="7.6080159999970602"/>
+    <n v="71.332799999997903"/>
     <x v="72"/>
   </r>
   <r>
@@ -1431,7 +1444,7 @@
     <x v="16"/>
     <n v="39.795775999996899"/>
     <n v="37.4548479999969"/>
-    <n v="480.00979599998698"/>
+    <n v="16.9717279999957"/>
     <x v="73"/>
   </r>
   <r>
@@ -1439,7 +1452,7 @@
     <x v="16"/>
     <n v="280.91135999999898"/>
     <n v="263.93963200000599"/>
-    <n v="28.908360000001299"/>
+    <n v="173.81390399999901"/>
     <x v="74"/>
   </r>
   <r>
@@ -1447,7 +1460,7 @@
     <x v="16"/>
     <n v="16.386496000003199"/>
     <n v="15.8012640000023"/>
-    <n v="28.908360000001299"/>
+    <n v="7.6080160000014496"/>
     <x v="75"/>
   </r>
   <r>
@@ -1455,7 +1468,7 @@
     <x v="16"/>
     <n v="63.790287999996202"/>
     <n v="60.278895999993502"/>
-    <n v="454.42060799999501"/>
+    <n v="39.210544000005498"/>
     <x v="76"/>
   </r>
   <r>
@@ -1463,7 +1476,7 @@
     <x v="16"/>
     <n v="5873.9735840001003"/>
     <n v="5435.6348160000898"/>
-    <n v="4731.5527679999695"/>
+    <n v="3423.0219680001001"/>
     <x v="77"/>
   </r>
   <r>
@@ -1471,7 +1484,7 @@
     <x v="16"/>
     <n v="203.07550400000699"/>
     <n v="191.370864000003"/>
-    <n v="4731.5527679999695"/>
+    <n v="83.688176000000496"/>
     <x v="78"/>
   </r>
   <r>
@@ -1479,7 +1492,7 @@
     <x v="16"/>
     <n v="120.557791999999"/>
     <n v="114.705472000001"/>
-    <n v="4731.5527679999695"/>
+    <n v="80.176783999996204"/>
     <x v="79"/>
   </r>
   <r>
@@ -1487,7 +1500,7 @@
     <x v="16"/>
     <n v="20742.963007999901"/>
     <n v="19132.989775999999"/>
-    <n v="4731.5527679999695"/>
+    <n v="1632.2120480000301"/>
     <x v="80"/>
   </r>
   <r>
@@ -1543,7 +1556,7 @@
     <x v="16"/>
     <n v="434.82737599999001"/>
     <n v="388.00881599998701"/>
-    <n v="1746.42013"/>
+    <n v="145.72276799999099"/>
     <x v="87"/>
   </r>
   <r>
@@ -1551,7 +1564,7 @@
     <x v="16"/>
     <n v="784.21087999997997"/>
     <n v="726.27291199998899"/>
-    <n v="1746.42013"/>
+    <n v="414.92948799999402"/>
     <x v="88"/>
   </r>
   <r>
@@ -1559,7 +1572,7 @@
     <x v="16"/>
     <n v="3278.4696640000402"/>
     <n v="2793.31233600007"/>
-    <n v="109.31187499999599"/>
+    <n v="1554.37619200003"/>
     <x v="89"/>
   </r>
   <r>
@@ -1567,7 +1580,7 @@
     <x v="17"/>
     <n v="156.40917599999901"/>
     <n v="133.02088799999899"/>
-    <n v="28.908360000001299"/>
+    <n v="4.3853040000006702"/>
     <x v="90"/>
   </r>
   <r>
@@ -1575,7 +1588,7 @@
     <x v="17"/>
     <n v="1124.09959200001"/>
     <n v="1070.74506000001"/>
-    <n v="1632.2120480000301"/>
+    <n v="789.354719999998"/>
     <x v="91"/>
   </r>
   <r>
@@ -1583,7 +1596,7 @@
     <x v="17"/>
     <n v="222.18873599999901"/>
     <n v="213.418127999999"/>
-    <n v="2538.7364160000102"/>
+    <n v="51.161880000002697"/>
     <x v="92"/>
   </r>
   <r>
@@ -1591,7 +1604,7 @@
     <x v="18"/>
     <n v="38.005968000002703"/>
     <n v="35.813316000002203"/>
-    <n v="1746.42013"/>
+    <n v="3.6544200000010001"/>
     <x v="93"/>
   </r>
   <r>
@@ -1623,7 +1636,7 @@
     <x v="19"/>
     <n v="38.567260000009"/>
     <n v="38.567260000009"/>
-    <n v="96.068712000005803"/>
+    <n v="30.361460000008499"/>
     <x v="97"/>
   </r>
   <r>
@@ -1631,7 +1644,7 @@
     <x v="19"/>
     <n v="18.052760000006501"/>
     <n v="18.052760000006501"/>
-    <n v="480.00979599998698"/>
+    <n v="11.488120000002599"/>
     <x v="98"/>
   </r>
   <r>
@@ -1639,7 +1652,7 @@
     <x v="19"/>
     <n v="7.3852199999997898"/>
     <n v="6.5646399999995904"/>
-    <n v="67.520351999995"/>
+    <n v="1.64116000000021"/>
     <x v="99"/>
   </r>
   <r>
@@ -1647,7 +1660,7 @@
     <x v="19"/>
     <n v="690.10777999998095"/>
     <n v="682.72255999997901"/>
-    <n v="187.17667200000199"/>
+    <n v="574.40599999997198"/>
     <x v="100"/>
   </r>
   <r>
@@ -1655,7 +1668,7 @@
     <x v="19"/>
     <n v="10.6675400000056"/>
     <n v="10.6675400000056"/>
-    <n v="187.17667200000199"/>
+    <n v="6.5646400000040597"/>
     <x v="101"/>
   </r>
   <r>
@@ -1663,7 +1676,7 @@
     <x v="19"/>
     <n v="80.416840000028103"/>
     <n v="78.775680000028103"/>
-    <n v="470.52652800000402"/>
+    <n v="55.799440000015899"/>
     <x v="102"/>
   </r>
   <r>
@@ -1671,7 +1684,7 @@
     <x v="19"/>
     <n v="125.548739999986"/>
     <n v="122.266419999986"/>
-    <n v="7.6080159999970602"/>
+    <n v="91.084379999989196"/>
     <x v="103"/>
   </r>
   <r>
@@ -1687,7 +1700,7 @@
     <x v="19"/>
     <n v="8.2057999999997904"/>
     <n v="8.2057999999997904"/>
-    <n v="18.357020000003399"/>
+    <n v="5.7440599999997897"/>
     <x v="105"/>
   </r>
   <r>
@@ -1695,7 +1708,7 @@
     <x v="19"/>
     <n v="143.601500000008"/>
     <n v="141.13976000000801"/>
-    <n v="61.746340000004302"/>
+    <n v="103.393080000013"/>
     <x v="106"/>
   </r>
   <r>
@@ -1703,7 +1716,7 @@
     <x v="20"/>
     <n v="64.185951999996703"/>
     <n v="63.341399999994998"/>
-    <n v="454.42060799999501"/>
+    <n v="49.828568000000203"/>
     <x v="107"/>
   </r>
   <r>
@@ -1711,7 +1724,7 @@
     <x v="20"/>
     <n v="97.123479999995197"/>
     <n v="95.434375999996803"/>
-    <n v="67.520351999995"/>
+    <n v="81.076992000004694"/>
     <x v="108"/>
   </r>
   <r>
@@ -1719,7 +1732,7 @@
     <x v="20"/>
     <n v="65.875055999998807"/>
     <n v="62.496847999997001"/>
-    <n v="187.17667200000199"/>
+    <n v="10.1346240000015"/>
     <x v="109"/>
   </r>
   <r>
@@ -1727,7 +1740,7 @@
     <x v="20"/>
     <n v="701.82271200001298"/>
     <n v="657.906008000013"/>
-    <n v="187.17667200000199"/>
+    <n v="367.380120000001"/>
     <x v="110"/>
   </r>
   <r>
@@ -1735,7 +1748,7 @@
     <x v="20"/>
     <n v="64.185951999997201"/>
     <n v="59.118639999995303"/>
-    <n v="61.4493600000011"/>
+    <n v="21.1138000000015"/>
     <x v="111"/>
   </r>
   <r>
@@ -1743,7 +1756,7 @@
     <x v="20"/>
     <n v="531.22320799999204"/>
     <n v="516.021271999992"/>
-    <n v="61.4493600000011"/>
+    <n v="377.514743999985"/>
     <x v="112"/>
   </r>
   <r>
@@ -1751,7 +1764,7 @@
     <x v="20"/>
     <n v="153.70846399999101"/>
     <n v="143.57383999999601"/>
-    <n v="148.52497999998201"/>
+    <n v="107.258103999998"/>
     <x v="113"/>
   </r>
   <r>
@@ -1759,7 +1772,7 @@
     <x v="20"/>
     <n v="164.68764000001599"/>
     <n v="160.46488000001301"/>
-    <n v="148.52497999998201"/>
+    <n v="123.30459200000701"/>
     <x v="114"/>
   </r>
   <r>
@@ -1767,7 +1780,7 @@
     <x v="21"/>
     <n v="2865.9426899999899"/>
     <n v="2816.15607000001"/>
-    <n v="61.4493600000011"/>
+    <n v="1915.9818600000101"/>
     <x v="115"/>
   </r>
   <r>
@@ -1775,7 +1788,7 @@
     <x v="22"/>
     <n v="2816.9590800000001"/>
     <n v="2797.6868400000099"/>
-    <n v="7.6080159999970602"/>
+    <n v="2535.10256999999"/>
     <x v="116"/>
   </r>
   <r>
@@ -1783,7 +1796,7 @@
     <x v="23"/>
     <n v="1141.88022"/>
     <n v="1096.91166"/>
-    <n v="7.6080159999970602"/>
+    <n v="128.48160000000499"/>
     <x v="117"/>
   </r>
   <r>
@@ -1791,7 +1804,7 @@
     <x v="24"/>
     <n v="29.849610000000101"/>
     <n v="27.291072000003702"/>
-    <n v="454.42060799999501"/>
+    <n v="4.2642299999965703"/>
     <x v="118"/>
   </r>
   <r>
@@ -1799,7 +1812,7 @@
     <x v="24"/>
     <n v="21.3211500000101"/>
     <n v="21.3211500000101"/>
-    <n v="59.693664000003999"/>
+    <n v="0.85284600000005395"/>
     <x v="119"/>
   </r>
   <r>
@@ -1807,7 +1820,7 @@
     <x v="24"/>
     <n v="45.200837999999798"/>
     <n v="41.7894539999998"/>
-    <n v="61.4493600000011"/>
+    <n v="7.6756139999931401"/>
     <x v="120"/>
   </r>
   <r>
@@ -1815,7 +1828,7 @@
     <x v="24"/>
     <n v="67.374834000010097"/>
     <n v="59.699220000002903"/>
-    <n v="470.52652800000402"/>
+    <n v="0.852845999996515"/>
     <x v="121"/>
   </r>
   <r>
@@ -1823,7 +1836,7 @@
     <x v="25"/>
     <n v="70.194150000001201"/>
     <n v="68.634279999999094"/>
-    <n v="187.17667200000199"/>
+    <n v="50.695774999998299"/>
     <x v="122"/>
   </r>
   <r>
@@ -1831,7 +1844,7 @@
     <x v="25"/>
     <n v="18.718439999998299"/>
     <n v="18.718439999998299"/>
-    <n v="61.4493600000011"/>
+    <n v="3.1197399999992101"/>
     <x v="123"/>
   </r>
   <r>
@@ -1839,7 +1852,7 @@
     <x v="25"/>
     <n v="21.838179999997301"/>
     <n v="21.058244999996901"/>
-    <n v="2538.7364160000102"/>
+    <n v="9.3592200000007892"/>
     <x v="124"/>
   </r>
   <r>
@@ -1847,7 +1860,7 @@
     <x v="26"/>
     <n v="327.37340999999401"/>
     <n v="323.83423799999201"/>
-    <n v="59.693664000003999"/>
+    <n v="304.95865399999701"/>
     <x v="125"/>
   </r>
   <r>
@@ -1855,7 +1868,7 @@
     <x v="26"/>
     <n v="94.377919999999406"/>
     <n v="87.889437999996602"/>
-    <n v="2538.7364160000102"/>
+    <n v="56.626752000001098"/>
     <x v="126"/>
   </r>
   <r>
@@ -1863,7 +1876,7 @@
     <x v="27"/>
     <n v="28.33306"/>
     <n v="28.33306"/>
-    <n v="28.908360000001299"/>
+    <n v="21.047415999998901"/>
     <x v="127"/>
   </r>
   <r>
@@ -1871,7 +1884,7 @@
     <x v="27"/>
     <n v="36.428219999993999"/>
     <n v="35.6187039999935"/>
-    <n v="18.357020000003399"/>
+    <n v="11.3332239999962"/>
     <x v="128"/>
   </r>
   <r>
@@ -1879,7 +1892,7 @@
     <x v="28"/>
     <n v="290.61624400000898"/>
     <n v="281.71156800000699"/>
-    <n v="1746.42013"/>
+    <n v="158.66513600000701"/>
     <x v="129"/>
   </r>
   <r>
@@ -1887,7 +1900,7 @@
     <x v="29"/>
     <n v="45.058139999990097"/>
     <n v="45.058139999990097"/>
-    <n v="61.4493600000011"/>
+    <n v="18.357020000003399"/>
     <x v="130"/>
   </r>
   <r>
@@ -1927,7 +1940,7 @@
     <x v="30"/>
     <n v="131.66805399997801"/>
     <n v="128.39679799997899"/>
-    <n v="28.908360000001299"/>
+    <n v="33.530373999989997"/>
     <x v="135"/>
   </r>
   <r>
@@ -1935,7 +1948,7 @@
     <x v="30"/>
     <n v="192.18629000002301"/>
     <n v="184.00815000002299"/>
-    <n v="187.17667200000199"/>
+    <n v="106.315820000012"/>
     <x v="136"/>
   </r>
   <r>
@@ -1943,7 +1956,7 @@
     <x v="30"/>
     <n v="179.101266000001"/>
     <n v="175.01219600000101"/>
-    <n v="61.4493600000011"/>
+    <n v="143.11744999999999"/>
     <x v="137"/>
   </r>
   <r>
@@ -1951,7 +1964,7 @@
     <x v="30"/>
     <n v="664.88278200000195"/>
     <n v="647.70868800000301"/>
-    <n v="2538.7364160000102"/>
+    <n v="197.91098800002001"/>
     <x v="138"/>
   </r>
   <r>
@@ -1959,7 +1972,7 @@
     <x v="30"/>
     <n v="1481.87896799997"/>
     <n v="1464.70487399997"/>
-    <n v="2.5032300000064498"/>
+    <n v="1106.50234199996"/>
     <x v="139"/>
   </r>
   <r>
@@ -1967,7 +1980,7 @@
     <x v="31"/>
     <n v="138.81937500000001"/>
     <n v="117.359375"/>
-    <n v="187.17667200000199"/>
+    <n v="81.816250000004302"/>
     <x v="140"/>
   </r>
   <r>
@@ -1975,7 +1988,7 @@
     <x v="32"/>
     <n v="45.602500000001498"/>
     <n v="38.225625000000399"/>
-    <n v="187.17667200000199"/>
+    <n v="18.7774999999992"/>
     <x v="141"/>
   </r>
   <r>
@@ -1983,7 +1996,7 @@
     <x v="32"/>
     <n v="33.53125"/>
     <n v="32.190000000000197"/>
-    <n v="61.4493600000011"/>
+    <n v="6.0356249999984302"/>
     <x v="142"/>
   </r>
   <r>
@@ -1991,15 +2004,15 @@
     <x v="32"/>
     <n v="140.83125000000101"/>
     <n v="139.49"/>
-    <n v="61.746340000004302"/>
+    <n v="109.31187499999599"/>
     <x v="143"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -2043,7 +2056,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
       <items count="144">
         <item x="121"/>
         <item x="119"/>
@@ -2192,9 +2205,8 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="1"/>
-    <field x="5"/>
   </rowFields>
   <rowItems count="34">
     <i>
@@ -2303,7 +2315,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -2313,16 +2325,23 @@
     <i i="2">
       <x v="2"/>
     </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
   </colItems>
-  <dataFields count="3">
+  <dataFields count="4">
     <dataField name="Sum of ka16_Lambeck" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Sum of ka16_Cutler" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Sum of ka0_Lambeck" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de ka0_Cutler" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2590,45 +2609,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" max="178" activeRow="3" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" fieldPosition="0">
-          <references count="1">
-            <reference field="1" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
         <v>169</v>
       </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="E3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2639,10 +2653,13 @@
         <v>942.99025200000722</v>
       </c>
       <c r="D4" s="5">
-        <v>1330.9125319999869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114.6082880000039</v>
+      </c>
+      <c r="E4" s="5">
+        <v>114.6082880000039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2653,10 +2670,13 @@
         <v>3424.2223499999986</v>
       </c>
       <c r="D5" s="5">
-        <v>833.51532400002066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1927.8951749999997</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1927.8951749999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2667,10 +2687,13 @@
         <v>11906.881200000029</v>
       </c>
       <c r="D6" s="5">
-        <v>216.08503200000328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83.682900000003201</v>
+      </c>
+      <c r="E6" s="5">
+        <v>83.682900000003201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2681,10 +2704,13 @@
         <v>3372.830999999971</v>
       </c>
       <c r="D7" s="5">
-        <v>169.49679200001938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>461.88449999998357</v>
+      </c>
+      <c r="E7" s="5">
+        <v>461.88449999998357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -2695,10 +2721,13 @@
         <v>11650.495163999974</v>
       </c>
       <c r="D8" s="5">
-        <v>3887.7004520000701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6946.6634160000049</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6946.6634160000049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2709,10 +2738,13 @@
         <v>7965.9988640000074</v>
       </c>
       <c r="D9" s="5">
-        <v>1968.9905400000514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3992.0460959999941</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3992.0460959999941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -2723,10 +2755,13 @@
         <v>4713.9637980000025</v>
       </c>
       <c r="D10" s="5">
-        <v>790.08518799999115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2198.5117659999992</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2198.5117659999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -2737,10 +2772,13 @@
         <v>448.88259000000164</v>
       </c>
       <c r="D11" s="5">
-        <v>2767.1003700000279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200.75250000000489</v>
+      </c>
+      <c r="E11" s="5">
+        <v>200.75250000000489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
@@ -2751,10 +2789,13 @@
         <v>1114.6224960000129</v>
       </c>
       <c r="D12" s="5">
-        <v>7268.8852700000425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>395.35755199999687</v>
+      </c>
+      <c r="E12" s="5">
+        <v>395.35755199999687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
@@ -2765,24 +2806,30 @@
         <v>1304.7885840000069</v>
       </c>
       <c r="D13" s="5">
-        <v>963.33876399998326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>918.86520000000405</v>
+      </c>
+      <c r="E13" s="5">
+        <v>918.86520000000405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="5">
-        <v>10987.014240000022</v>
+        <v>11604.384612000023</v>
       </c>
       <c r="C14" s="5">
-        <v>4723.8605760000037</v>
+        <v>5224.7827080000234</v>
       </c>
       <c r="D14" s="5">
-        <v>8567.8480200000322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1888.8414119999902</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1888.8414119999902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>165</v>
       </c>
@@ -2793,10 +2840,13 @@
         <v>117.359375</v>
       </c>
       <c r="D15" s="5">
-        <v>187.17667200000199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81.816250000004302</v>
+      </c>
+      <c r="E15" s="5">
+        <v>81.816250000004302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -2807,10 +2857,13 @@
         <v>111.10944000000001</v>
       </c>
       <c r="D16" s="5">
-        <v>480.00979599998698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25.640639999999902</v>
+      </c>
+      <c r="E16" s="5">
+        <v>25.640639999999902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>80</v>
       </c>
@@ -2821,10 +2874,13 @@
         <v>21248.799272999979</v>
       </c>
       <c r="D17" s="5">
-        <v>11405.392975999974</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14325.914382000044</v>
+      </c>
+      <c r="E17" s="5">
+        <v>14325.914382000044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>87</v>
       </c>
@@ -2835,10 +2891,13 @@
         <v>39123.640899999999</v>
       </c>
       <c r="D18" s="5">
-        <v>28.908360000001299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.85284999999994604</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.85284999999994604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>89</v>
       </c>
@@ -2849,10 +2908,13 @@
         <v>198.30518400000898</v>
       </c>
       <c r="D19" s="5">
-        <v>103.67672800000287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119.83910399999951</v>
+      </c>
+      <c r="E19" s="5">
+        <v>119.83910399999951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -2863,10 +2925,13 @@
         <v>48658.52940800014</v>
       </c>
       <c r="D20" s="5">
-        <v>26738.215866999879</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10789.337152000164</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10789.337152000164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>110</v>
       </c>
@@ -2877,10 +2942,13 @@
         <v>1417.1840760000077</v>
       </c>
       <c r="D21" s="5">
-        <v>4199.8568240000413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>844.90190400000142</v>
+      </c>
+      <c r="E21" s="5">
+        <v>844.90190400000142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>114</v>
       </c>
@@ -2891,10 +2959,13 @@
         <v>1434.3738400000161</v>
       </c>
       <c r="D22" s="5">
-        <v>1776.4116280000078</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1080.7038600000128</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1080.7038600000128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>128</v>
       </c>
@@ -2905,10 +2976,13 @@
         <v>1758.3572639999979</v>
       </c>
       <c r="D23" s="5">
-        <v>1316.2429839999602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1137.6115439999987</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1137.6115439999987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>136</v>
       </c>
@@ -2919,10 +2993,13 @@
         <v>2816.15607000001</v>
       </c>
       <c r="D24" s="5">
-        <v>61.4493600000011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1915.9818600000101</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1915.9818600000101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>140</v>
       </c>
@@ -2933,10 +3010,13 @@
         <v>150.10089600001649</v>
       </c>
       <c r="D25" s="5">
-        <v>1046.0901600000041</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13.645535999986279</v>
+      </c>
+      <c r="E25" s="5">
+        <v>13.645535999986279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>145</v>
       </c>
@@ -2947,10 +3027,13 @@
         <v>108.41096499999429</v>
       </c>
       <c r="D26" s="5">
-        <v>2787.3624480000135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63.1747349999983</v>
+      </c>
+      <c r="E26" s="5">
+        <v>63.1747349999983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>148</v>
       </c>
@@ -2961,10 +3044,13 @@
         <v>411.72367599998859</v>
       </c>
       <c r="D27" s="5">
-        <v>2598.4300800000142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>361.5854059999981</v>
+      </c>
+      <c r="E27" s="5">
+        <v>361.5854059999981</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>137</v>
       </c>
@@ -2975,10 +3061,13 @@
         <v>2797.6868400000099</v>
       </c>
       <c r="D28" s="5">
-        <v>7.6080159999970602</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2535.10256999999</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2535.10256999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>150</v>
       </c>
@@ -2989,10 +3078,13 @@
         <v>63.951763999993503</v>
       </c>
       <c r="D29" s="5">
-        <v>47.265380000004697</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32.380639999995097</v>
+      </c>
+      <c r="E29" s="5">
+        <v>32.380639999995097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>138</v>
       </c>
@@ -3003,10 +3095,13 @@
         <v>1096.91166</v>
       </c>
       <c r="D30" s="5">
-        <v>7.6080159999970602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128.48160000000499</v>
+      </c>
+      <c r="E30" s="5">
+        <v>128.48160000000499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>154</v>
       </c>
@@ -3017,10 +3112,13 @@
         <v>2743.5400800000102</v>
       </c>
       <c r="D31" s="5">
-        <v>2020.6440399999938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1977.5516999999959</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1977.5516999999959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -3031,10 +3129,13 @@
         <v>2648.6781119999996</v>
       </c>
       <c r="D32" s="5">
-        <v>2557.0934360000138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1082.889695999997</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1082.889695999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>112</v>
       </c>
@@ -3045,10 +3146,13 @@
         <v>35.813316000002203</v>
       </c>
       <c r="D33" s="5">
-        <v>1746.42013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6544200000010001</v>
+      </c>
+      <c r="E33" s="5">
+        <v>3.6544200000010001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>160</v>
       </c>
@@ -3059,10 +3163,13 @@
         <v>2599.8307059999761</v>
       </c>
       <c r="D34" s="5">
-        <v>2818.7740380000214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1587.3769739999821</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1587.3769739999821</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>152</v>
       </c>
@@ -3073,10 +3180,13 @@
         <v>281.71156800000699</v>
       </c>
       <c r="D35" s="5">
-        <v>1746.42013</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158.66513600000701</v>
+      </c>
+      <c r="E35" s="5">
+        <v>158.66513600000701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>167</v>
       </c>
@@ -3087,21 +3197,27 @@
         <v>209.90562500000061</v>
       </c>
       <c r="D36" s="5">
-        <v>310.37237200000737</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134.12499999999363</v>
+      </c>
+      <c r="E36" s="5">
+        <v>134.12499999999363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B37" s="5">
-        <v>198740.734857</v>
+        <v>199358.10522900001</v>
       </c>
       <c r="C37" s="5">
-        <v>181601.61691200017</v>
+        <v>182102.53904400021</v>
       </c>
       <c r="D37" s="5">
-        <v>92755.387725000153</v>
+        <v>57530.341764000186</v>
+      </c>
+      <c r="E37" s="5">
+        <v>57530.341764000186</v>
       </c>
     </row>
   </sheetData>
@@ -3110,10 +3226,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C90" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
@@ -3136,10 +3252,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/data-raw/archipelagos_in_datasets_no_duplicates.xlsx
+++ b/data-raw/archipelagos_in_datasets_no_duplicates.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\code\islandpaleoarea\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\islandpaleoarea\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8D428-944A-4874-80DE-E69B0E2543ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="12165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="19" r:id="rId4"/>
+    <pivotCache cacheId="23" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,8 +38,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Pedro Neves</author>
+  </authors>
+  <commentList>
+    <comment ref="C72" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pedro Neves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Duplicated at k16, not at k0 (fused islands?)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E72" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pedro Neves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Value from the sum used (and used in sister .csv file)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="214">
   <si>
     <t>island</t>
   </si>
@@ -562,20 +621,131 @@
     <t>Sum of ka0_Lambeck</t>
   </si>
   <si>
-    <t>Rótulos de Linha</t>
-  </si>
-  <si>
-    <t>Total Geral</t>
-  </si>
-  <si>
     <t>Soma de ka0_Cutler</t>
+  </si>
+  <si>
+    <t>Sum of k0 inner seyschelles lambeck</t>
+  </si>
+  <si>
+    <t>Sum of k0 inner seyschelles cutler</t>
+  </si>
+  <si>
+    <t>ka0</t>
+  </si>
+  <si>
+    <t>Pico</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Minorca</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Lanzarote</t>
+  </si>
+  <si>
+    <t>Sao Vicente</t>
+  </si>
+  <si>
+    <t>Isabela</t>
+  </si>
+  <si>
+    <t>Maui</t>
+  </si>
+  <si>
+    <t>Molokai</t>
+  </si>
+  <si>
+    <t>Curieuse</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Felicite</t>
+  </si>
+  <si>
+    <t>Fregate</t>
+  </si>
+  <si>
+    <t>La Digue</t>
+  </si>
+  <si>
+    <t>Mahe</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Praslin</t>
+  </si>
+  <si>
+    <t>Silhouette</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Shibotsu</t>
+  </si>
+  <si>
+    <t>Shikotan</t>
+  </si>
+  <si>
+    <t>Shumshu</t>
+  </si>
+  <si>
+    <t>Taraku</t>
+  </si>
+  <si>
+    <t>Ushishir</t>
+  </si>
+  <si>
+    <t>Deserta Grande</t>
+  </si>
+  <si>
+    <t>Tahuata</t>
+  </si>
+  <si>
+    <t>Olosega</t>
+  </si>
+  <si>
+    <t>Upolu</t>
+  </si>
+  <si>
+    <t>Huahine Nui</t>
+  </si>
+  <si>
+    <t>Tahaa</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of ka0</t>
+  </si>
+  <si>
+    <t>Full table lambert k0. Already on archipelagos_paleo_area_no_duplicates.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +760,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -626,7 +809,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,7 +825,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pedro Neves" refreshedDate="44032.986596875002" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="144" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Pedro Neves" refreshedDate="44033.695204398151" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="144">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F145" sheet="Sheet1"/>
   </cacheSource>
@@ -697,152 +880,244 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.852845999996515" maxValue="10460.750351999999"/>
     </cacheField>
     <cacheField name="ka0_Cutler" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.852845999996515" maxValue="10460.750351999999" count="144">
-        <n v="96.068712000005803"/>
-        <n v="11.797911999999799"/>
-        <n v="3.37083199999979"/>
-        <n v="3.3708319999984999"/>
-        <n v="21.578400000003001"/>
-        <n v="173.301525"/>
-        <n v="152.39744999999701"/>
-        <n v="60.014924999997803"/>
-        <n v="112.612274999999"/>
-        <n v="256.91782500000602"/>
-        <n v="749.17507500000102"/>
-        <n v="401.89769999999601"/>
-        <n v="13.947149999999899"/>
-        <n v="69.735750000003307"/>
-        <n v="7.1610000000002803"/>
-        <n v="163.986899999982"/>
-        <n v="68.029499999998706"/>
-        <n v="3.5805000000015799"/>
-        <n v="219.12660000000099"/>
-        <n v="1727.984412"/>
-        <n v="1637.39545200001"/>
-        <n v="296.67884399999798"/>
-        <n v="405.38559600000099"/>
-        <n v="758.68253999999604"/>
-        <n v="2120.536572"/>
-        <n v="644.78041599999904"/>
-        <n v="72.373311999996602"/>
-        <n v="493.454400000004"/>
-        <n v="264.82052799999298"/>
-        <n v="233.56841600000399"/>
-        <n v="40.298776000000402"/>
-        <n v="1038.7215120000001"/>
-        <n v="830.64823999999498"/>
-        <n v="373.38049600000198"/>
-        <n v="480.00979599998698"/>
-        <n v="1048.6625160000101"/>
-        <n v="430.67081000000297"/>
-        <n v="239.16864399999901"/>
-        <n v="16.863210000010099"/>
-        <n v="28.908360000001299"/>
-        <n v="43.362540000000401"/>
-        <n v="16.863209999999199"/>
-        <n v="24.0902999999971"/>
-        <n v="70.664879999996799"/>
-        <n v="2.9770899999982001"/>
-        <n v="79.190594000003998"/>
-        <n v="141.709483999996"/>
-        <n v="8.3358519999987095"/>
-        <n v="163.144532"/>
-        <n v="189.62036400000201"/>
-        <n v="274.824228000007"/>
-        <n v="454.42060799999501"/>
-        <n v="67.520351999995"/>
-        <n v="641.87068799999497"/>
-        <n v="187.17667200000199"/>
-        <n v="62.392224000006998"/>
-        <n v="19.657824000000002"/>
-        <n v="6.837504"/>
-        <n v="584.60659199998997"/>
-        <n v="287.15609999999799"/>
-        <n v="31.6234560000035"/>
-        <n v="25.640639999999902"/>
-        <n v="170.93759999999901"/>
-        <n v="911.95209599999805"/>
-        <n v="10460.750351999999"/>
-        <n v="128.03856000000201"/>
-        <n v="1486.8477780000101"/>
-        <n v="396.11929499999098"/>
-        <n v="209.66314200001"/>
-        <n v="1644.4952550000301"/>
-        <n v="0.85284999999994604"/>
-        <n v="48.506304000001599"/>
-        <n v="71.332799999997903"/>
-        <n v="16.9717279999957"/>
-        <n v="173.81390399999901"/>
-        <n v="7.6080160000014496"/>
-        <n v="39.210544000005498"/>
-        <n v="3423.0219680001001"/>
-        <n v="83.688176000000496"/>
-        <n v="80.176783999996204"/>
-        <n v="1632.2120480000301"/>
-        <n v="59.693664000003999"/>
-        <n v="61.4493600000011"/>
-        <n v="470.52652800000402"/>
-        <n v="2538.7364160000102"/>
-        <n v="79.591552000003503"/>
-        <n v="7.6080159999970602"/>
-        <n v="145.72276799999099"/>
-        <n v="414.92948799999402"/>
-        <n v="1554.37619200003"/>
-        <n v="4.3853040000006702"/>
-        <n v="789.354719999998"/>
-        <n v="51.161880000002697"/>
-        <n v="3.6544200000010001"/>
-        <n v="47.593639999993599"/>
-        <n v="7.3852200000030201"/>
-        <n v="16.411600000000998"/>
-        <n v="30.361460000008499"/>
-        <n v="11.488120000002599"/>
-        <n v="1.64116000000021"/>
-        <n v="574.40599999997198"/>
-        <n v="6.5646400000040597"/>
-        <n v="55.799440000015899"/>
-        <n v="91.084379999989196"/>
-        <n v="128.83106000001001"/>
-        <n v="5.7440599999997897"/>
-        <n v="103.393080000013"/>
-        <n v="49.828568000000203"/>
-        <n v="81.076992000004694"/>
-        <n v="10.1346240000015"/>
-        <n v="367.380120000001"/>
-        <n v="21.1138000000015"/>
-        <n v="377.514743999985"/>
-        <n v="107.258103999998"/>
-        <n v="123.30459200000701"/>
-        <n v="1915.9818600000101"/>
-        <n v="2535.10256999999"/>
-        <n v="128.48160000000499"/>
-        <n v="4.2642299999965703"/>
-        <n v="0.85284600000005395"/>
-        <n v="7.6756139999931401"/>
-        <n v="0.852845999996515"/>
-        <n v="50.695774999998299"/>
-        <n v="3.1197399999992101"/>
-        <n v="9.3592200000007892"/>
-        <n v="304.95865399999701"/>
-        <n v="56.626752000001098"/>
-        <n v="21.047415999998901"/>
-        <n v="11.3332239999962"/>
-        <n v="158.66513600000701"/>
-        <n v="18.357020000003399"/>
-        <n v="1746.42013"/>
-        <n v="2.5032300000064498"/>
-        <n v="61.746340000004302"/>
-        <n v="148.52497999998201"/>
-        <n v="33.530373999989997"/>
-        <n v="106.315820000012"/>
-        <n v="143.11744999999999"/>
-        <n v="197.91098800002001"/>
-        <n v="1106.50234199996"/>
-        <n v="81.816250000004302"/>
-        <n v="18.7774999999992"/>
-        <n v="6.0356249999984302"/>
-        <n v="109.31187499999599"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.852845999996515" maxValue="10460.750351999999"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Pedro Neves" refreshedDate="44033.695873958335" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="178">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="O1:Q179" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="island" numFmtId="0">
+      <sharedItems count="177">
+        <s v="Aldabra"/>
+        <s v="Assumption"/>
+        <s v="Astove"/>
+        <s v="Cosmoledo"/>
+        <s v="Corvo"/>
+        <s v="Faial"/>
+        <s v="Flores"/>
+        <s v="Graciosa"/>
+        <s v="Pico"/>
+        <s v="Santa Maria"/>
+        <s v="Sao Jorge"/>
+        <s v="Sao Miguel"/>
+        <s v="Terceira"/>
+        <s v="Cabrera"/>
+        <s v="Formentera"/>
+        <s v="Ibiza"/>
+        <s v="Mallorca"/>
+        <s v="Minorca"/>
+        <s v="Anacapa"/>
+        <s v="San Clemente"/>
+        <s v="San Miguel"/>
+        <s v="San Nicolas"/>
+        <s v="Santa Barbara"/>
+        <s v="Santa Catalina"/>
+        <s v="Santa Cruz"/>
+        <s v="Santa Rosa"/>
+        <s v="Fuerteventura"/>
+        <s v="Gran Canaria"/>
+        <s v="Hierro"/>
+        <s v="La Gomera"/>
+        <s v="La Palma"/>
+        <s v="Lanzarote"/>
+        <s v="Tenerife"/>
+        <s v="Boa Vista"/>
+        <s v="Brava"/>
+        <s v="Fogo"/>
+        <s v="Maio"/>
+        <s v="Sal"/>
+        <s v="Santa Luzia"/>
+        <s v="Santiago"/>
+        <s v="Santo Antao"/>
+        <s v="Sao Nicolau"/>
+        <s v="Sao Vicente"/>
+        <s v="Anjouan"/>
+        <s v="Grande Comore"/>
+        <s v="Mayotte"/>
+        <s v="Moheli"/>
+        <s v="Aitutaki"/>
+        <s v="Atiu"/>
+        <s v="Mangaia"/>
+        <s v="Mauke"/>
+        <s v="Mitiaro"/>
+        <s v="Rarotonga"/>
+        <s v="Apotres"/>
+        <s v="Cochons"/>
+        <s v="Lest"/>
+        <s v="Pingouins"/>
+        <s v="Possession"/>
+        <s v="Aruba"/>
+        <s v="Bonaire"/>
+        <s v="Curacao"/>
+        <s v="Espanola"/>
+        <s v="Fernandina"/>
+        <s v="Floreana"/>
+        <s v="Isabela"/>
+        <s v="Pinta"/>
+        <s v="Pinzon"/>
+        <s v="Rabida"/>
+        <s v="San Cristobal"/>
+        <s v="Santa Fe"/>
+        <s v="Annobon"/>
+        <s v="Principe"/>
+        <s v="Sao Tome"/>
+        <s v="Hawaii"/>
+        <s v="Kahoolawe"/>
+        <s v="Kauai"/>
+        <s v="Lanai"/>
+        <s v="Maui"/>
+        <s v="Molokai"/>
+        <s v="Niihau"/>
+        <s v="Oahu"/>
+        <s v="Bird"/>
+        <s v="Curieuse"/>
+        <s v="Denis"/>
+        <s v="Felicite"/>
+        <s v="Fregate"/>
+        <s v="La Digue"/>
+        <s v="Mahe"/>
+        <s v="North"/>
+        <s v="Praslin"/>
+        <s v="Silhouette"/>
+        <s v="Alejandro Selkirk"/>
+        <s v="Robinson Crusoe"/>
+        <s v="Santa Clara"/>
+        <s v="Antsiferov"/>
+        <s v="Atlasova"/>
+        <s v="Chirinkotan"/>
+        <s v="Ekarma"/>
+        <s v="Iturup"/>
+        <s v="Ketoy"/>
+        <s v="Kharimkotan"/>
+        <s v="Kunashir"/>
+        <s v="Makanrushi"/>
+        <s v="Matua"/>
+        <s v="Onekotan"/>
+        <s v="Paramushir"/>
+        <s v="Rasshua"/>
+        <s v="Raykoke"/>
+        <s v="Shiashkotan"/>
+        <s v="Shibotsu"/>
+        <s v="Shikotan"/>
+        <s v="Shimushir"/>
+        <s v="Shumshu"/>
+        <s v="Taraku"/>
+        <s v="Urup"/>
+        <s v="Ushishir"/>
+        <s v="Bugio"/>
+        <s v="Deserta Grande"/>
+        <s v="Madeira"/>
+        <s v="Porto Santo"/>
+        <s v="Selvagens"/>
+        <s v="Agrihan"/>
+        <s v="Aguijan"/>
+        <s v="Alamagan"/>
+        <s v="Anatahan"/>
+        <s v="Asuncion"/>
+        <s v="Farallon De Medinilla"/>
+        <s v="Guam"/>
+        <s v="Guguan"/>
+        <s v="Pagan"/>
+        <s v="Rota"/>
+        <s v="Saipan"/>
+        <s v="Sarigan"/>
+        <s v="Tinian"/>
+        <s v="Eiao"/>
+        <s v="Fatu Hiva"/>
+        <s v="Hatutaa"/>
+        <s v="Hiva Oa"/>
+        <s v="Moho Tani"/>
+        <s v="Nuku Hiva"/>
+        <s v="Tahuata"/>
+        <s v="Ua Huka"/>
+        <s v="Ua Pou"/>
+        <s v="Mauritius"/>
+        <s v="Reunion"/>
+        <s v="Rodrigues"/>
+        <s v="Enderbury"/>
+        <s v="Manra"/>
+        <s v="Nikumaroro"/>
+        <s v="Orona"/>
+        <s v="Henderson"/>
+        <s v="Oeno"/>
+        <s v="Pitcairn"/>
+        <s v="Marion"/>
+        <s v="Prince Edward"/>
+        <s v="Clarion"/>
+        <s v="San Benedicto"/>
+        <s v="Socorro"/>
+        <s v="Ofu"/>
+        <s v="Olosega"/>
+        <s v="Savaii"/>
+        <s v="Swains"/>
+        <s v="Tau"/>
+        <s v="Tutuila"/>
+        <s v="Upolu"/>
+        <s v="Bora Bora"/>
+        <s v="Huahine Iti"/>
+        <s v="Huahine Nui"/>
+        <s v="Moorea"/>
+        <s v="Raiatea"/>
+        <s v="Tahaa"/>
+        <s v="Tahiti"/>
+        <s v="Gough"/>
+        <s v="Inaccessible"/>
+        <s v="Nightingale"/>
+        <s v="Tristan da Cunha"/>
+        <s v="Selvages" u="1"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="archipelago" numFmtId="0">
+      <sharedItems count="34">
+        <s v="Aldabra"/>
+        <s v="Azores"/>
+        <s v="Balearic"/>
+        <s v="California Channel"/>
+        <s v="Canaries"/>
+        <s v="Cape Verde"/>
+        <s v="Comoros"/>
+        <s v="Cook"/>
+        <s v="Crozet"/>
+        <s v="Dutch Caribbean"/>
+        <s v="Galapagos"/>
+        <s v="Gulf of Guinea"/>
+        <s v="SaoTome_Principe"/>
+        <s v="Hawaii"/>
+        <s v="Inner Seychelles"/>
+        <s v="Juan Fernandez"/>
+        <s v="Kuriles"/>
+        <s v="Madeira"/>
+        <s v="Selvagens"/>
+        <s v="Marianas"/>
+        <s v="Marquesas"/>
+        <s v="Mauritius"/>
+        <s v="Reunion"/>
+        <s v="Rodrigues"/>
+        <s v="Phoenix"/>
+        <s v="Pitcairn"/>
+        <s v="Prince Edward"/>
+        <s v="Revillagigedo"/>
+        <s v="Socorro"/>
+        <s v="Samoa"/>
+        <s v="Society"/>
+        <s v="Gough"/>
+        <s v="Tristan da Cunha"/>
+        <s v="Mascarenes" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ka0" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.852845999996515" maxValue="10460.750351999999"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -854,14 +1129,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="144">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="144">
   <r>
     <s v="Aldabra"/>
     <x v="0"/>
     <n v="615.17684000000304"/>
     <n v="602.53622000000303"/>
     <n v="96.068712000005803"/>
-    <x v="0"/>
+    <n v="96.068712000005803"/>
   </r>
   <r>
     <s v="Assumption"/>
@@ -869,7 +1144,7 @@
     <n v="60.674976000003603"/>
     <n v="56.461436000003197"/>
     <n v="11.797911999999799"/>
-    <x v="1"/>
+    <n v="11.797911999999799"/>
   </r>
   <r>
     <s v="Astove"/>
@@ -877,7 +1152,7 @@
     <n v="53.090604000006898"/>
     <n v="50.562480000005998"/>
     <n v="3.37083199999979"/>
-    <x v="2"/>
+    <n v="3.37083199999979"/>
   </r>
   <r>
     <s v="Cosmoledo"/>
@@ -885,7 +1160,7 @@
     <n v="237.64365599999601"/>
     <n v="233.430115999995"/>
     <n v="3.3708319999984999"/>
-    <x v="3"/>
+    <n v="3.3708319999984999"/>
   </r>
   <r>
     <s v="Corvo"/>
@@ -893,7 +1168,7 @@
     <n v="53.2716750000003"/>
     <n v="49.900049999998501"/>
     <n v="21.578400000003001"/>
-    <x v="4"/>
+    <n v="21.578400000003001"/>
   </r>
   <r>
     <s v="Faial"/>
@@ -901,7 +1176,7 @@
     <n v="773.45077499998604"/>
     <n v="757.94129999998802"/>
     <n v="173.301525"/>
-    <x v="5"/>
+    <n v="173.301525"/>
   </r>
   <r>
     <s v="Flores"/>
@@ -909,7 +1184,7 @@
     <n v="316.25842500000903"/>
     <n v="289.95975000000601"/>
     <n v="152.39744999999701"/>
-    <x v="6"/>
+    <n v="152.39744999999701"/>
   </r>
   <r>
     <s v="Graciosa"/>
@@ -917,7 +1192,7 @@
     <n v="140.93392499999999"/>
     <n v="129.47040000000601"/>
     <n v="60.014924999997803"/>
-    <x v="7"/>
+    <n v="60.014924999997803"/>
   </r>
   <r>
     <s v="Santa Maria"/>
@@ -925,7 +1200,7 @@
     <n v="205.66912500000399"/>
     <n v="188.13667500000099"/>
     <n v="112.612274999999"/>
-    <x v="8"/>
+    <n v="112.612274999999"/>
   </r>
   <r>
     <s v="Sao Jorge"/>
@@ -933,7 +1208,7 @@
     <n v="409.31527499999601"/>
     <n v="382.342275000001"/>
     <n v="256.91782500000602"/>
-    <x v="9"/>
+    <n v="256.91782500000602"/>
   </r>
   <r>
     <s v="Sao Miguel"/>
@@ -941,7 +1216,7 @@
     <n v="1105.2186750000001"/>
     <n v="1066.107825"/>
     <n v="749.17507500000102"/>
-    <x v="10"/>
+    <n v="749.17507500000102"/>
   </r>
   <r>
     <s v="Terceira"/>
@@ -949,7 +1224,7 @@
     <n v="596.10329999999499"/>
     <n v="560.36407499999802"/>
     <n v="401.89769999999601"/>
-    <x v="11"/>
+    <n v="401.89769999999601"/>
   </r>
   <r>
     <s v="Cabrera"/>
@@ -957,7 +1232,7 @@
     <n v="10263.10995"/>
     <n v="9573.7222500000298"/>
     <n v="13.947149999999899"/>
-    <x v="12"/>
+    <n v="13.947149999999899"/>
   </r>
   <r>
     <s v="Formentera"/>
@@ -965,7 +1240,7 @@
     <n v="2657.9283"/>
     <n v="2333.15895"/>
     <n v="69.735750000003307"/>
-    <x v="13"/>
+    <n v="69.735750000003307"/>
   </r>
   <r>
     <s v="Anacapa"/>
@@ -973,7 +1248,7 @@
     <n v="2246.4056999999898"/>
     <n v="2048.7620999999899"/>
     <n v="7.1610000000002803"/>
-    <x v="14"/>
+    <n v="7.1610000000002803"/>
   </r>
   <r>
     <s v="San Clemente"/>
@@ -981,7 +1256,7 @@
     <n v="354.46949999999902"/>
     <n v="330.12209999997702"/>
     <n v="163.986899999982"/>
-    <x v="15"/>
+    <n v="163.986899999982"/>
   </r>
   <r>
     <s v="San Nicolas"/>
@@ -989,7 +1264,7 @@
     <n v="794.15490000000295"/>
     <n v="595.07909999999697"/>
     <n v="68.029499999998706"/>
-    <x v="16"/>
+    <n v="68.029499999998706"/>
   </r>
   <r>
     <s v="Santa Barbara"/>
@@ -997,7 +1272,7 @@
     <n v="76.622699999998304"/>
     <n v="65.881199999996198"/>
     <n v="3.5805000000015799"/>
-    <x v="17"/>
+    <n v="3.5805000000015799"/>
   </r>
   <r>
     <s v="Santa Catalina"/>
@@ -1005,7 +1280,7 @@
     <n v="360.19830000000002"/>
     <n v="332.98650000001101"/>
     <n v="219.12660000000099"/>
-    <x v="18"/>
+    <n v="219.12660000000099"/>
   </r>
   <r>
     <s v="Fuerteventura"/>
@@ -1013,7 +1288,7 @@
     <n v="4918.980528"/>
     <n v="4758.9400319999804"/>
     <n v="1727.984412"/>
-    <x v="19"/>
+    <n v="1727.984412"/>
   </r>
   <r>
     <s v="Gran Canaria"/>
@@ -1021,7 +1296,7 @@
     <n v="2557.6283039999998"/>
     <n v="2510.0691000000002"/>
     <n v="1637.39545200001"/>
-    <x v="20"/>
+    <n v="1637.39545200001"/>
   </r>
   <r>
     <s v="Hierro"/>
@@ -1029,7 +1304,7 @@
     <n v="375.18927599999603"/>
     <n v="366.885287999995"/>
     <n v="296.67884399999798"/>
-    <x v="21"/>
+    <n v="296.67884399999798"/>
   </r>
   <r>
     <s v="La Gomera"/>
@@ -1037,7 +1312,7 @@
     <n v="766.98652800000195"/>
     <n v="696.02517600000294"/>
     <n v="405.38559600000099"/>
-    <x v="22"/>
+    <n v="405.38559600000099"/>
   </r>
   <r>
     <s v="La Palma"/>
@@ -1045,7 +1320,7 @@
     <n v="857.57548799999597"/>
     <n v="842.47732799999596"/>
     <n v="758.68253999999604"/>
-    <x v="23"/>
+    <n v="758.68253999999604"/>
   </r>
   <r>
     <s v="Tenerife"/>
@@ -1053,7 +1328,7 @@
     <n v="2512.3338239999998"/>
     <n v="2476.0982399999998"/>
     <n v="2120.536572"/>
-    <x v="24"/>
+    <n v="2120.536572"/>
   </r>
   <r>
     <s v="Boa Vista"/>
@@ -1061,7 +1336,7 @@
     <n v="2700.840416"/>
     <n v="2571.7198479999902"/>
     <n v="644.78041599999904"/>
-    <x v="25"/>
+    <n v="644.78041599999904"/>
   </r>
   <r>
     <s v="Brava"/>
@@ -1069,7 +1344,7 @@
     <n v="145.569047999996"/>
     <n v="142.279351999997"/>
     <n v="72.373311999996602"/>
-    <x v="26"/>
+    <n v="72.373311999996602"/>
   </r>
   <r>
     <s v="Fogo"/>
@@ -1077,7 +1352,7 @@
     <n v="561.71559200000195"/>
     <n v="551.84650400000203"/>
     <n v="493.454400000004"/>
-    <x v="27"/>
+    <n v="493.454400000004"/>
   </r>
   <r>
     <s v="Maio"/>
@@ -1085,7 +1360,7 @@
     <n v="838.87247999999704"/>
     <n v="818.31187999999599"/>
     <n v="264.82052799999298"/>
-    <x v="28"/>
+    <n v="264.82052799999298"/>
   </r>
   <r>
     <s v="Sal"/>
@@ -1093,7 +1368,7 @@
     <n v="464.66956000000698"/>
     <n v="452.333200000006"/>
     <n v="233.56841600000399"/>
-    <x v="29"/>
+    <n v="233.56841600000399"/>
   </r>
   <r>
     <s v="Santa Luzia"/>
@@ -1101,7 +1376,7 @@
     <n v="812.55491199999904"/>
     <n v="780.48037599999805"/>
     <n v="40.298776000000402"/>
-    <x v="30"/>
+    <n v="40.298776000000402"/>
   </r>
   <r>
     <s v="Santiago"/>
@@ -1109,7 +1384,7 @@
     <n v="1174.42147200001"/>
     <n v="1156.3281440000101"/>
     <n v="1038.7215120000001"/>
-    <x v="31"/>
+    <n v="1038.7215120000001"/>
   </r>
   <r>
     <s v="Santo Antao"/>
@@ -1117,7 +1392,7 @@
     <n v="1002.534856"/>
     <n v="991.02091999999902"/>
     <n v="830.64823999999498"/>
-    <x v="32"/>
+    <n v="830.64823999999498"/>
   </r>
   <r>
     <s v="Sao Nicolau"/>
@@ -1125,7 +1400,7 @@
     <n v="518.94954400000699"/>
     <n v="501.67864000000901"/>
     <n v="373.38049600000198"/>
-    <x v="33"/>
+    <n v="373.38049600000198"/>
   </r>
   <r>
     <s v="Anjouan"/>
@@ -1133,7 +1408,7 @@
     <n v="714.16091599999697"/>
     <n v="699.10834400000203"/>
     <n v="480.00979599998698"/>
-    <x v="34"/>
+    <n v="480.00979599998698"/>
   </r>
   <r>
     <s v="Grande Comore"/>
@@ -1141,7 +1416,7 @@
     <n v="1262.7435400000099"/>
     <n v="1240.1646820000001"/>
     <n v="1048.6625160000101"/>
-    <x v="35"/>
+    <n v="1048.6625160000101"/>
   </r>
   <r>
     <s v="Mayotte"/>
@@ -1149,7 +1424,7 @@
     <n v="1883.2440079999999"/>
     <n v="1853.138864"/>
     <n v="430.67081000000297"/>
-    <x v="36"/>
+    <n v="430.67081000000297"/>
   </r>
   <r>
     <s v="Moheli"/>
@@ -1157,7 +1432,7 @@
     <n v="935.76822600000003"/>
     <n v="921.55190800000003"/>
     <n v="239.16864399999901"/>
-    <x v="37"/>
+    <n v="239.16864399999901"/>
   </r>
   <r>
     <s v="Aitutaki"/>
@@ -1165,7 +1440,7 @@
     <n v="144.54179999999701"/>
     <n v="142.13276999999701"/>
     <n v="16.863210000010099"/>
-    <x v="38"/>
+    <n v="16.863210000010099"/>
   </r>
   <r>
     <s v="Atiu"/>
@@ -1173,7 +1448,7 @@
     <n v="44.1655500000034"/>
     <n v="42.559530000003001"/>
     <n v="28.908360000001299"/>
-    <x v="39"/>
+    <n v="28.908360000001299"/>
   </r>
   <r>
     <s v="Mangaia"/>
@@ -1181,7 +1456,7 @@
     <n v="55.407689999995299"/>
     <n v="53.801669999997898"/>
     <n v="43.362540000000401"/>
-    <x v="40"/>
+    <n v="43.362540000000401"/>
   </r>
   <r>
     <s v="Mauke"/>
@@ -1189,7 +1464,7 @@
     <n v="37.741470000001698"/>
     <n v="37.741470000001698"/>
     <n v="16.863209999999199"/>
-    <x v="41"/>
+    <n v="16.863209999999199"/>
   </r>
   <r>
     <s v="Mitiaro"/>
@@ -1197,7 +1472,7 @@
     <n v="63.437789999999197"/>
     <n v="62.6347799999971"/>
     <n v="24.0902999999971"/>
-    <x v="42"/>
+    <n v="24.0902999999971"/>
   </r>
   <r>
     <s v="Rarotonga"/>
@@ -1205,7 +1480,7 @@
     <n v="110.01237000000501"/>
     <n v="110.01237000000501"/>
     <n v="70.664879999996799"/>
-    <x v="43"/>
+    <n v="70.664879999996799"/>
   </r>
   <r>
     <s v="Apotres"/>
@@ -1213,7 +1488,7 @@
     <n v="1686.8191940000099"/>
     <n v="267.34268200000201"/>
     <n v="2.9770899999982001"/>
-    <x v="44"/>
+    <n v="2.9770899999982001"/>
   </r>
   <r>
     <s v="Cochons"/>
@@ -1221,7 +1496,7 @@
     <n v="167.31245800000099"/>
     <n v="145.87741000000199"/>
     <n v="79.190594000003998"/>
-    <x v="45"/>
+    <n v="79.190594000003998"/>
   </r>
   <r>
     <s v="Lest"/>
@@ -1229,7 +1504,7 @@
     <n v="182.793326000002"/>
     <n v="177.43456400000099"/>
     <n v="141.709483999996"/>
-    <x v="46"/>
+    <n v="141.709483999996"/>
   </r>
   <r>
     <s v="Pingouins"/>
@@ -1237,7 +1512,7 @@
     <n v="370.349996000006"/>
     <n v="350.70120200000702"/>
     <n v="8.3358519999987095"/>
-    <x v="47"/>
+    <n v="8.3358519999987095"/>
   </r>
   <r>
     <s v="Possession"/>
@@ -1245,7 +1520,7 @@
     <n v="173.86205600000099"/>
     <n v="173.266638000001"/>
     <n v="163.144532"/>
-    <x v="48"/>
+    <n v="163.144532"/>
   </r>
   <r>
     <s v="Aruba"/>
@@ -1253,7 +1528,7 @@
     <n v="362.53408800000199"/>
     <n v="350.839440000004"/>
     <n v="189.62036400000201"/>
-    <x v="49"/>
+    <n v="189.62036400000201"/>
   </r>
   <r>
     <s v="Bonaire"/>
@@ -1261,7 +1536,7 @@
     <n v="434.372640000008"/>
     <n v="414.324672000009"/>
     <n v="274.824228000007"/>
-    <x v="50"/>
+    <n v="274.824228000007"/>
   </r>
   <r>
     <s v="Curacao"/>
@@ -1269,7 +1544,7 @@
     <n v="556.33111199999701"/>
     <n v="539.62447199999394"/>
     <n v="454.42060799999501"/>
-    <x v="51"/>
+    <n v="454.42060799999501"/>
   </r>
   <r>
     <s v="Espanola"/>
@@ -1277,7 +1552,7 @@
     <n v="160.68134400001199"/>
     <n v="141.87820800000301"/>
     <n v="67.520351999995"/>
-    <x v="52"/>
+    <n v="67.520351999995"/>
   </r>
   <r>
     <s v="Fernandina"/>
@@ -1285,7 +1560,7 @@
     <n v="6732.3773760000004"/>
     <n v="698.28009599999496"/>
     <n v="641.87068799999497"/>
-    <x v="53"/>
+    <n v="641.87068799999497"/>
   </r>
   <r>
     <s v="Floreana"/>
@@ -1293,7 +1568,7 @@
     <n v="291.44860800000998"/>
     <n v="276.06422400000503"/>
     <n v="187.17667200000199"/>
-    <x v="54"/>
+    <n v="187.17667200000199"/>
   </r>
   <r>
     <s v="Pinta"/>
@@ -1301,7 +1576,7 @@
     <n v="83.759424000010398"/>
     <n v="81.195360000013807"/>
     <n v="62.392224000006998"/>
-    <x v="55"/>
+    <n v="62.392224000006998"/>
   </r>
   <r>
     <s v="Pinzon"/>
@@ -1309,7 +1584,7 @@
     <n v="29.0593920000052"/>
     <n v="29.0593920000052"/>
     <n v="19.657824000000002"/>
-    <x v="56"/>
+    <n v="19.657824000000002"/>
   </r>
   <r>
     <s v="Rabida"/>
@@ -1317,7 +1592,7 @@
     <n v="862.38019199999997"/>
     <n v="846.99580799999796"/>
     <n v="6.837504"/>
-    <x v="57"/>
+    <n v="6.837504"/>
   </r>
   <r>
     <s v="San Cristobal"/>
@@ -1325,7 +1600,7 @@
     <n v="999.13027199999101"/>
     <n v="930.75523200000703"/>
     <n v="584.60659199998997"/>
-    <x v="58"/>
+    <n v="584.60659199998997"/>
   </r>
   <r>
     <s v="Santa Cruz"/>
@@ -1333,7 +1608,7 @@
     <n v="2246.4056999999898"/>
     <n v="2048.7620999999899"/>
     <n v="287.15609999999799"/>
-    <x v="59"/>
+    <n v="287.15609999999799"/>
   </r>
   <r>
     <s v="Santa Fe"/>
@@ -1341,7 +1616,7 @@
     <n v="199.142304000004"/>
     <n v="171.79228800000701"/>
     <n v="31.6234560000035"/>
-    <x v="60"/>
+    <n v="31.6234560000035"/>
   </r>
   <r>
     <s v="Annobon"/>
@@ -1349,7 +1624,7 @@
     <n v="130.76726400000001"/>
     <n v="111.10944000000001"/>
     <n v="25.640639999999902"/>
-    <x v="61"/>
+    <n v="25.640639999999902"/>
   </r>
   <r>
     <s v="Principe"/>
@@ -1357,7 +1632,7 @@
     <n v="1338.4414079999999"/>
     <n v="1299.1257599999999"/>
     <n v="170.93759999999901"/>
-    <x v="62"/>
+    <n v="170.93759999999901"/>
   </r>
   <r>
     <s v="Sao Tome"/>
@@ -1365,7 +1640,7 @@
     <n v="1367.5008"/>
     <n v="1349.5523519999999"/>
     <n v="911.95209599999805"/>
-    <x v="63"/>
+    <n v="911.95209599999805"/>
   </r>
   <r>
     <s v="Hawaii"/>
@@ -1373,7 +1648,7 @@
     <n v="11116.147730999901"/>
     <n v="11032.122426"/>
     <n v="10460.750351999999"/>
-    <x v="64"/>
+    <n v="10460.750351999999"/>
   </r>
   <r>
     <s v="Kahoolawe"/>
@@ -1381,7 +1656,7 @@
     <n v="230.46940799999999"/>
     <n v="211.263624000004"/>
     <n v="128.03856000000201"/>
-    <x v="65"/>
+    <n v="128.03856000000201"/>
   </r>
   <r>
     <s v="Kauai"/>
@@ -1389,7 +1664,7 @@
     <n v="1910.975508"/>
     <n v="1895.770929"/>
     <n v="1486.8477780000101"/>
-    <x v="66"/>
+    <n v="1486.8477780000101"/>
   </r>
   <r>
     <s v="Lanai"/>
@@ -1397,7 +1672,7 @@
     <n v="5584.08169799999"/>
     <n v="5378.4197609999901"/>
     <n v="396.11929499999098"/>
-    <x v="67"/>
+    <n v="396.11929499999098"/>
   </r>
   <r>
     <s v="Niihau"/>
@@ -1405,7 +1680,7 @@
     <n v="441.733031999991"/>
     <n v="431.32989899999302"/>
     <n v="209.66314200001"/>
-    <x v="68"/>
+    <n v="209.66314200001"/>
   </r>
   <r>
     <s v="Oahu"/>
@@ -1413,15 +1688,15 @@
     <n v="2346.3066119999999"/>
     <n v="2299.8926339999898"/>
     <n v="1644.4952550000301"/>
-    <x v="69"/>
+    <n v="1644.4952550000301"/>
   </r>
   <r>
     <s v="Bird"/>
     <x v="14"/>
     <n v="39250.715550000001"/>
     <n v="39123.640899999999"/>
-    <n v="0.85284999999994604"/>
-    <x v="70"/>
+    <n v="393.16385000000537"/>
+    <n v="393.16385000000537"/>
   </r>
   <r>
     <s v="Alejandro Selkirk"/>
@@ -1429,7 +1704,7 @@
     <n v="59.206224000005697"/>
     <n v="57.779568000005"/>
     <n v="48.506304000001599"/>
-    <x v="71"/>
+    <n v="48.506304000001599"/>
   </r>
   <r>
     <s v="Robinson Crusoe"/>
@@ -1437,7 +1712,7 @@
     <n v="156.218832000004"/>
     <n v="140.52561600000399"/>
     <n v="71.332799999997903"/>
-    <x v="72"/>
+    <n v="71.332799999997903"/>
   </r>
   <r>
     <s v="Antsiferov"/>
@@ -1445,7 +1720,7 @@
     <n v="39.795775999996899"/>
     <n v="37.4548479999969"/>
     <n v="16.9717279999957"/>
-    <x v="73"/>
+    <n v="16.9717279999957"/>
   </r>
   <r>
     <s v="Atlasova"/>
@@ -1453,7 +1728,7 @@
     <n v="280.91135999999898"/>
     <n v="263.93963200000599"/>
     <n v="173.81390399999901"/>
-    <x v="74"/>
+    <n v="173.81390399999901"/>
   </r>
   <r>
     <s v="Chirinkotan"/>
@@ -1461,7 +1736,7 @@
     <n v="16.386496000003199"/>
     <n v="15.8012640000023"/>
     <n v="7.6080160000014496"/>
-    <x v="75"/>
+    <n v="7.6080160000014496"/>
   </r>
   <r>
     <s v="Ekarma"/>
@@ -1469,7 +1744,7 @@
     <n v="63.790287999996202"/>
     <n v="60.278895999993502"/>
     <n v="39.210544000005498"/>
-    <x v="76"/>
+    <n v="39.210544000005498"/>
   </r>
   <r>
     <s v="Iturup"/>
@@ -1477,7 +1752,7 @@
     <n v="5873.9735840001003"/>
     <n v="5435.6348160000898"/>
     <n v="3423.0219680001001"/>
-    <x v="77"/>
+    <n v="3423.0219680001001"/>
   </r>
   <r>
     <s v="Ketoy"/>
@@ -1485,7 +1760,7 @@
     <n v="203.07550400000699"/>
     <n v="191.370864000003"/>
     <n v="83.688176000000496"/>
-    <x v="78"/>
+    <n v="83.688176000000496"/>
   </r>
   <r>
     <s v="Kharimkotan"/>
@@ -1493,7 +1768,7 @@
     <n v="120.557791999999"/>
     <n v="114.705472000001"/>
     <n v="80.176783999996204"/>
-    <x v="79"/>
+    <n v="80.176783999996204"/>
   </r>
   <r>
     <s v="Kunashir"/>
@@ -1501,7 +1776,7 @@
     <n v="20742.963007999901"/>
     <n v="19132.989775999999"/>
     <n v="1632.2120480000301"/>
-    <x v="80"/>
+    <n v="1632.2120480000301"/>
   </r>
   <r>
     <s v="Makanrushi"/>
@@ -1509,7 +1784,7 @@
     <n v="183.76284800000499"/>
     <n v="162.69449600000101"/>
     <n v="59.693664000003999"/>
-    <x v="81"/>
+    <n v="59.693664000003999"/>
   </r>
   <r>
     <s v="Matua"/>
@@ -1517,7 +1792,7 @@
     <n v="222.97339199999999"/>
     <n v="206.58689600000099"/>
     <n v="61.4493600000011"/>
-    <x v="82"/>
+    <n v="61.4493600000011"/>
   </r>
   <r>
     <s v="Onekotan"/>
@@ -1525,7 +1800,7 @@
     <n v="803.52353600000401"/>
     <n v="736.22185600001399"/>
     <n v="470.52652800000402"/>
-    <x v="83"/>
+    <n v="470.52652800000402"/>
   </r>
   <r>
     <s v="Paramushir"/>
@@ -1533,7 +1808,7 @@
     <n v="18879.584320000002"/>
     <n v="18005.832944000002"/>
     <n v="2538.7364160000102"/>
-    <x v="84"/>
+    <n v="2538.7364160000102"/>
   </r>
   <r>
     <s v="Rasshua"/>
@@ -1541,7 +1816,7 @@
     <n v="395.616831999993"/>
     <n v="363.429071999982"/>
     <n v="79.591552000003503"/>
-    <x v="85"/>
+    <n v="79.591552000003503"/>
   </r>
   <r>
     <s v="Raykoke"/>
@@ -1549,7 +1824,7 @@
     <n v="25.750208000004701"/>
     <n v="23.994512000003802"/>
     <n v="7.6080159999970602"/>
-    <x v="86"/>
+    <n v="7.6080159999970602"/>
   </r>
   <r>
     <s v="Shiashkotan"/>
@@ -1557,7 +1832,7 @@
     <n v="434.82737599999001"/>
     <n v="388.00881599998701"/>
     <n v="145.72276799999099"/>
-    <x v="87"/>
+    <n v="145.72276799999099"/>
   </r>
   <r>
     <s v="Shimushir"/>
@@ -1565,7 +1840,7 @@
     <n v="784.21087999997997"/>
     <n v="726.27291199998899"/>
     <n v="414.92948799999402"/>
-    <x v="88"/>
+    <n v="414.92948799999402"/>
   </r>
   <r>
     <s v="Urup"/>
@@ -1573,7 +1848,7 @@
     <n v="3278.4696640000402"/>
     <n v="2793.31233600007"/>
     <n v="1554.37619200003"/>
-    <x v="89"/>
+    <n v="1554.37619200003"/>
   </r>
   <r>
     <s v="Bugio"/>
@@ -1581,7 +1856,7 @@
     <n v="156.40917599999901"/>
     <n v="133.02088799999899"/>
     <n v="4.3853040000006702"/>
-    <x v="90"/>
+    <n v="4.3853040000006702"/>
   </r>
   <r>
     <s v="Madeira"/>
@@ -1589,7 +1864,7 @@
     <n v="1124.09959200001"/>
     <n v="1070.74506000001"/>
     <n v="789.354719999998"/>
-    <x v="91"/>
+    <n v="789.354719999998"/>
   </r>
   <r>
     <s v="Porto Santo"/>
@@ -1597,7 +1872,7 @@
     <n v="222.18873599999901"/>
     <n v="213.418127999999"/>
     <n v="51.161880000002697"/>
-    <x v="92"/>
+    <n v="51.161880000002697"/>
   </r>
   <r>
     <s v="Selvagens"/>
@@ -1605,7 +1880,7 @@
     <n v="38.005968000002703"/>
     <n v="35.813316000002203"/>
     <n v="3.6544200000010001"/>
-    <x v="93"/>
+    <n v="3.6544200000010001"/>
   </r>
   <r>
     <s v="Agrihan"/>
@@ -1613,7 +1888,7 @@
     <n v="62.364079999989301"/>
     <n v="60.722919999989301"/>
     <n v="47.593639999993599"/>
-    <x v="94"/>
+    <n v="47.593639999993599"/>
   </r>
   <r>
     <s v="Aguijan"/>
@@ -1621,7 +1896,7 @@
     <n v="22.155660000006701"/>
     <n v="20.514500000006901"/>
     <n v="7.3852200000030201"/>
-    <x v="95"/>
+    <n v="7.3852200000030201"/>
   </r>
   <r>
     <s v="Alamagan"/>
@@ -1629,7 +1904,7 @@
     <n v="25.4379800000006"/>
     <n v="23.796820000000402"/>
     <n v="16.411600000000998"/>
-    <x v="96"/>
+    <n v="16.411600000000998"/>
   </r>
   <r>
     <s v="Anatahan"/>
@@ -1637,7 +1912,7 @@
     <n v="38.567260000009"/>
     <n v="38.567260000009"/>
     <n v="30.361460000008499"/>
-    <x v="97"/>
+    <n v="30.361460000008499"/>
   </r>
   <r>
     <s v="Asuncion"/>
@@ -1645,7 +1920,7 @@
     <n v="18.052760000006501"/>
     <n v="18.052760000006501"/>
     <n v="11.488120000002599"/>
-    <x v="98"/>
+    <n v="11.488120000002599"/>
   </r>
   <r>
     <s v="Farallon De Medinilla"/>
@@ -1653,7 +1928,7 @@
     <n v="7.3852199999997898"/>
     <n v="6.5646399999995904"/>
     <n v="1.64116000000021"/>
-    <x v="99"/>
+    <n v="1.64116000000021"/>
   </r>
   <r>
     <s v="Guam"/>
@@ -1661,7 +1936,7 @@
     <n v="690.10777999998095"/>
     <n v="682.72255999997901"/>
     <n v="574.40599999997198"/>
-    <x v="100"/>
+    <n v="574.40599999997198"/>
   </r>
   <r>
     <s v="Guguan"/>
@@ -1669,7 +1944,7 @@
     <n v="10.6675400000056"/>
     <n v="10.6675400000056"/>
     <n v="6.5646400000040597"/>
-    <x v="101"/>
+    <n v="6.5646400000040597"/>
   </r>
   <r>
     <s v="Pagan"/>
@@ -1677,7 +1952,7 @@
     <n v="80.416840000028103"/>
     <n v="78.775680000028103"/>
     <n v="55.799440000015899"/>
-    <x v="102"/>
+    <n v="55.799440000015899"/>
   </r>
   <r>
     <s v="Rota"/>
@@ -1685,7 +1960,7 @@
     <n v="125.548739999986"/>
     <n v="122.266419999986"/>
     <n v="91.084379999989196"/>
-    <x v="103"/>
+    <n v="91.084379999989196"/>
   </r>
   <r>
     <s v="Saipan"/>
@@ -1693,7 +1968,7 @@
     <n v="248.635739999999"/>
     <n v="222.37717999999799"/>
     <n v="128.83106000001001"/>
-    <x v="104"/>
+    <n v="128.83106000001001"/>
   </r>
   <r>
     <s v="Sarigan"/>
@@ -1701,7 +1976,7 @@
     <n v="8.2057999999997904"/>
     <n v="8.2057999999997904"/>
     <n v="5.7440599999997897"/>
-    <x v="105"/>
+    <n v="5.7440599999997897"/>
   </r>
   <r>
     <s v="Tinian"/>
@@ -1709,7 +1984,7 @@
     <n v="143.601500000008"/>
     <n v="141.13976000000801"/>
     <n v="103.393080000013"/>
-    <x v="106"/>
+    <n v="103.393080000013"/>
   </r>
   <r>
     <s v="Eiao"/>
@@ -1717,7 +1992,7 @@
     <n v="64.185951999996703"/>
     <n v="63.341399999994998"/>
     <n v="49.828568000000203"/>
-    <x v="107"/>
+    <n v="49.828568000000203"/>
   </r>
   <r>
     <s v="Fatu Hiva"/>
@@ -1725,7 +2000,7 @@
     <n v="97.123479999995197"/>
     <n v="95.434375999996803"/>
     <n v="81.076992000004694"/>
-    <x v="108"/>
+    <n v="81.076992000004694"/>
   </r>
   <r>
     <s v="Hatutaa"/>
@@ -1733,7 +2008,7 @@
     <n v="65.875055999998807"/>
     <n v="62.496847999997001"/>
     <n v="10.1346240000015"/>
-    <x v="109"/>
+    <n v="10.1346240000015"/>
   </r>
   <r>
     <s v="Hiva Oa"/>
@@ -1741,7 +2016,7 @@
     <n v="701.82271200001298"/>
     <n v="657.906008000013"/>
     <n v="367.380120000001"/>
-    <x v="110"/>
+    <n v="367.380120000001"/>
   </r>
   <r>
     <s v="Moho Tani"/>
@@ -1749,7 +2024,7 @@
     <n v="64.185951999997201"/>
     <n v="59.118639999995303"/>
     <n v="21.1138000000015"/>
-    <x v="111"/>
+    <n v="21.1138000000015"/>
   </r>
   <r>
     <s v="Nuku Hiva"/>
@@ -1757,7 +2032,7 @@
     <n v="531.22320799999204"/>
     <n v="516.021271999992"/>
     <n v="377.514743999985"/>
-    <x v="112"/>
+    <n v="377.514743999985"/>
   </r>
   <r>
     <s v="Ua Huka"/>
@@ -1765,7 +2040,7 @@
     <n v="153.70846399999101"/>
     <n v="143.57383999999601"/>
     <n v="107.258103999998"/>
-    <x v="113"/>
+    <n v="107.258103999998"/>
   </r>
   <r>
     <s v="Ua Pou"/>
@@ -1773,7 +2048,7 @@
     <n v="164.68764000001599"/>
     <n v="160.46488000001301"/>
     <n v="123.30459200000701"/>
-    <x v="114"/>
+    <n v="123.30459200000701"/>
   </r>
   <r>
     <s v="Mauritius"/>
@@ -1781,7 +2056,7 @@
     <n v="2865.9426899999899"/>
     <n v="2816.15607000001"/>
     <n v="1915.9818600000101"/>
-    <x v="115"/>
+    <n v="1915.9818600000101"/>
   </r>
   <r>
     <s v="Reunion"/>
@@ -1789,7 +2064,7 @@
     <n v="2816.9590800000001"/>
     <n v="2797.6868400000099"/>
     <n v="2535.10256999999"/>
-    <x v="116"/>
+    <n v="2535.10256999999"/>
   </r>
   <r>
     <s v="Rodrigues"/>
@@ -1797,7 +2072,7 @@
     <n v="1141.88022"/>
     <n v="1096.91166"/>
     <n v="128.48160000000499"/>
-    <x v="117"/>
+    <n v="128.48160000000499"/>
   </r>
   <r>
     <s v="Enderbury"/>
@@ -1805,7 +2080,7 @@
     <n v="29.849610000000101"/>
     <n v="27.291072000003702"/>
     <n v="4.2642299999965703"/>
-    <x v="118"/>
+    <n v="4.2642299999965703"/>
   </r>
   <r>
     <s v="Manra"/>
@@ -1813,7 +2088,7 @@
     <n v="21.3211500000101"/>
     <n v="21.3211500000101"/>
     <n v="0.85284600000005395"/>
-    <x v="119"/>
+    <n v="0.85284600000005395"/>
   </r>
   <r>
     <s v="Nikumaroro"/>
@@ -1821,7 +2096,7 @@
     <n v="45.200837999999798"/>
     <n v="41.7894539999998"/>
     <n v="7.6756139999931401"/>
-    <x v="120"/>
+    <n v="7.6756139999931401"/>
   </r>
   <r>
     <s v="Orona"/>
@@ -1829,7 +2104,7 @@
     <n v="67.374834000010097"/>
     <n v="59.699220000002903"/>
     <n v="0.852845999996515"/>
-    <x v="121"/>
+    <n v="0.852845999996515"/>
   </r>
   <r>
     <s v="Henderson"/>
@@ -1837,7 +2112,7 @@
     <n v="70.194150000001201"/>
     <n v="68.634279999999094"/>
     <n v="50.695774999998299"/>
-    <x v="122"/>
+    <n v="50.695774999998299"/>
   </r>
   <r>
     <s v="Oeno"/>
@@ -1845,7 +2120,7 @@
     <n v="18.718439999998299"/>
     <n v="18.718439999998299"/>
     <n v="3.1197399999992101"/>
-    <x v="123"/>
+    <n v="3.1197399999992101"/>
   </r>
   <r>
     <s v="Pitcairn"/>
@@ -1853,7 +2128,7 @@
     <n v="21.838179999997301"/>
     <n v="21.058244999996901"/>
     <n v="9.3592200000007892"/>
-    <x v="124"/>
+    <n v="9.3592200000007892"/>
   </r>
   <r>
     <s v="Marion"/>
@@ -1861,7 +2136,7 @@
     <n v="327.37340999999401"/>
     <n v="323.83423799999201"/>
     <n v="304.95865399999701"/>
-    <x v="125"/>
+    <n v="304.95865399999701"/>
   </r>
   <r>
     <s v="Prince Edward"/>
@@ -1869,7 +2144,7 @@
     <n v="94.377919999999406"/>
     <n v="87.889437999996602"/>
     <n v="56.626752000001098"/>
-    <x v="126"/>
+    <n v="56.626752000001098"/>
   </r>
   <r>
     <s v="Clarion"/>
@@ -1877,7 +2152,7 @@
     <n v="28.33306"/>
     <n v="28.33306"/>
     <n v="21.047415999998901"/>
-    <x v="127"/>
+    <n v="21.047415999998901"/>
   </r>
   <r>
     <s v="San Benedicto"/>
@@ -1885,7 +2160,7 @@
     <n v="36.428219999993999"/>
     <n v="35.6187039999935"/>
     <n v="11.3332239999962"/>
-    <x v="128"/>
+    <n v="11.3332239999962"/>
   </r>
   <r>
     <s v="Socorro"/>
@@ -1893,7 +2168,7 @@
     <n v="290.61624400000898"/>
     <n v="281.71156800000699"/>
     <n v="158.66513600000701"/>
-    <x v="129"/>
+    <n v="158.66513600000701"/>
   </r>
   <r>
     <s v="Ofu"/>
@@ -1901,7 +2176,7 @@
     <n v="45.058139999990097"/>
     <n v="45.058139999990097"/>
     <n v="18.357020000003399"/>
-    <x v="130"/>
+    <n v="18.357020000003399"/>
   </r>
   <r>
     <s v="Savaii"/>
@@ -1909,7 +2184,7 @@
     <n v="4447.4053000000004"/>
     <n v="2196.1671200000001"/>
     <n v="1746.42013"/>
-    <x v="131"/>
+    <n v="1746.42013"/>
   </r>
   <r>
     <s v="Swains"/>
@@ -1917,7 +2192,7 @@
     <n v="5.0064600000070802"/>
     <n v="5.0064600000070802"/>
     <n v="2.5032300000064498"/>
-    <x v="132"/>
+    <n v="2.5032300000064498"/>
   </r>
   <r>
     <s v="Tau"/>
@@ -1925,7 +2200,7 @@
     <n v="74.262490000014395"/>
     <n v="73.428080000014404"/>
     <n v="61.746340000004302"/>
-    <x v="133"/>
+    <n v="61.746340000004302"/>
   </r>
   <r>
     <s v="Tutuila"/>
@@ -1933,7 +2208,7 @@
     <n v="435.56202000000798"/>
     <n v="423.880279999999"/>
     <n v="148.52497999998201"/>
-    <x v="134"/>
+    <n v="148.52497999998201"/>
   </r>
   <r>
     <s v="Bora Bora"/>
@@ -1941,7 +2216,7 @@
     <n v="131.66805399997801"/>
     <n v="128.39679799997899"/>
     <n v="33.530373999989997"/>
-    <x v="135"/>
+    <n v="33.530373999989997"/>
   </r>
   <r>
     <s v="Huahine Iti"/>
@@ -1949,7 +2224,7 @@
     <n v="192.18629000002301"/>
     <n v="184.00815000002299"/>
     <n v="106.315820000012"/>
-    <x v="136"/>
+    <n v="106.315820000012"/>
   </r>
   <r>
     <s v="Moorea"/>
@@ -1957,7 +2232,7 @@
     <n v="179.101266000001"/>
     <n v="175.01219600000101"/>
     <n v="143.11744999999999"/>
-    <x v="137"/>
+    <n v="143.11744999999999"/>
   </r>
   <r>
     <s v="Raiatea"/>
@@ -1965,7 +2240,7 @@
     <n v="664.88278200000195"/>
     <n v="647.70868800000301"/>
     <n v="197.91098800002001"/>
-    <x v="138"/>
+    <n v="197.91098800002001"/>
   </r>
   <r>
     <s v="Tahiti"/>
@@ -1973,7 +2248,7 @@
     <n v="1481.87896799997"/>
     <n v="1464.70487399997"/>
     <n v="1106.50234199996"/>
-    <x v="139"/>
+    <n v="1106.50234199996"/>
   </r>
   <r>
     <s v="Gough"/>
@@ -1981,7 +2256,7 @@
     <n v="138.81937500000001"/>
     <n v="117.359375"/>
     <n v="81.816250000004302"/>
-    <x v="140"/>
+    <n v="81.816250000004302"/>
   </r>
   <r>
     <s v="Inaccessible"/>
@@ -1989,7 +2264,7 @@
     <n v="45.602500000001498"/>
     <n v="38.225625000000399"/>
     <n v="18.7774999999992"/>
-    <x v="141"/>
+    <n v="18.7774999999992"/>
   </r>
   <r>
     <s v="Nightingale"/>
@@ -1997,7 +2272,7 @@
     <n v="33.53125"/>
     <n v="32.190000000000197"/>
     <n v="6.0356249999984302"/>
-    <x v="142"/>
+    <n v="6.0356249999984302"/>
   </r>
   <r>
     <s v="Tristan da Cunha"/>
@@ -2005,13 +2280,908 @@
     <n v="140.83125000000101"/>
     <n v="139.49"/>
     <n v="109.31187499999599"/>
+    <n v="109.31187499999599"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="178">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="96.068712000005803"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="11.797911999999799"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.37083199999979"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3.3708319999984999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="21.578400000003001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="173.301525"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="152.39744999999701"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="60.014924999997803"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="430.89367499999202"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="112.612274999999"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="256.91782500000602"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="749.17507500000102"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="401.89769999999601"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="13.947149999999899"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="69.735750000003307"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="579.80294999999296"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="3658.8023499999899"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="714.62540000000899"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="3"/>
+    <n v="7.1610000000002803"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="3"/>
+    <n v="163.986899999982"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="3"/>
+    <n v="52.991399999998002"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="3"/>
+    <n v="68.029499999998706"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="3"/>
+    <n v="3.5805000000015799"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="3"/>
+    <n v="219.12660000000099"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="3"/>
+    <n v="287.15609999999799"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="3"/>
+    <n v="243.473999999998"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="4"/>
+    <n v="1727.984412"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="4"/>
+    <n v="1637.39545200001"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="4"/>
+    <n v="296.67884399999798"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="4"/>
+    <n v="405.38559600000099"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="4"/>
+    <n v="758.68253999999604"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="850.78131600000404"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="4"/>
+    <n v="2120.536572"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="5"/>
+    <n v="644.78041599999904"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="5"/>
+    <n v="72.373311999996602"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="5"/>
+    <n v="493.454400000004"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="5"/>
+    <n v="264.82052799999298"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="5"/>
+    <n v="233.56841600000399"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="5"/>
+    <n v="40.298776000000402"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="5"/>
+    <n v="1038.7215120000001"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="5"/>
+    <n v="830.64823999999498"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="5"/>
+    <n v="373.38049600000198"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="5"/>
+    <n v="255.773864"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="6"/>
+    <n v="480.00979599998698"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="6"/>
+    <n v="1048.6625160000101"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="6"/>
+    <n v="430.67081000000297"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="6"/>
+    <n v="239.16864399999901"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="7"/>
+    <n v="16.863210000010099"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="7"/>
+    <n v="28.908360000001299"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="7"/>
+    <n v="43.362540000000401"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="7"/>
+    <n v="16.863209999999199"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="7"/>
+    <n v="24.0902999999971"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="7"/>
+    <n v="70.664879999996799"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="8"/>
+    <n v="2.9770899999982001"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="8"/>
+    <n v="79.190594000003998"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="8"/>
+    <n v="141.709483999996"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="8"/>
+    <n v="8.3358519999987095"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="8"/>
+    <n v="163.144532"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="9"/>
+    <n v="189.62036400000201"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="9"/>
+    <n v="274.824228000007"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="9"/>
+    <n v="454.42060799999501"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="10"/>
+    <n v="67.520351999995"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="10"/>
+    <n v="641.87068799999497"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="10"/>
+    <n v="187.17667200000199"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="10"/>
+    <n v="4731.5527679999695"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="10"/>
+    <n v="62.392224000006998"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="10"/>
+    <n v="19.657824000000002"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="10"/>
+    <n v="6.837504"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="10"/>
+    <n v="584.60659199998997"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="10"/>
+    <n v="1047.8474880000099"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="10"/>
+    <n v="31.6234560000035"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="10"/>
+    <n v="604.26441599999703"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="11"/>
+    <n v="25.640639999999902"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="12"/>
+    <n v="170.93759999999901"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="12"/>
+    <n v="911.95209599999805"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="13"/>
+    <n v="10460.750351999999"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="13"/>
+    <n v="128.03856000000201"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="13"/>
+    <n v="1486.8477780000101"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="13"/>
+    <n v="396.11929499999098"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="13"/>
+    <n v="1945.38587100001"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="13"/>
+    <n v="728.21930999999404"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="13"/>
+    <n v="209.66314200001"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="13"/>
+    <n v="1644.4952550000301"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="14"/>
+    <n v="0.85284999999994604"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="14"/>
+    <n v="64.816600000004399"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="14"/>
+    <n v="1.7056999999982301"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="14"/>
+    <n v="5.96994999999737"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="14"/>
+    <n v="5.1170999999999998"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="14"/>
+    <n v="16.204150000002599"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="14"/>
+    <n v="200.41975000000201"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="14"/>
+    <n v="4.2642499999981203"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="14"/>
+    <n v="64.816600000004399"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="14"/>
+    <n v="28.996899999998298"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="15"/>
+    <n v="48.506304000001599"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="15"/>
+    <n v="71.332799999997903"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="15"/>
+    <n v="5.7066240000003603"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="16"/>
+    <n v="16.9717279999957"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="16"/>
+    <n v="173.81390399999901"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="16"/>
+    <n v="7.6080160000014496"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="16"/>
+    <n v="39.210544000005498"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="16"/>
+    <n v="3423.0219680001001"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="16"/>
+    <n v="83.688176000000496"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="16"/>
+    <n v="80.176783999996204"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="16"/>
+    <n v="1632.2120480000301"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="16"/>
+    <n v="59.693664000003999"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="16"/>
+    <n v="61.4493600000011"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="16"/>
+    <n v="470.52652800000402"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="16"/>
+    <n v="2538.7364160000102"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="16"/>
+    <n v="79.591552000003503"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="16"/>
+    <n v="7.6080159999970602"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="16"/>
+    <n v="145.72276799999099"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="16"/>
+    <n v="67.301679999997404"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="16"/>
+    <n v="287.93414399999898"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="16"/>
+    <n v="414.92948799999402"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="16"/>
+    <n v="2538.7364160000102"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="16"/>
+    <n v="8.77848000000259"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="16"/>
+    <n v="1554.37619200003"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="16"/>
+    <n v="9.9489439999997291"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="17"/>
+    <n v="4.3853040000006702"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="17"/>
+    <n v="9.5014920000004306"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="17"/>
+    <n v="789.354719999998"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="17"/>
+    <n v="51.161880000002697"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="18"/>
+    <n v="3.6544200000010001"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="19"/>
+    <n v="47.593639999993599"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="19"/>
+    <n v="7.3852200000030201"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="19"/>
+    <n v="16.411600000000998"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="19"/>
+    <n v="30.361460000008499"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="19"/>
+    <n v="11.488120000002599"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="19"/>
+    <n v="1.64116000000021"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="19"/>
+    <n v="574.40599999997198"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="19"/>
+    <n v="6.5646400000040597"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="19"/>
+    <n v="55.799440000015899"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="19"/>
+    <n v="91.084379999989196"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="19"/>
+    <n v="128.83106000001001"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="19"/>
+    <n v="5.7440599999997897"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="19"/>
+    <n v="103.393080000013"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="20"/>
+    <n v="49.828568000000203"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="20"/>
+    <n v="81.076992000004694"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="20"/>
+    <n v="10.1346240000015"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="20"/>
+    <n v="367.380120000001"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="20"/>
+    <n v="21.1138000000015"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <x v="20"/>
+    <n v="377.514743999985"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="20"/>
+    <n v="92.9007200000148"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <x v="20"/>
+    <n v="107.258103999998"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <x v="20"/>
+    <n v="123.30459200000701"/>
+  </r>
+  <r>
     <x v="143"/>
+    <x v="21"/>
+    <n v="1915.9818600000101"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <x v="22"/>
+    <n v="2535.10256999999"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <x v="23"/>
+    <n v="128.48160000000499"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <x v="24"/>
+    <n v="4.2642299999965703"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <x v="24"/>
+    <n v="0.85284600000005395"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <x v="24"/>
+    <n v="7.6756139999931401"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <x v="24"/>
+    <n v="0.852845999996515"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="25"/>
+    <n v="50.695774999998299"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <x v="25"/>
+    <n v="3.1197399999992101"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <x v="25"/>
+    <n v="9.3592200000007892"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <x v="26"/>
+    <n v="304.95865399999701"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <x v="26"/>
+    <n v="56.626752000001098"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <x v="27"/>
+    <n v="21.047415999998901"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <x v="27"/>
+    <n v="11.3332239999962"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <x v="28"/>
+    <n v="158.66513600000701"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <x v="29"/>
+    <n v="18.357020000003399"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <x v="29"/>
+    <n v="18.357020000003399"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <x v="29"/>
+    <n v="1746.42013"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <x v="29"/>
+    <n v="2.5032300000064498"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <x v="29"/>
+    <n v="61.746340000004302"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <x v="29"/>
+    <n v="148.52497999998201"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <x v="29"/>
+    <n v="1171.5116399999999"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <x v="30"/>
+    <n v="33.530373999989997"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="30"/>
+    <n v="106.315820000012"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <x v="30"/>
+    <n v="106.315820000012"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <x v="30"/>
+    <n v="143.11744999999999"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <x v="30"/>
+    <n v="197.91098800002001"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <x v="30"/>
+    <n v="118.58302999999501"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <x v="30"/>
+    <n v="1106.50234199996"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="31"/>
+    <n v="81.816250000004302"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <x v="32"/>
+    <n v="18.7774999999992"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <x v="32"/>
+    <n v="6.0356249999984302"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <x v="32"/>
+    <n v="109.31187499999599"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2056,154 +3226,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
-      <items count="144">
-        <item x="121"/>
-        <item x="119"/>
-        <item x="70"/>
-        <item x="99"/>
-        <item x="132"/>
-        <item x="44"/>
-        <item x="123"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="118"/>
-        <item x="90"/>
-        <item x="105"/>
-        <item x="142"/>
-        <item x="101"/>
-        <item x="57"/>
-        <item x="14"/>
-        <item x="95"/>
-        <item x="86"/>
-        <item x="75"/>
-        <item x="120"/>
-        <item x="47"/>
-        <item x="124"/>
-        <item x="109"/>
-        <item x="128"/>
-        <item x="98"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="96"/>
-        <item x="41"/>
-        <item x="38"/>
-        <item x="73"/>
-        <item x="130"/>
-        <item x="141"/>
-        <item x="56"/>
-        <item x="127"/>
-        <item x="111"/>
-        <item x="4"/>
-        <item x="42"/>
-        <item x="61"/>
-        <item x="39"/>
-        <item x="97"/>
-        <item x="60"/>
-        <item x="135"/>
-        <item x="76"/>
-        <item x="30"/>
-        <item x="40"/>
-        <item x="94"/>
-        <item x="71"/>
-        <item x="107"/>
-        <item x="122"/>
-        <item x="92"/>
-        <item x="102"/>
-        <item x="126"/>
-        <item x="81"/>
-        <item x="7"/>
-        <item x="82"/>
-        <item x="133"/>
-        <item x="55"/>
-        <item x="52"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="43"/>
-        <item x="72"/>
-        <item x="26"/>
-        <item x="45"/>
-        <item x="85"/>
-        <item x="79"/>
-        <item x="108"/>
-        <item x="140"/>
-        <item x="78"/>
-        <item x="103"/>
-        <item x="0"/>
-        <item x="106"/>
-        <item x="136"/>
-        <item x="113"/>
-        <item x="143"/>
-        <item x="8"/>
-        <item x="114"/>
-        <item x="65"/>
-        <item x="117"/>
-        <item x="104"/>
-        <item x="46"/>
-        <item x="137"/>
-        <item x="87"/>
-        <item x="134"/>
-        <item x="6"/>
-        <item x="129"/>
-        <item x="48"/>
-        <item x="15"/>
-        <item x="62"/>
-        <item x="5"/>
-        <item x="74"/>
-        <item x="54"/>
-        <item x="49"/>
-        <item x="138"/>
-        <item x="68"/>
-        <item x="18"/>
-        <item x="29"/>
-        <item x="37"/>
-        <item x="9"/>
-        <item x="28"/>
-        <item x="50"/>
-        <item x="59"/>
-        <item x="21"/>
-        <item x="125"/>
-        <item x="110"/>
-        <item x="33"/>
-        <item x="112"/>
-        <item x="67"/>
-        <item x="11"/>
-        <item x="22"/>
-        <item x="88"/>
-        <item x="36"/>
-        <item x="51"/>
-        <item x="83"/>
-        <item x="34"/>
-        <item x="27"/>
-        <item x="100"/>
-        <item x="58"/>
-        <item x="53"/>
-        <item x="25"/>
-        <item x="10"/>
-        <item x="23"/>
-        <item x="91"/>
-        <item x="32"/>
-        <item x="63"/>
-        <item x="31"/>
-        <item x="35"/>
-        <item x="139"/>
-        <item x="66"/>
-        <item x="89"/>
-        <item x="80"/>
-        <item x="20"/>
-        <item x="69"/>
-        <item x="19"/>
-        <item x="131"/>
-        <item x="115"/>
-        <item x="24"/>
-        <item x="116"/>
-        <item x="84"/>
-        <item x="77"/>
-        <item x="64"/>
-        <item x="93"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -2342,6 +3365,355 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField showAll="0">
+      <items count="178">
+        <item x="121"/>
+        <item x="122"/>
+        <item x="47"/>
+        <item x="123"/>
+        <item x="0"/>
+        <item x="91"/>
+        <item x="18"/>
+        <item x="124"/>
+        <item x="43"/>
+        <item x="70"/>
+        <item x="94"/>
+        <item x="53"/>
+        <item x="58"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="125"/>
+        <item x="48"/>
+        <item x="95"/>
+        <item x="81"/>
+        <item x="33"/>
+        <item x="59"/>
+        <item x="165"/>
+        <item x="34"/>
+        <item x="116"/>
+        <item x="13"/>
+        <item x="96"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="60"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="117"/>
+        <item x="134"/>
+        <item x="97"/>
+        <item x="146"/>
+        <item x="61"/>
+        <item x="5"/>
+        <item x="126"/>
+        <item x="135"/>
+        <item x="84"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="6"/>
+        <item x="35"/>
+        <item x="14"/>
+        <item x="85"/>
+        <item x="26"/>
+        <item x="172"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="44"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="136"/>
+        <item x="73"/>
+        <item x="150"/>
+        <item x="28"/>
+        <item x="137"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="15"/>
+        <item x="173"/>
+        <item x="64"/>
+        <item x="98"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="86"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="76"/>
+        <item x="31"/>
+        <item x="55"/>
+        <item x="118"/>
+        <item x="87"/>
+        <item x="36"/>
+        <item x="102"/>
+        <item x="16"/>
+        <item x="49"/>
+        <item x="147"/>
+        <item x="153"/>
+        <item x="103"/>
+        <item x="77"/>
+        <item x="50"/>
+        <item x="143"/>
+        <item x="45"/>
+        <item x="17"/>
+        <item x="51"/>
+        <item x="46"/>
+        <item x="138"/>
+        <item x="78"/>
+        <item x="168"/>
+        <item x="174"/>
+        <item x="79"/>
+        <item x="148"/>
+        <item x="88"/>
+        <item x="139"/>
+        <item x="80"/>
+        <item x="151"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="104"/>
+        <item x="149"/>
+        <item x="129"/>
+        <item x="105"/>
+        <item x="8"/>
+        <item x="56"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="152"/>
+        <item x="119"/>
+        <item x="57"/>
+        <item x="89"/>
+        <item x="154"/>
+        <item x="71"/>
+        <item x="67"/>
+        <item x="169"/>
+        <item x="52"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="144"/>
+        <item x="92"/>
+        <item x="145"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="37"/>
+        <item x="156"/>
+        <item x="19"/>
+        <item x="68"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="93"/>
+        <item x="24"/>
+        <item x="69"/>
+        <item x="38"/>
+        <item x="9"/>
+        <item x="25"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="41"/>
+        <item x="72"/>
+        <item x="42"/>
+        <item x="132"/>
+        <item x="160"/>
+        <item m="1" x="176"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="90"/>
+        <item x="157"/>
+        <item x="161"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="140"/>
+        <item x="113"/>
+        <item x="162"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="133"/>
+        <item x="175"/>
+        <item x="163"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="164"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="120"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="35">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" m="1" x="33"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="32"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="34">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of ka0" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2609,16 +3981,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E36"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -2627,7 +3999,7 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
         <v>169</v>
@@ -2639,7 +4011,7 @@
         <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2891,10 +4263,10 @@
         <v>39123.640899999999</v>
       </c>
       <c r="D18" s="5">
-        <v>0.85284999999994604</v>
+        <v>393.16385000000537</v>
       </c>
       <c r="E18" s="5">
-        <v>0.85284999999994604</v>
+        <v>393.16385000000537</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3205,7 +4577,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="B37" s="5">
         <v>199358.10522900001</v>
@@ -3214,10 +4586,10 @@
         <v>182102.53904400021</v>
       </c>
       <c r="D37" s="5">
-        <v>57530.341764000186</v>
+        <v>57922.652764000188</v>
       </c>
       <c r="E37" s="5">
-        <v>57530.341764000186</v>
+        <v>57922.652764000188</v>
       </c>
     </row>
   </sheetData>
@@ -3226,19 +4598,357 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>114.6082880000039</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2358.7888499999917</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5036.9135999999953</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1045.5059999999776</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7797.444732000009</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4247.8199599999944</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2198.5117659999992</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5">
+        <v>200.75250000000489</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="5">
+        <v>395.35755199999687</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5">
+        <v>918.86520000000405</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5">
+        <v>7985.3499839999695</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="5">
+        <v>81.816250000004302</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5">
+        <v>25.640639999999902</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="5">
+        <v>16999.519563000045</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="5">
+        <v>393.16385000000537</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="5">
+        <v>125.54572799999987</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="5">
+        <v>13702.036816000173</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="5">
+        <v>854.40339600000186</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1080.7038600000128</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1230.5122640000136</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1915.9818600000101</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="5">
+        <v>13.645535999986279</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="5">
+        <v>63.1747349999983</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="5">
+        <v>361.5854059999981</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2535.10256999999</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="5">
+        <v>32.380639999995097</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="5">
+        <v>128.48160000000499</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="5">
+        <v>3167.4203599999992</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1082.889695999997</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3.6544200000010001</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1812.2758239999889</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="5">
+        <v>158.66513600000701</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="5">
+        <v>134.12499999999363</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="5">
+        <v>78202.643582000179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q179"/>
+  <sheetViews>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="S146" sqref="S146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3257,8 +4967,17 @@
       <c r="F1" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3277,8 +4996,17 @@
       <c r="F2">
         <v>96.068712000005803</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>96.068712000005803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3297,8 +5025,17 @@
       <c r="F3">
         <v>11.797911999999799</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>11.797911999999799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3317,8 +5054,17 @@
       <c r="F4">
         <v>3.37083199999979</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>3.37083199999979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3337,8 +5083,17 @@
       <c r="F5">
         <v>3.3708319999984999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>3.3708319999984999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3357,8 +5112,17 @@
       <c r="F6">
         <v>21.578400000003001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <v>21.578400000003001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3377,8 +5141,17 @@
       <c r="F7">
         <v>173.301525</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>173.301525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3397,8 +5170,17 @@
       <c r="F8">
         <v>152.39744999999701</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>152.39744999999701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3417,8 +5199,17 @@
       <c r="F9">
         <v>60.014924999997803</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>60.014924999997803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3437,8 +5228,17 @@
       <c r="F10">
         <v>112.612274999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>178</v>
+      </c>
+      <c r="P10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <v>430.89367499999202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3457,8 +5257,17 @@
       <c r="F11">
         <v>256.91782500000602</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>112.612274999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3477,8 +5286,17 @@
       <c r="F12">
         <v>749.17507500000102</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <v>256.91782500000602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3497,8 +5315,17 @@
       <c r="F13">
         <v>401.89769999999601</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13">
+        <v>749.17507500000102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3517,8 +5344,17 @@
       <c r="F14">
         <v>13.947149999999899</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <v>401.89769999999601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -3537,8 +5373,17 @@
       <c r="F15">
         <v>69.735750000003307</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15">
+        <v>13.947149999999899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -3557,8 +5402,17 @@
       <c r="F16">
         <v>7.1610000000002803</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16">
+        <v>69.735750000003307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -3577,8 +5431,17 @@
       <c r="F17">
         <v>163.986899999982</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>179</v>
+      </c>
+      <c r="P17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17">
+        <v>579.80294999999296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -3597,8 +5460,17 @@
       <c r="F18">
         <v>68.029499999998706</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18">
+        <v>3658.8023499999899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -3617,8 +5489,17 @@
       <c r="F19">
         <v>3.5805000000015799</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>714.62540000000899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -3637,8 +5518,17 @@
       <c r="F20">
         <v>219.12660000000099</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20">
+        <v>7.1610000000002803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -3657,8 +5547,17 @@
       <c r="F21">
         <v>1727.984412</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21">
+        <v>163.986899999982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -3677,8 +5576,17 @@
       <c r="F22">
         <v>1637.39545200001</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>182</v>
+      </c>
+      <c r="P22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <v>52.991399999998002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3697,8 +5605,17 @@
       <c r="F23">
         <v>296.67884399999798</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23">
+        <v>68.029499999998706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -3717,8 +5634,17 @@
       <c r="F24">
         <v>405.38559600000099</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24">
+        <v>3.5805000000015799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3737,8 +5663,17 @@
       <c r="F25">
         <v>758.68253999999604</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25">
+        <v>219.12660000000099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -3757,8 +5692,17 @@
       <c r="F26">
         <v>2120.536572</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26">
+        <v>287.15609999999799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -3777,8 +5721,17 @@
       <c r="F27">
         <v>644.78041599999904</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27">
+        <v>243.473999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -3797,8 +5750,17 @@
       <c r="F28">
         <v>72.373311999996602</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <v>1727.984412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -3817,8 +5779,17 @@
       <c r="F29">
         <v>493.454400000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29">
+        <v>1637.39545200001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -3837,8 +5808,17 @@
       <c r="F30">
         <v>264.82052799999298</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30">
+        <v>296.67884399999798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -3857,8 +5837,17 @@
       <c r="F31">
         <v>233.56841600000399</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31">
+        <v>405.38559600000099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -3877,8 +5866,17 @@
       <c r="F32">
         <v>40.298776000000402</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32">
+        <v>758.68253999999604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -3897,8 +5895,17 @@
       <c r="F33">
         <v>1038.7215120000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>184</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33">
+        <v>850.78131600000404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -3917,8 +5924,17 @@
       <c r="F34">
         <v>830.64823999999498</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34">
+        <v>2120.536572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -3937,8 +5953,17 @@
       <c r="F35">
         <v>373.38049600000198</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35">
+        <v>644.78041599999904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -3957,8 +5982,17 @@
       <c r="F36">
         <v>480.00979599998698</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>35</v>
+      </c>
+      <c r="P36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q36">
+        <v>72.373311999996602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -3977,8 +6011,17 @@
       <c r="F37">
         <v>1048.6625160000101</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>36</v>
+      </c>
+      <c r="P37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q37">
+        <v>493.454400000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -3997,8 +6040,17 @@
       <c r="F38">
         <v>430.67081000000297</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>37</v>
+      </c>
+      <c r="P38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38">
+        <v>264.82052799999298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -4017,8 +6069,17 @@
       <c r="F39">
         <v>239.16864399999901</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q39">
+        <v>233.56841600000399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -4037,8 +6098,17 @@
       <c r="F40">
         <v>16.863210000010099</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P40" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q40">
+        <v>40.298776000000402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -4057,8 +6127,17 @@
       <c r="F41">
         <v>28.908360000001299</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
+        <v>40</v>
+      </c>
+      <c r="P41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q41">
+        <v>1038.7215120000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -4077,8 +6156,17 @@
       <c r="F42">
         <v>43.362540000000401</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O42" t="s">
+        <v>41</v>
+      </c>
+      <c r="P42" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q42">
+        <v>830.64823999999498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -4097,8 +6185,17 @@
       <c r="F43">
         <v>16.863209999999199</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q43">
+        <v>373.38049600000198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
@@ -4117,8 +6214,17 @@
       <c r="F44">
         <v>24.0902999999971</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>185</v>
+      </c>
+      <c r="P44" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q44">
+        <v>255.773864</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
@@ -4137,8 +6243,17 @@
       <c r="F45">
         <v>70.664879999996799</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P45" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q45">
+        <v>480.00979599998698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
@@ -4157,8 +6272,17 @@
       <c r="F46">
         <v>2.9770899999982001</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O46" t="s">
+        <v>45</v>
+      </c>
+      <c r="P46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46">
+        <v>1048.6625160000101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -4177,8 +6301,17 @@
       <c r="F47">
         <v>79.190594000003998</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O47" t="s">
+        <v>46</v>
+      </c>
+      <c r="P47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47">
+        <v>430.67081000000297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -4197,8 +6330,17 @@
       <c r="F48">
         <v>141.709483999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>47</v>
+      </c>
+      <c r="P48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48">
+        <v>239.16864399999901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -4217,8 +6359,17 @@
       <c r="F49">
         <v>8.3358519999987095</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O49" t="s">
+        <v>48</v>
+      </c>
+      <c r="P49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q49">
+        <v>16.863210000010099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -4237,8 +6388,17 @@
       <c r="F50">
         <v>163.144532</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>50</v>
+      </c>
+      <c r="P50" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q50">
+        <v>28.908360000001299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -4257,8 +6417,17 @@
       <c r="F51">
         <v>189.62036400000201</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>51</v>
+      </c>
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51">
+        <v>43.362540000000401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -4277,8 +6446,17 @@
       <c r="F52">
         <v>274.824228000007</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q52">
+        <v>16.863209999999199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -4297,8 +6475,17 @@
       <c r="F53">
         <v>454.42060799999501</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q53">
+        <v>24.0902999999971</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -4317,8 +6504,17 @@
       <c r="F54">
         <v>67.520351999995</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>54</v>
+      </c>
+      <c r="P54" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q54">
+        <v>70.664879999996799</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -4337,8 +6533,17 @@
       <c r="F55">
         <v>641.87068799999497</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O55" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55">
+        <v>2.9770899999982001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -4357,8 +6562,17 @@
       <c r="F56">
         <v>187.17667200000199</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O56" t="s">
+        <v>57</v>
+      </c>
+      <c r="P56" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q56">
+        <v>79.190594000003998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -4377,8 +6591,17 @@
       <c r="F57">
         <v>62.392224000006998</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>58</v>
+      </c>
+      <c r="P57" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q57">
+        <v>141.709483999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -4397,8 +6620,17 @@
       <c r="F58">
         <v>19.657824000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58">
+        <v>8.3358519999987095</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -4417,8 +6649,17 @@
       <c r="F59">
         <v>6.837504</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q59">
+        <v>163.144532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -4437,8 +6678,17 @@
       <c r="F60">
         <v>584.60659199998997</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O60" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q60">
+        <v>189.62036400000201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -4457,8 +6707,17 @@
       <c r="F61">
         <v>287.15609999999799</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q61">
+        <v>274.824228000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4477,8 +6736,17 @@
       <c r="F62">
         <v>31.6234560000035</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O62" t="s">
+        <v>64</v>
+      </c>
+      <c r="P62" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q62">
+        <v>454.42060799999501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -4497,8 +6765,17 @@
       <c r="F63">
         <v>25.640639999999902</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O63" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q63">
+        <v>67.520351999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -4517,8 +6794,17 @@
       <c r="F64">
         <v>170.93759999999901</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q64">
+        <v>641.87068799999497</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
@@ -4537,8 +6823,17 @@
       <c r="F65">
         <v>911.95209599999805</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O65" t="s">
+        <v>68</v>
+      </c>
+      <c r="P65" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q65">
+        <v>187.17667200000199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
@@ -4557,8 +6852,17 @@
       <c r="F66">
         <v>10460.750351999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O66" t="s">
+        <v>186</v>
+      </c>
+      <c r="P66" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q66">
+        <v>4731.5527679999695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>81</v>
       </c>
@@ -4577,8 +6881,17 @@
       <c r="F67">
         <v>128.03856000000201</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O67" t="s">
+        <v>69</v>
+      </c>
+      <c r="P67" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q67">
+        <v>62.392224000006998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -4597,8 +6910,17 @@
       <c r="F68">
         <v>1486.8477780000101</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>70</v>
+      </c>
+      <c r="P68" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q68">
+        <v>19.657824000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>83</v>
       </c>
@@ -4617,8 +6939,17 @@
       <c r="F69">
         <v>396.11929499999098</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q69">
+        <v>6.837504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>84</v>
       </c>
@@ -4637,8 +6968,17 @@
       <c r="F70">
         <v>209.66314200001</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O70" t="s">
+        <v>72</v>
+      </c>
+      <c r="P70" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q70">
+        <v>584.60659199998997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>85</v>
       </c>
@@ -4657,8 +6997,23 @@
       <c r="F71">
         <v>1644.4952550000301</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>175</v>
+      </c>
+      <c r="I71" t="s">
+        <v>176</v>
+      </c>
+      <c r="O71" t="s">
+        <v>73</v>
+      </c>
+      <c r="P71" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q71">
+        <v>1047.8474880000099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
@@ -4672,13 +7027,28 @@
         <v>39123.640899999999</v>
       </c>
       <c r="E72">
+        <v>393.16385000000537</v>
+      </c>
+      <c r="F72">
+        <v>393.16385000000537</v>
+      </c>
+      <c r="H72">
         <v>0.85284999999994604</v>
       </c>
-      <c r="F72">
+      <c r="I72">
         <v>0.85284999999994604</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O72" t="s">
+        <v>74</v>
+      </c>
+      <c r="P72" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q72">
+        <v>31.6234560000035</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>88</v>
       </c>
@@ -4697,8 +7067,23 @@
       <c r="F73">
         <v>48.506304000001599</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>64.816600000004399</v>
+      </c>
+      <c r="I73">
+        <v>64.816600000004399</v>
+      </c>
+      <c r="O73" t="s">
+        <v>40</v>
+      </c>
+      <c r="P73" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q73">
+        <v>604.26441599999703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
@@ -4717,8 +7102,23 @@
       <c r="F74">
         <v>71.332799999997903</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>1.7056999999982301</v>
+      </c>
+      <c r="I74">
+        <v>1.7056999999982301</v>
+      </c>
+      <c r="O74" t="s">
+        <v>75</v>
+      </c>
+      <c r="P74" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q74">
+        <v>25.640639999999902</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>91</v>
       </c>
@@ -4737,8 +7137,23 @@
       <c r="F75">
         <v>16.9717279999957</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>5.96994999999737</v>
+      </c>
+      <c r="I75">
+        <v>5.96994999999737</v>
+      </c>
+      <c r="O75" t="s">
+        <v>77</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q75">
+        <v>170.93759999999901</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
@@ -4757,8 +7172,23 @@
       <c r="F76">
         <v>173.81390399999901</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>5.1170999999999998</v>
+      </c>
+      <c r="I76">
+        <v>5.1170999999999998</v>
+      </c>
+      <c r="O76" t="s">
+        <v>79</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q76">
+        <v>911.95209599999805</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -4777,8 +7207,23 @@
       <c r="F77">
         <v>7.6080160000014496</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>16.204150000002599</v>
+      </c>
+      <c r="I77">
+        <v>16.204150000002599</v>
+      </c>
+      <c r="O77" t="s">
+        <v>80</v>
+      </c>
+      <c r="P77" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q77">
+        <v>10460.750351999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>95</v>
       </c>
@@ -4797,8 +7242,23 @@
       <c r="F78">
         <v>39.210544000005498</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>200.41975000000201</v>
+      </c>
+      <c r="I78">
+        <v>200.41975000000201</v>
+      </c>
+      <c r="O78" t="s">
+        <v>81</v>
+      </c>
+      <c r="P78" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q78">
+        <v>128.03856000000201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
@@ -4817,8 +7277,23 @@
       <c r="F79">
         <v>3423.0219680001001</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>4.2642499999981203</v>
+      </c>
+      <c r="I79">
+        <v>4.2642499999981203</v>
+      </c>
+      <c r="O79" t="s">
+        <v>82</v>
+      </c>
+      <c r="P79" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q79">
+        <v>1486.8477780000101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
@@ -4837,8 +7312,23 @@
       <c r="F80">
         <v>83.688176000000496</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>64.816600000004399</v>
+      </c>
+      <c r="I80">
+        <v>64.816600000004399</v>
+      </c>
+      <c r="O80" t="s">
+        <v>83</v>
+      </c>
+      <c r="P80" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q80">
+        <v>396.11929499999098</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>98</v>
       </c>
@@ -4857,8 +7347,23 @@
       <c r="F81">
         <v>80.176783999996204</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>28.996899999998298</v>
+      </c>
+      <c r="I81">
+        <v>28.996899999998298</v>
+      </c>
+      <c r="O81" t="s">
+        <v>187</v>
+      </c>
+      <c r="P81" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q81">
+        <v>1945.38587100001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>99</v>
       </c>
@@ -4877,8 +7382,25 @@
       <c r="F82">
         <v>1632.2120480000301</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <f>+SUM(H72:H81)</f>
+        <v>393.16385000000537</v>
+      </c>
+      <c r="I82">
+        <f>+SUM(I72:I81)</f>
+        <v>393.16385000000537</v>
+      </c>
+      <c r="O82" t="s">
+        <v>188</v>
+      </c>
+      <c r="P82" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q82">
+        <v>728.21930999999404</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>100</v>
       </c>
@@ -4897,8 +7419,17 @@
       <c r="F83">
         <v>59.693664000003999</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O83" t="s">
+        <v>84</v>
+      </c>
+      <c r="P83" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q83">
+        <v>209.66314200001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
@@ -4917,8 +7448,17 @@
       <c r="F84">
         <v>61.4493600000011</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O84" t="s">
+        <v>85</v>
+      </c>
+      <c r="P84" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q84">
+        <v>1644.4952550000301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>102</v>
       </c>
@@ -4937,8 +7477,17 @@
       <c r="F85">
         <v>470.52652800000402</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O85" t="s">
+        <v>86</v>
+      </c>
+      <c r="P85" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q85">
+        <v>0.85284999999994604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
@@ -4957,8 +7506,17 @@
       <c r="F86">
         <v>2538.7364160000102</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O86" t="s">
+        <v>189</v>
+      </c>
+      <c r="P86" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q86">
+        <v>64.816600000004399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
@@ -4977,8 +7535,17 @@
       <c r="F87">
         <v>79.591552000003503</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O87" t="s">
+        <v>190</v>
+      </c>
+      <c r="P87" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q87">
+        <v>1.7056999999982301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
@@ -4997,8 +7564,17 @@
       <c r="F88">
         <v>7.6080159999970602</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O88" t="s">
+        <v>191</v>
+      </c>
+      <c r="P88" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q88">
+        <v>5.96994999999737</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
@@ -5017,8 +7593,17 @@
       <c r="F89">
         <v>145.72276799999099</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O89" t="s">
+        <v>192</v>
+      </c>
+      <c r="P89" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q89">
+        <v>5.1170999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
@@ -5037,8 +7622,17 @@
       <c r="F90">
         <v>414.92948799999402</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O90" t="s">
+        <v>193</v>
+      </c>
+      <c r="P90" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q90">
+        <v>16.204150000002599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
@@ -5057,8 +7651,17 @@
       <c r="F91">
         <v>1554.37619200003</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O91" t="s">
+        <v>194</v>
+      </c>
+      <c r="P91" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q91">
+        <v>200.41975000000201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>109</v>
       </c>
@@ -5077,8 +7680,17 @@
       <c r="F92">
         <v>4.3853040000006702</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O92" t="s">
+        <v>195</v>
+      </c>
+      <c r="P92" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q92">
+        <v>4.2642499999981203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>110</v>
       </c>
@@ -5097,8 +7709,17 @@
       <c r="F93">
         <v>789.354719999998</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O93" t="s">
+        <v>196</v>
+      </c>
+      <c r="P93" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q93">
+        <v>64.816600000004399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>111</v>
       </c>
@@ -5117,8 +7738,17 @@
       <c r="F94">
         <v>51.161880000002697</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O94" t="s">
+        <v>197</v>
+      </c>
+      <c r="P94" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q94">
+        <v>28.996899999998298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>112</v>
       </c>
@@ -5137,8 +7767,17 @@
       <c r="F95">
         <v>3.6544200000010001</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O95" t="s">
+        <v>88</v>
+      </c>
+      <c r="P95" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q95">
+        <v>48.506304000001599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>113</v>
       </c>
@@ -5157,8 +7796,17 @@
       <c r="F96">
         <v>47.593639999993599</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O96" t="s">
+        <v>90</v>
+      </c>
+      <c r="P96" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q96">
+        <v>71.332799999997903</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>115</v>
       </c>
@@ -5177,8 +7825,17 @@
       <c r="F97">
         <v>7.3852200000030201</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O97" t="s">
+        <v>198</v>
+      </c>
+      <c r="P97" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q97">
+        <v>5.7066240000003603</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>116</v>
       </c>
@@ -5197,8 +7854,17 @@
       <c r="F98">
         <v>16.411600000000998</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O98" t="s">
+        <v>91</v>
+      </c>
+      <c r="P98" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q98">
+        <v>16.9717279999957</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>117</v>
       </c>
@@ -5217,8 +7883,17 @@
       <c r="F99">
         <v>30.361460000008499</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O99" t="s">
+        <v>93</v>
+      </c>
+      <c r="P99" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q99">
+        <v>173.81390399999901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>118</v>
       </c>
@@ -5237,8 +7912,17 @@
       <c r="F100">
         <v>11.488120000002599</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O100" t="s">
+        <v>94</v>
+      </c>
+      <c r="P100" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q100">
+        <v>7.6080160000014496</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>119</v>
       </c>
@@ -5257,8 +7941,17 @@
       <c r="F101">
         <v>1.64116000000021</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O101" t="s">
+        <v>95</v>
+      </c>
+      <c r="P101" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q101">
+        <v>39.210544000005498</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>120</v>
       </c>
@@ -5277,8 +7970,17 @@
       <c r="F102">
         <v>574.40599999997198</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O102" t="s">
+        <v>96</v>
+      </c>
+      <c r="P102" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q102">
+        <v>3423.0219680001001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>121</v>
       </c>
@@ -5297,8 +7999,17 @@
       <c r="F103">
         <v>6.5646400000040597</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O103" t="s">
+        <v>97</v>
+      </c>
+      <c r="P103" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q103">
+        <v>83.688176000000496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>122</v>
       </c>
@@ -5317,8 +8028,17 @@
       <c r="F104">
         <v>55.799440000015899</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O104" t="s">
+        <v>98</v>
+      </c>
+      <c r="P104" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q104">
+        <v>80.176783999996204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>123</v>
       </c>
@@ -5337,8 +8057,17 @@
       <c r="F105">
         <v>91.084379999989196</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O105" t="s">
+        <v>99</v>
+      </c>
+      <c r="P105" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q105">
+        <v>1632.2120480000301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>124</v>
       </c>
@@ -5357,8 +8086,17 @@
       <c r="F106">
         <v>128.83106000001001</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O106" t="s">
+        <v>100</v>
+      </c>
+      <c r="P106" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q106">
+        <v>59.693664000003999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>125</v>
       </c>
@@ -5377,8 +8115,17 @@
       <c r="F107">
         <v>5.7440599999997897</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O107" t="s">
+        <v>101</v>
+      </c>
+      <c r="P107" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q107">
+        <v>61.4493600000011</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>126</v>
       </c>
@@ -5397,8 +8144,17 @@
       <c r="F108">
         <v>103.393080000013</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O108" t="s">
+        <v>102</v>
+      </c>
+      <c r="P108" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q108">
+        <v>470.52652800000402</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>127</v>
       </c>
@@ -5417,8 +8173,17 @@
       <c r="F109">
         <v>49.828568000000203</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O109" t="s">
+        <v>103</v>
+      </c>
+      <c r="P109" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q109">
+        <v>2538.7364160000102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>129</v>
       </c>
@@ -5437,8 +8202,17 @@
       <c r="F110">
         <v>81.076992000004694</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O110" t="s">
+        <v>104</v>
+      </c>
+      <c r="P110" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q110">
+        <v>79.591552000003503</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>130</v>
       </c>
@@ -5457,8 +8231,17 @@
       <c r="F111">
         <v>10.1346240000015</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O111" t="s">
+        <v>105</v>
+      </c>
+      <c r="P111" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q111">
+        <v>7.6080159999970602</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>131</v>
       </c>
@@ -5477,8 +8260,17 @@
       <c r="F112">
         <v>367.380120000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O112" t="s">
+        <v>106</v>
+      </c>
+      <c r="P112" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q112">
+        <v>145.72276799999099</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>132</v>
       </c>
@@ -5497,8 +8289,17 @@
       <c r="F113">
         <v>21.1138000000015</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O113" t="s">
+        <v>199</v>
+      </c>
+      <c r="P113" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q113">
+        <v>67.301679999997404</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>133</v>
       </c>
@@ -5517,8 +8318,17 @@
       <c r="F114">
         <v>377.514743999985</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O114" t="s">
+        <v>200</v>
+      </c>
+      <c r="P114" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q114">
+        <v>287.93414399999898</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
@@ -5537,8 +8347,17 @@
       <c r="F115">
         <v>107.258103999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O115" t="s">
+        <v>107</v>
+      </c>
+      <c r="P115" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q115">
+        <v>414.92948799999402</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>135</v>
       </c>
@@ -5557,8 +8376,17 @@
       <c r="F116">
         <v>123.30459200000701</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O116" t="s">
+        <v>201</v>
+      </c>
+      <c r="P116" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q116">
+        <v>2538.7364160000102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
@@ -5577,8 +8405,17 @@
       <c r="F117">
         <v>1915.9818600000101</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O117" t="s">
+        <v>202</v>
+      </c>
+      <c r="P117" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q117">
+        <v>8.77848000000259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
@@ -5597,8 +8434,17 @@
       <c r="F118">
         <v>2535.10256999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O118" t="s">
+        <v>108</v>
+      </c>
+      <c r="P118" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q118">
+        <v>1554.37619200003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>138</v>
       </c>
@@ -5617,8 +8463,17 @@
       <c r="F119">
         <v>128.48160000000499</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O119" t="s">
+        <v>203</v>
+      </c>
+      <c r="P119" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q119">
+        <v>9.9489439999997291</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
@@ -5637,8 +8492,17 @@
       <c r="F120">
         <v>4.2642299999965703</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O120" t="s">
+        <v>109</v>
+      </c>
+      <c r="P120" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q120">
+        <v>4.3853040000006702</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>141</v>
       </c>
@@ -5657,8 +8521,17 @@
       <c r="F121">
         <v>0.85284600000005395</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O121" t="s">
+        <v>204</v>
+      </c>
+      <c r="P121" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q121">
+        <v>9.5014920000004306</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>142</v>
       </c>
@@ -5677,8 +8550,17 @@
       <c r="F122">
         <v>7.6756139999931401</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O122" t="s">
+        <v>110</v>
+      </c>
+      <c r="P122" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q122">
+        <v>789.354719999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>143</v>
       </c>
@@ -5697,8 +8579,17 @@
       <c r="F123">
         <v>0.852845999996515</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O123" t="s">
+        <v>111</v>
+      </c>
+      <c r="P123" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q123">
+        <v>51.161880000002697</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>144</v>
       </c>
@@ -5717,8 +8608,17 @@
       <c r="F124">
         <v>50.695774999998299</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O124" t="s">
+        <v>112</v>
+      </c>
+      <c r="P124" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q124">
+        <v>3.6544200000010001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>146</v>
       </c>
@@ -5737,8 +8637,17 @@
       <c r="F125">
         <v>3.1197399999992101</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O125" t="s">
+        <v>113</v>
+      </c>
+      <c r="P125" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q125">
+        <v>47.593639999993599</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
@@ -5757,8 +8666,17 @@
       <c r="F126">
         <v>9.3592200000007892</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O126" t="s">
+        <v>115</v>
+      </c>
+      <c r="P126" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q126">
+        <v>7.3852200000030201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>147</v>
       </c>
@@ -5777,8 +8695,17 @@
       <c r="F127">
         <v>304.95865399999701</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O127" t="s">
+        <v>116</v>
+      </c>
+      <c r="P127" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q127">
+        <v>16.411600000000998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>148</v>
       </c>
@@ -5797,8 +8724,17 @@
       <c r="F128">
         <v>56.626752000001098</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O128" t="s">
+        <v>117</v>
+      </c>
+      <c r="P128" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q128">
+        <v>30.361460000008499</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>149</v>
       </c>
@@ -5817,8 +8753,17 @@
       <c r="F129">
         <v>21.047415999998901</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O129" t="s">
+        <v>118</v>
+      </c>
+      <c r="P129" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q129">
+        <v>11.488120000002599</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>151</v>
       </c>
@@ -5837,8 +8782,17 @@
       <c r="F130">
         <v>11.3332239999962</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O130" t="s">
+        <v>119</v>
+      </c>
+      <c r="P130" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q130">
+        <v>1.64116000000021</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>152</v>
       </c>
@@ -5857,8 +8811,17 @@
       <c r="F131">
         <v>158.66513600000701</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O131" t="s">
+        <v>120</v>
+      </c>
+      <c r="P131" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q131">
+        <v>574.40599999997198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>153</v>
       </c>
@@ -5877,8 +8840,17 @@
       <c r="F132">
         <v>18.357020000003399</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O132" t="s">
+        <v>121</v>
+      </c>
+      <c r="P132" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q132">
+        <v>6.5646400000040597</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>155</v>
       </c>
@@ -5897,8 +8869,17 @@
       <c r="F133">
         <v>1746.42013</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O133" t="s">
+        <v>122</v>
+      </c>
+      <c r="P133" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q133">
+        <v>55.799440000015899</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>156</v>
       </c>
@@ -5917,8 +8898,17 @@
       <c r="F134">
         <v>2.5032300000064498</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O134" t="s">
+        <v>123</v>
+      </c>
+      <c r="P134" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q134">
+        <v>91.084379999989196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>157</v>
       </c>
@@ -5937,8 +8927,17 @@
       <c r="F135">
         <v>61.746340000004302</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O135" t="s">
+        <v>124</v>
+      </c>
+      <c r="P135" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q135">
+        <v>128.83106000001001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>158</v>
       </c>
@@ -5957,8 +8956,17 @@
       <c r="F136">
         <v>148.52497999998201</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O136" t="s">
+        <v>125</v>
+      </c>
+      <c r="P136" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q136">
+        <v>5.7440599999997897</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>159</v>
       </c>
@@ -5977,8 +8985,17 @@
       <c r="F137">
         <v>33.530373999989997</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O137" t="s">
+        <v>126</v>
+      </c>
+      <c r="P137" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q137">
+        <v>103.393080000013</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
@@ -5997,8 +9014,17 @@
       <c r="F138">
         <v>106.315820000012</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O138" t="s">
+        <v>127</v>
+      </c>
+      <c r="P138" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q138">
+        <v>49.828568000000203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>162</v>
       </c>
@@ -6017,8 +9043,17 @@
       <c r="F139">
         <v>143.11744999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O139" t="s">
+        <v>129</v>
+      </c>
+      <c r="P139" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q139">
+        <v>81.076992000004694</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>163</v>
       </c>
@@ -6037,8 +9072,17 @@
       <c r="F140">
         <v>197.91098800002001</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O140" t="s">
+        <v>130</v>
+      </c>
+      <c r="P140" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q140">
+        <v>10.1346240000015</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>164</v>
       </c>
@@ -6057,8 +9101,17 @@
       <c r="F141">
         <v>1106.50234199996</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O141" t="s">
+        <v>131</v>
+      </c>
+      <c r="P141" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q141">
+        <v>367.380120000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>165</v>
       </c>
@@ -6077,8 +9130,17 @@
       <c r="F142">
         <v>81.816250000004302</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O142" t="s">
+        <v>132</v>
+      </c>
+      <c r="P142" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q142">
+        <v>21.1138000000015</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>166</v>
       </c>
@@ -6097,8 +9159,17 @@
       <c r="F143">
         <v>18.7774999999992</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O143" t="s">
+        <v>133</v>
+      </c>
+      <c r="P143" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q143">
+        <v>377.514743999985</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>168</v>
       </c>
@@ -6117,8 +9188,17 @@
       <c r="F144">
         <v>6.0356249999984302</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O144" t="s">
+        <v>205</v>
+      </c>
+      <c r="P144" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q144">
+        <v>92.9007200000148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>167</v>
       </c>
@@ -6137,8 +9217,392 @@
       <c r="F145">
         <v>109.31187499999599</v>
       </c>
+      <c r="O145" t="s">
+        <v>134</v>
+      </c>
+      <c r="P145" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q145">
+        <v>107.258103999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O146" t="s">
+        <v>135</v>
+      </c>
+      <c r="P146" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q146">
+        <v>123.30459200000701</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O147" t="s">
+        <v>136</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q147">
+        <v>1915.9818600000101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O148" t="s">
+        <v>137</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q148">
+        <v>2535.10256999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O149" t="s">
+        <v>138</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q149">
+        <v>128.48160000000499</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O150" t="s">
+        <v>139</v>
+      </c>
+      <c r="P150" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q150">
+        <v>4.2642299999965703</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O151" t="s">
+        <v>141</v>
+      </c>
+      <c r="P151" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q151">
+        <v>0.85284600000005395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O152" t="s">
+        <v>142</v>
+      </c>
+      <c r="P152" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q152">
+        <v>7.6756139999931401</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O153" t="s">
+        <v>143</v>
+      </c>
+      <c r="P153" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q153">
+        <v>0.852845999996515</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O154" t="s">
+        <v>144</v>
+      </c>
+      <c r="P154" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q154">
+        <v>50.695774999998299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O155" t="s">
+        <v>146</v>
+      </c>
+      <c r="P155" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q155">
+        <v>3.1197399999992101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O156" t="s">
+        <v>145</v>
+      </c>
+      <c r="P156" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q156">
+        <v>9.3592200000007892</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O157" t="s">
+        <v>147</v>
+      </c>
+      <c r="P157" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q157">
+        <v>304.95865399999701</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O158" t="s">
+        <v>148</v>
+      </c>
+      <c r="P158" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q158">
+        <v>56.626752000001098</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O159" t="s">
+        <v>149</v>
+      </c>
+      <c r="P159" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q159">
+        <v>21.047415999998901</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O160" t="s">
+        <v>151</v>
+      </c>
+      <c r="P160" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q160">
+        <v>11.3332239999962</v>
+      </c>
+    </row>
+    <row r="161" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O161" t="s">
+        <v>152</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q161">
+        <v>158.66513600000701</v>
+      </c>
+    </row>
+    <row r="162" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O162" t="s">
+        <v>153</v>
+      </c>
+      <c r="P162" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q162">
+        <v>18.357020000003399</v>
+      </c>
+    </row>
+    <row r="163" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O163" t="s">
+        <v>206</v>
+      </c>
+      <c r="P163" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q163">
+        <v>18.357020000003399</v>
+      </c>
+    </row>
+    <row r="164" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O164" t="s">
+        <v>155</v>
+      </c>
+      <c r="P164" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q164">
+        <v>1746.42013</v>
+      </c>
+    </row>
+    <row r="165" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O165" t="s">
+        <v>156</v>
+      </c>
+      <c r="P165" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q165">
+        <v>2.5032300000064498</v>
+      </c>
+    </row>
+    <row r="166" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O166" t="s">
+        <v>157</v>
+      </c>
+      <c r="P166" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q166">
+        <v>61.746340000004302</v>
+      </c>
+    </row>
+    <row r="167" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O167" t="s">
+        <v>158</v>
+      </c>
+      <c r="P167" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q167">
+        <v>148.52497999998201</v>
+      </c>
+    </row>
+    <row r="168" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O168" t="s">
+        <v>207</v>
+      </c>
+      <c r="P168" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q168">
+        <v>1171.5116399999999</v>
+      </c>
+    </row>
+    <row r="169" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O169" t="s">
+        <v>159</v>
+      </c>
+      <c r="P169" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q169">
+        <v>33.530373999989997</v>
+      </c>
+    </row>
+    <row r="170" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O170" t="s">
+        <v>161</v>
+      </c>
+      <c r="P170" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q170">
+        <v>106.315820000012</v>
+      </c>
+    </row>
+    <row r="171" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O171" t="s">
+        <v>208</v>
+      </c>
+      <c r="P171" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q171">
+        <v>106.315820000012</v>
+      </c>
+    </row>
+    <row r="172" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O172" t="s">
+        <v>162</v>
+      </c>
+      <c r="P172" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q172">
+        <v>143.11744999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O173" t="s">
+        <v>163</v>
+      </c>
+      <c r="P173" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q173">
+        <v>197.91098800002001</v>
+      </c>
+    </row>
+    <row r="174" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O174" t="s">
+        <v>209</v>
+      </c>
+      <c r="P174" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q174">
+        <v>118.58302999999501</v>
+      </c>
+    </row>
+    <row r="175" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O175" t="s">
+        <v>164</v>
+      </c>
+      <c r="P175" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q175">
+        <v>1106.50234199996</v>
+      </c>
+    </row>
+    <row r="176" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O176" t="s">
+        <v>165</v>
+      </c>
+      <c r="P176" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q176">
+        <v>81.816250000004302</v>
+      </c>
+    </row>
+    <row r="177" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O177" t="s">
+        <v>166</v>
+      </c>
+      <c r="P177" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q177">
+        <v>18.7774999999992</v>
+      </c>
+    </row>
+    <row r="178" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O178" t="s">
+        <v>168</v>
+      </c>
+      <c r="P178" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q178">
+        <v>6.0356249999984302</v>
+      </c>
+    </row>
+    <row r="179" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O179" t="s">
+        <v>167</v>
+      </c>
+      <c r="P179" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q179">
+        <v>109.31187499999599</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-raw/archipelagos_in_datasets_no_duplicates.xlsx
+++ b/data-raw/archipelagos_in_datasets_no_duplicates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="12165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId4"/>
-    <pivotCache cacheId="23" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3181,7 +3181,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -3371,7 +3371,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -3985,7 +3985,7 @@
   <dimension ref="A3:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4601,7 +4601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4938,8 +4938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="S146" sqref="S146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-raw/archipelagos_in_datasets_no_duplicates.xlsx
+++ b/data-raw/archipelagos_in_datasets_no_duplicates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="12165" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -44,6 +44,30 @@
     <author>Pedro Neves</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pedro Neves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DO NOT USE FOR K0 AS DUPLICATE K16 WERE REMOVED</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C72" authorId="0" shapeId="0">
       <text>
         <r>
@@ -97,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="212">
   <si>
     <t>island</t>
   </si>
@@ -616,12 +640,6 @@
   </si>
   <si>
     <t>ka0_Cutler</t>
-  </si>
-  <si>
-    <t>Sum of ka0_Lambeck</t>
-  </si>
-  <si>
-    <t>Soma de ka0_Cutler</t>
   </si>
   <si>
     <t>Sum of k0 inner seyschelles lambeck</t>
@@ -3182,7 +3200,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:C37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -3225,8 +3243,8 @@
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -3338,25 +3356,17 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
   </colItems>
-  <dataFields count="4">
+  <dataFields count="2">
     <dataField name="Sum of ka16_Lambeck" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Sum of ka16_Cutler" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of ka0_Lambeck" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Soma de ka0_Cutler" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3982,10 +3992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E37"/>
+  <dimension ref="A3:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3993,13 +4003,12 @@
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
         <v>169</v>
@@ -4007,14 +4016,8 @@
       <c r="C3" t="s">
         <v>170</v>
       </c>
-      <c r="D3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4024,14 +4027,11 @@
       <c r="C4" s="5">
         <v>942.99025200000722</v>
       </c>
-      <c r="D4" s="5">
+      <c r="F4" s="5">
         <v>114.6082880000039</v>
       </c>
-      <c r="E4" s="5">
-        <v>114.6082880000039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4041,14 +4041,11 @@
       <c r="C5" s="5">
         <v>3424.2223499999986</v>
       </c>
-      <c r="D5" s="5">
-        <v>1927.8951749999997</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1927.8951749999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>2358.7888499999917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -4058,14 +4055,11 @@
       <c r="C6" s="5">
         <v>11906.881200000029</v>
       </c>
-      <c r="D6" s="5">
-        <v>83.682900000003201</v>
-      </c>
-      <c r="E6" s="5">
-        <v>83.682900000003201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="5">
+        <v>5036.9135999999953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -4075,14 +4069,11 @@
       <c r="C7" s="5">
         <v>3372.830999999971</v>
       </c>
-      <c r="D7" s="5">
-        <v>461.88449999998357</v>
-      </c>
-      <c r="E7" s="5">
-        <v>461.88449999998357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
+        <v>1045.5059999999776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -4092,14 +4083,11 @@
       <c r="C8" s="5">
         <v>11650.495163999974</v>
       </c>
-      <c r="D8" s="5">
-        <v>6946.6634160000049</v>
-      </c>
-      <c r="E8" s="5">
-        <v>6946.6634160000049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <v>7797.444732000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -4109,14 +4097,11 @@
       <c r="C9" s="5">
         <v>7965.9988640000074</v>
       </c>
-      <c r="D9" s="5">
-        <v>3992.0460959999941</v>
-      </c>
-      <c r="E9" s="5">
-        <v>3992.0460959999941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>4247.8199599999944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -4126,14 +4111,11 @@
       <c r="C10" s="5">
         <v>4713.9637980000025</v>
       </c>
-      <c r="D10" s="5">
+      <c r="F10" s="5">
         <v>2198.5117659999992</v>
       </c>
-      <c r="E10" s="5">
-        <v>2198.5117659999992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -4143,14 +4125,11 @@
       <c r="C11" s="5">
         <v>448.88259000000164</v>
       </c>
-      <c r="D11" s="5">
+      <c r="F11" s="5">
         <v>200.75250000000489</v>
       </c>
-      <c r="E11" s="5">
-        <v>200.75250000000489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
@@ -4160,14 +4139,11 @@
       <c r="C12" s="5">
         <v>1114.6224960000129</v>
       </c>
-      <c r="D12" s="5">
+      <c r="F12" s="5">
         <v>395.35755199999687</v>
       </c>
-      <c r="E12" s="5">
-        <v>395.35755199999687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
@@ -4177,14 +4153,11 @@
       <c r="C13" s="5">
         <v>1304.7885840000069</v>
       </c>
-      <c r="D13" s="5">
+      <c r="F13" s="5">
         <v>918.86520000000405</v>
       </c>
-      <c r="E13" s="5">
-        <v>918.86520000000405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
@@ -4194,14 +4167,11 @@
       <c r="C14" s="5">
         <v>5224.7827080000234</v>
       </c>
-      <c r="D14" s="5">
-        <v>1888.8414119999902</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1888.8414119999902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="5">
+        <v>7985.3499839999695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>165</v>
       </c>
@@ -4211,14 +4181,11 @@
       <c r="C15" s="5">
         <v>117.359375</v>
       </c>
-      <c r="D15" s="5">
+      <c r="F15" s="5">
         <v>81.816250000004302</v>
       </c>
-      <c r="E15" s="5">
-        <v>81.816250000004302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -4228,14 +4195,11 @@
       <c r="C16" s="5">
         <v>111.10944000000001</v>
       </c>
-      <c r="D16" s="5">
+      <c r="F16" s="5">
         <v>25.640639999999902</v>
       </c>
-      <c r="E16" s="5">
-        <v>25.640639999999902</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>80</v>
       </c>
@@ -4245,14 +4209,11 @@
       <c r="C17" s="5">
         <v>21248.799272999979</v>
       </c>
-      <c r="D17" s="5">
-        <v>14325.914382000044</v>
-      </c>
-      <c r="E17" s="5">
-        <v>14325.914382000044</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="5">
+        <v>16999.519563000045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>87</v>
       </c>
@@ -4262,14 +4223,11 @@
       <c r="C18" s="5">
         <v>39123.640899999999</v>
       </c>
-      <c r="D18" s="5">
+      <c r="F18" s="5">
         <v>393.16385000000537</v>
       </c>
-      <c r="E18" s="5">
-        <v>393.16385000000537</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>89</v>
       </c>
@@ -4279,14 +4237,11 @@
       <c r="C19" s="5">
         <v>198.30518400000898</v>
       </c>
-      <c r="D19" s="5">
-        <v>119.83910399999951</v>
-      </c>
-      <c r="E19" s="5">
-        <v>119.83910399999951</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="5">
+        <v>125.54572799999987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -4296,14 +4251,11 @@
       <c r="C20" s="5">
         <v>48658.52940800014</v>
       </c>
-      <c r="D20" s="5">
-        <v>10789.337152000164</v>
-      </c>
-      <c r="E20" s="5">
-        <v>10789.337152000164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="5">
+        <v>13702.036816000173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>110</v>
       </c>
@@ -4313,14 +4265,11 @@
       <c r="C21" s="5">
         <v>1417.1840760000077</v>
       </c>
-      <c r="D21" s="5">
-        <v>844.90190400000142</v>
-      </c>
-      <c r="E21" s="5">
-        <v>844.90190400000142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <v>854.40339600000186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>114</v>
       </c>
@@ -4330,14 +4279,11 @@
       <c r="C22" s="5">
         <v>1434.3738400000161</v>
       </c>
-      <c r="D22" s="5">
+      <c r="F22" s="5">
         <v>1080.7038600000128</v>
       </c>
-      <c r="E22" s="5">
-        <v>1080.7038600000128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>128</v>
       </c>
@@ -4347,14 +4293,11 @@
       <c r="C23" s="5">
         <v>1758.3572639999979</v>
       </c>
-      <c r="D23" s="5">
-        <v>1137.6115439999987</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1137.6115439999987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <v>1230.5122640000136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>136</v>
       </c>
@@ -4364,14 +4307,11 @@
       <c r="C24" s="5">
         <v>2816.15607000001</v>
       </c>
-      <c r="D24" s="5">
+      <c r="F24" s="5">
         <v>1915.9818600000101</v>
       </c>
-      <c r="E24" s="5">
-        <v>1915.9818600000101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>140</v>
       </c>
@@ -4381,14 +4321,11 @@
       <c r="C25" s="5">
         <v>150.10089600001649</v>
       </c>
-      <c r="D25" s="5">
+      <c r="F25" s="5">
         <v>13.645535999986279</v>
       </c>
-      <c r="E25" s="5">
-        <v>13.645535999986279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>145</v>
       </c>
@@ -4398,14 +4335,11 @@
       <c r="C26" s="5">
         <v>108.41096499999429</v>
       </c>
-      <c r="D26" s="5">
+      <c r="F26" s="5">
         <v>63.1747349999983</v>
       </c>
-      <c r="E26" s="5">
-        <v>63.1747349999983</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>148</v>
       </c>
@@ -4415,14 +4349,11 @@
       <c r="C27" s="5">
         <v>411.72367599998859</v>
       </c>
-      <c r="D27" s="5">
+      <c r="F27" s="5">
         <v>361.5854059999981</v>
       </c>
-      <c r="E27" s="5">
-        <v>361.5854059999981</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>137</v>
       </c>
@@ -4432,14 +4363,11 @@
       <c r="C28" s="5">
         <v>2797.6868400000099</v>
       </c>
-      <c r="D28" s="5">
+      <c r="F28" s="5">
         <v>2535.10256999999</v>
       </c>
-      <c r="E28" s="5">
-        <v>2535.10256999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>150</v>
       </c>
@@ -4449,14 +4377,11 @@
       <c r="C29" s="5">
         <v>63.951763999993503</v>
       </c>
-      <c r="D29" s="5">
+      <c r="F29" s="5">
         <v>32.380639999995097</v>
       </c>
-      <c r="E29" s="5">
-        <v>32.380639999995097</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>138</v>
       </c>
@@ -4466,14 +4391,11 @@
       <c r="C30" s="5">
         <v>1096.91166</v>
       </c>
-      <c r="D30" s="5">
+      <c r="F30" s="5">
         <v>128.48160000000499</v>
       </c>
-      <c r="E30" s="5">
-        <v>128.48160000000499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>154</v>
       </c>
@@ -4483,14 +4405,11 @@
       <c r="C31" s="5">
         <v>2743.5400800000102</v>
       </c>
-      <c r="D31" s="5">
-        <v>1977.5516999999959</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1977.5516999999959</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="5">
+        <v>3167.4203599999992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -4500,14 +4419,11 @@
       <c r="C32" s="5">
         <v>2648.6781119999996</v>
       </c>
-      <c r="D32" s="5">
+      <c r="F32" s="5">
         <v>1082.889695999997</v>
       </c>
-      <c r="E32" s="5">
-        <v>1082.889695999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>112</v>
       </c>
@@ -4517,14 +4433,11 @@
       <c r="C33" s="5">
         <v>35.813316000002203</v>
       </c>
-      <c r="D33" s="5">
+      <c r="F33" s="5">
         <v>3.6544200000010001</v>
       </c>
-      <c r="E33" s="5">
-        <v>3.6544200000010001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>160</v>
       </c>
@@ -4534,14 +4447,11 @@
       <c r="C34" s="5">
         <v>2599.8307059999761</v>
       </c>
-      <c r="D34" s="5">
-        <v>1587.3769739999821</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1587.3769739999821</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="5">
+        <v>1812.2758239999889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>152</v>
       </c>
@@ -4551,14 +4461,11 @@
       <c r="C35" s="5">
         <v>281.71156800000699</v>
       </c>
-      <c r="D35" s="5">
+      <c r="F35" s="5">
         <v>158.66513600000701</v>
       </c>
-      <c r="E35" s="5">
-        <v>158.66513600000701</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>167</v>
       </c>
@@ -4568,28 +4475,19 @@
       <c r="C36" s="5">
         <v>209.90562500000061</v>
       </c>
-      <c r="D36" s="5">
+      <c r="F36" s="5">
         <v>134.12499999999363</v>
       </c>
-      <c r="E36" s="5">
-        <v>134.12499999999363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B37" s="5">
         <v>199358.10522900001</v>
       </c>
       <c r="C37" s="5">
         <v>182102.53904400021</v>
-      </c>
-      <c r="D37" s="5">
-        <v>57922.652764000188</v>
-      </c>
-      <c r="E37" s="5">
-        <v>57922.652764000188</v>
       </c>
     </row>
   </sheetData>
@@ -4602,7 +4500,7 @@
   <dimension ref="A2:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B36" sqref="B4:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4613,15 +4511,15 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
         <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4923,7 +4821,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B37" s="5">
         <v>78202.643582000179</v>
@@ -4938,8 +4836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4974,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5229,7 +5127,7 @@
         <v>112.612274999999</v>
       </c>
       <c r="O10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P10" t="s">
         <v>9</v>
@@ -5432,7 +5330,7 @@
         <v>163.986899999982</v>
       </c>
       <c r="O17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P17" t="s">
         <v>18</v>
@@ -5461,7 +5359,7 @@
         <v>68.029499999998706</v>
       </c>
       <c r="O18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P18" t="s">
         <v>18</v>
@@ -5490,7 +5388,7 @@
         <v>3.5805000000015799</v>
       </c>
       <c r="O19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P19" t="s">
         <v>18</v>
@@ -5577,7 +5475,7 @@
         <v>1637.39545200001</v>
       </c>
       <c r="O22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P22" t="s">
         <v>21</v>
@@ -5722,7 +5620,7 @@
         <v>644.78041599999904</v>
       </c>
       <c r="O27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P27" t="s">
         <v>21</v>
@@ -5896,7 +5794,7 @@
         <v>1038.7215120000001</v>
       </c>
       <c r="O33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P33" t="s">
         <v>27</v>
@@ -6215,7 +6113,7 @@
         <v>24.0902999999971</v>
       </c>
       <c r="O44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P44" t="s">
         <v>34</v>
@@ -6853,7 +6751,7 @@
         <v>10460.750351999999</v>
       </c>
       <c r="O66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P66" t="s">
         <v>66</v>
@@ -6998,10 +6896,10 @@
         <v>1644.4952550000301</v>
       </c>
       <c r="H71" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O71" t="s">
         <v>73</v>
@@ -7354,7 +7252,7 @@
         <v>28.996899999998298</v>
       </c>
       <c r="O81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P81" t="s">
         <v>80</v>
@@ -7391,7 +7289,7 @@
         <v>393.16385000000537</v>
       </c>
       <c r="O82" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P82" t="s">
         <v>80</v>
@@ -7507,7 +7405,7 @@
         <v>2538.7364160000102</v>
       </c>
       <c r="O86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P86" t="s">
         <v>87</v>
@@ -7536,7 +7434,7 @@
         <v>79.591552000003503</v>
       </c>
       <c r="O87" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P87" t="s">
         <v>87</v>
@@ -7565,7 +7463,7 @@
         <v>7.6080159999970602</v>
       </c>
       <c r="O88" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P88" t="s">
         <v>87</v>
@@ -7594,7 +7492,7 @@
         <v>145.72276799999099</v>
       </c>
       <c r="O89" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P89" t="s">
         <v>87</v>
@@ -7623,7 +7521,7 @@
         <v>414.92948799999402</v>
       </c>
       <c r="O90" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P90" t="s">
         <v>87</v>
@@ -7652,7 +7550,7 @@
         <v>1554.37619200003</v>
       </c>
       <c r="O91" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P91" t="s">
         <v>87</v>
@@ -7681,7 +7579,7 @@
         <v>4.3853040000006702</v>
       </c>
       <c r="O92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P92" t="s">
         <v>87</v>
@@ -7710,7 +7608,7 @@
         <v>789.354719999998</v>
       </c>
       <c r="O93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P93" t="s">
         <v>87</v>
@@ -7739,7 +7637,7 @@
         <v>51.161880000002697</v>
       </c>
       <c r="O94" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P94" t="s">
         <v>87</v>
@@ -7826,7 +7724,7 @@
         <v>7.3852200000030201</v>
       </c>
       <c r="O97" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P97" t="s">
         <v>89</v>
@@ -8290,7 +8188,7 @@
         <v>21.1138000000015</v>
       </c>
       <c r="O113" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P113" t="s">
         <v>92</v>
@@ -8319,7 +8217,7 @@
         <v>377.514743999985</v>
       </c>
       <c r="O114" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P114" t="s">
         <v>92</v>
@@ -8377,7 +8275,7 @@
         <v>123.30459200000701</v>
       </c>
       <c r="O116" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P116" t="s">
         <v>92</v>
@@ -8406,7 +8304,7 @@
         <v>1915.9818600000101</v>
       </c>
       <c r="O117" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P117" t="s">
         <v>92</v>
@@ -8464,7 +8362,7 @@
         <v>128.48160000000499</v>
       </c>
       <c r="O119" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P119" t="s">
         <v>92</v>
@@ -8522,7 +8420,7 @@
         <v>0.85284600000005395</v>
       </c>
       <c r="O121" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P121" t="s">
         <v>110</v>
@@ -9189,7 +9087,7 @@
         <v>6.0356249999984302</v>
       </c>
       <c r="O144" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P144" t="s">
         <v>128</v>
@@ -9416,7 +9314,7 @@
     </row>
     <row r="163" spans="15:17" x14ac:dyDescent="0.25">
       <c r="O163" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P163" t="s">
         <v>154</v>
@@ -9471,7 +9369,7 @@
     </row>
     <row r="168" spans="15:17" x14ac:dyDescent="0.25">
       <c r="O168" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P168" t="s">
         <v>154</v>
@@ -9504,7 +9402,7 @@
     </row>
     <row r="171" spans="15:17" x14ac:dyDescent="0.25">
       <c r="O171" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P171" t="s">
         <v>160</v>
@@ -9537,7 +9435,7 @@
     </row>
     <row r="174" spans="15:17" x14ac:dyDescent="0.25">
       <c r="O174" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P174" t="s">
         <v>160</v>
